--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,142 +665,154 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>126886700</v>
+        <v>111345700</v>
       </c>
       <c r="E8" s="3">
-        <v>93740600</v>
+        <v>114109600</v>
       </c>
       <c r="F8" s="3">
-        <v>82535000</v>
+        <v>84301200</v>
       </c>
       <c r="G8" s="3">
-        <v>90777500</v>
+        <v>74224000</v>
       </c>
       <c r="H8" s="3">
-        <v>86921700</v>
+        <v>81636500</v>
       </c>
       <c r="I8" s="3">
-        <v>2233500</v>
+        <v>78169000</v>
       </c>
       <c r="J8" s="3">
+        <v>2008600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2197500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2028800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>71595700</v>
+        <v>61174600</v>
       </c>
       <c r="E9" s="3">
-        <v>49420600</v>
+        <v>64386300</v>
       </c>
       <c r="F9" s="3">
-        <v>41208200</v>
+        <v>44444100</v>
       </c>
       <c r="G9" s="3">
-        <v>45659500</v>
+        <v>37058600</v>
       </c>
       <c r="H9" s="3">
-        <v>43925500</v>
+        <v>41061800</v>
       </c>
       <c r="I9" s="3">
-        <v>1040900</v>
+        <v>39502400</v>
       </c>
       <c r="J9" s="3">
+        <v>936100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1012900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>906200</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>55291000</v>
+        <v>50171100</v>
       </c>
       <c r="E10" s="3">
-        <v>44320000</v>
+        <v>49723400</v>
       </c>
       <c r="F10" s="3">
-        <v>41326900</v>
+        <v>39857100</v>
       </c>
       <c r="G10" s="3">
-        <v>45118000</v>
+        <v>37165400</v>
       </c>
       <c r="H10" s="3">
-        <v>42996200</v>
+        <v>40574700</v>
       </c>
       <c r="I10" s="3">
-        <v>1192600</v>
+        <v>38666600</v>
       </c>
       <c r="J10" s="3">
+        <v>1072500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1184600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1122700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>56600</v>
+        <v>132700</v>
       </c>
       <c r="E12" s="3">
-        <v>195000</v>
+        <v>50900</v>
       </c>
       <c r="F12" s="3">
-        <v>130900</v>
+        <v>175300</v>
       </c>
       <c r="G12" s="3">
-        <v>460700</v>
+        <v>117800</v>
       </c>
       <c r="H12" s="3">
-        <v>193100</v>
+        <v>414300</v>
       </c>
       <c r="I12" s="3">
-        <v>9500</v>
+        <v>173600</v>
       </c>
       <c r="J12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8100</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,29 +888,32 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>185200</v>
+        <v>133700</v>
       </c>
       <c r="E14" s="3">
-        <v>46400</v>
+        <v>166500</v>
       </c>
       <c r="F14" s="3">
-        <v>135500</v>
+        <v>41700</v>
       </c>
       <c r="G14" s="3">
-        <v>2933100</v>
+        <v>121800</v>
       </c>
       <c r="H14" s="3">
-        <v>1186600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>2637800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1067100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -902,39 +921,45 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5417300</v>
+        <v>5894300</v>
       </c>
       <c r="E15" s="3">
-        <v>5132600</v>
+        <v>4871800</v>
       </c>
       <c r="F15" s="3">
-        <v>4920000</v>
+        <v>4615800</v>
       </c>
       <c r="G15" s="3">
-        <v>5541900</v>
+        <v>4424500</v>
       </c>
       <c r="H15" s="3">
-        <v>4627300</v>
+        <v>4983900</v>
       </c>
       <c r="I15" s="3">
-        <v>90900</v>
+        <v>4161300</v>
       </c>
       <c r="J15" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K15" s="3">
         <v>76300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>67900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>114886500</v>
+        <v>99819800</v>
       </c>
       <c r="E17" s="3">
-        <v>85789100</v>
+        <v>103317800</v>
       </c>
       <c r="F17" s="3">
-        <v>76052300</v>
+        <v>77150400</v>
       </c>
       <c r="G17" s="3">
-        <v>86356800</v>
+        <v>68394000</v>
       </c>
       <c r="H17" s="3">
-        <v>81597500</v>
+        <v>77660900</v>
       </c>
       <c r="I17" s="3">
-        <v>2071700</v>
+        <v>73380900</v>
       </c>
       <c r="J17" s="3">
+        <v>1863100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1975300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1829100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12000200</v>
+        <v>11525900</v>
       </c>
       <c r="E18" s="3">
-        <v>7951500</v>
+        <v>10791800</v>
       </c>
       <c r="F18" s="3">
-        <v>6482800</v>
+        <v>7150800</v>
       </c>
       <c r="G18" s="3">
-        <v>4420700</v>
+        <v>5830000</v>
       </c>
       <c r="H18" s="3">
-        <v>5324100</v>
+        <v>3975600</v>
       </c>
       <c r="I18" s="3">
-        <v>161800</v>
+        <v>4788000</v>
       </c>
       <c r="J18" s="3">
+        <v>145500</v>
+      </c>
+      <c r="K18" s="3">
         <v>222200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>199700</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,158 +1050,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>714100</v>
+        <v>295600</v>
       </c>
       <c r="E20" s="3">
-        <v>690400</v>
+        <v>642200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1543700</v>
+        <v>620900</v>
       </c>
       <c r="G20" s="3">
-        <v>2419300</v>
+        <v>-1388300</v>
       </c>
       <c r="H20" s="3">
-        <v>2717600</v>
+        <v>2175700</v>
       </c>
       <c r="I20" s="3">
-        <v>11000</v>
+        <v>2444000</v>
       </c>
       <c r="J20" s="3">
+        <v>9900</v>
+      </c>
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>18172700</v>
+        <v>17670200</v>
       </c>
       <c r="E21" s="3">
-        <v>13813500</v>
+        <v>16268000</v>
       </c>
       <c r="F21" s="3">
-        <v>9896400</v>
+        <v>12351700</v>
       </c>
       <c r="G21" s="3">
-        <v>12424000</v>
+        <v>8832000</v>
       </c>
       <c r="H21" s="3">
-        <v>12704200</v>
+        <v>11096500</v>
       </c>
       <c r="I21" s="3">
-        <v>264400</v>
+        <v>11361100</v>
       </c>
       <c r="J21" s="3">
+        <v>236500</v>
+      </c>
+      <c r="K21" s="3">
         <v>302100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>277600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>508300</v>
+        <v>555900</v>
       </c>
       <c r="E22" s="3">
-        <v>365000</v>
+        <v>457100</v>
       </c>
       <c r="F22" s="3">
-        <v>636100</v>
+        <v>328200</v>
       </c>
       <c r="G22" s="3">
-        <v>696100</v>
+        <v>572000</v>
       </c>
       <c r="H22" s="3">
-        <v>385900</v>
+        <v>626000</v>
       </c>
       <c r="I22" s="3">
-        <v>7700</v>
+        <v>347000</v>
       </c>
       <c r="J22" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K22" s="3">
         <v>8500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>12206000</v>
+        <v>11265600</v>
       </c>
       <c r="E23" s="3">
-        <v>8276900</v>
+        <v>10976900</v>
       </c>
       <c r="F23" s="3">
-        <v>4303000</v>
+        <v>7443400</v>
       </c>
       <c r="G23" s="3">
-        <v>6144000</v>
+        <v>3869700</v>
       </c>
       <c r="H23" s="3">
-        <v>7655900</v>
+        <v>5525300</v>
       </c>
       <c r="I23" s="3">
-        <v>165100</v>
+        <v>6884900</v>
       </c>
       <c r="J23" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K23" s="3">
         <v>216700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>199100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2398800</v>
+        <v>2146100</v>
       </c>
       <c r="E24" s="3">
-        <v>1638400</v>
+        <v>2157200</v>
       </c>
       <c r="F24" s="3">
-        <v>1024300</v>
+        <v>1473400</v>
       </c>
       <c r="G24" s="3">
-        <v>1521500</v>
+        <v>921200</v>
       </c>
       <c r="H24" s="3">
-        <v>1433400</v>
+        <v>1368300</v>
       </c>
       <c r="I24" s="3">
-        <v>44700</v>
+        <v>1289100</v>
       </c>
       <c r="J24" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K24" s="3">
         <v>44200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9807200</v>
+        <v>9119500</v>
       </c>
       <c r="E26" s="3">
-        <v>6638500</v>
+        <v>8819600</v>
       </c>
       <c r="F26" s="3">
-        <v>3278700</v>
+        <v>5970000</v>
       </c>
       <c r="G26" s="3">
-        <v>4622400</v>
+        <v>2948500</v>
       </c>
       <c r="H26" s="3">
-        <v>6222500</v>
+        <v>4157000</v>
       </c>
       <c r="I26" s="3">
-        <v>120400</v>
+        <v>5595900</v>
       </c>
       <c r="J26" s="3">
+        <v>108300</v>
+      </c>
+      <c r="K26" s="3">
         <v>172500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>149200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9776800</v>
+        <v>9090500</v>
       </c>
       <c r="E27" s="3">
-        <v>6612900</v>
+        <v>8792300</v>
       </c>
       <c r="F27" s="3">
-        <v>3265300</v>
+        <v>5947000</v>
       </c>
       <c r="G27" s="3">
-        <v>4597000</v>
+        <v>2936500</v>
       </c>
       <c r="H27" s="3">
-        <v>6245300</v>
+        <v>4134100</v>
       </c>
       <c r="I27" s="3">
-        <v>123700</v>
+        <v>5616500</v>
       </c>
       <c r="J27" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K27" s="3">
         <v>173800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>157200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-714100</v>
+        <v>-295600</v>
       </c>
       <c r="E32" s="3">
-        <v>-690400</v>
+        <v>-642200</v>
       </c>
       <c r="F32" s="3">
-        <v>1543700</v>
+        <v>-620900</v>
       </c>
       <c r="G32" s="3">
-        <v>-2419300</v>
+        <v>1388300</v>
       </c>
       <c r="H32" s="3">
-        <v>-2717600</v>
+        <v>-2175700</v>
       </c>
       <c r="I32" s="3">
-        <v>-11000</v>
+        <v>-2444000</v>
       </c>
       <c r="J32" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9776800</v>
+        <v>9090500</v>
       </c>
       <c r="E33" s="3">
-        <v>6612900</v>
+        <v>8792300</v>
       </c>
       <c r="F33" s="3">
-        <v>3265300</v>
+        <v>5947000</v>
       </c>
       <c r="G33" s="3">
-        <v>4597000</v>
+        <v>2936500</v>
       </c>
       <c r="H33" s="3">
-        <v>6245300</v>
+        <v>4134100</v>
       </c>
       <c r="I33" s="3">
-        <v>123700</v>
+        <v>5616500</v>
       </c>
       <c r="J33" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K33" s="3">
         <v>173800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>157200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9776800</v>
+        <v>9090500</v>
       </c>
       <c r="E35" s="3">
-        <v>6612900</v>
+        <v>8792300</v>
       </c>
       <c r="F35" s="3">
-        <v>3265300</v>
+        <v>5947000</v>
       </c>
       <c r="G35" s="3">
-        <v>4597000</v>
+        <v>2936500</v>
       </c>
       <c r="H35" s="3">
-        <v>6245300</v>
+        <v>4134100</v>
       </c>
       <c r="I35" s="3">
-        <v>123700</v>
+        <v>5616500</v>
       </c>
       <c r="J35" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K35" s="3">
         <v>173800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>157200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,278 +1646,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7778900</v>
+        <v>7358600</v>
       </c>
       <c r="E41" s="3">
-        <v>5216900</v>
+        <v>7025200</v>
       </c>
       <c r="F41" s="3">
-        <v>4127000</v>
+        <v>4711400</v>
       </c>
       <c r="G41" s="3">
-        <v>4062200</v>
+        <v>3727100</v>
       </c>
       <c r="H41" s="3">
-        <v>2668900</v>
+        <v>3668600</v>
       </c>
       <c r="I41" s="3">
-        <v>27000</v>
+        <v>2410300</v>
       </c>
       <c r="J41" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K41" s="3">
         <v>46000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41800</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>413700</v>
+        <v>708800</v>
       </c>
       <c r="E42" s="3">
-        <v>308900</v>
+        <v>373600</v>
       </c>
       <c r="F42" s="3">
-        <v>267400</v>
+        <v>278900</v>
       </c>
       <c r="G42" s="3">
-        <v>375300</v>
+        <v>241500</v>
       </c>
       <c r="H42" s="3">
-        <v>169000</v>
+        <v>338900</v>
       </c>
       <c r="I42" s="3">
-        <v>5700</v>
+        <v>152600</v>
       </c>
       <c r="J42" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K42" s="3">
         <v>4500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7741800</v>
+        <v>7173300</v>
       </c>
       <c r="E43" s="3">
-        <v>7526300</v>
+        <v>6991600</v>
       </c>
       <c r="F43" s="3">
-        <v>6867500</v>
+        <v>6797000</v>
       </c>
       <c r="G43" s="3">
-        <v>8245200</v>
+        <v>6202000</v>
       </c>
       <c r="H43" s="3">
-        <v>9413600</v>
+        <v>7446300</v>
       </c>
       <c r="I43" s="3">
-        <v>125400</v>
+        <v>8501500</v>
       </c>
       <c r="J43" s="3">
+        <v>113300</v>
+      </c>
+      <c r="K43" s="3">
         <v>136900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>135400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6027600</v>
+        <v>5902400</v>
       </c>
       <c r="E44" s="3">
-        <v>6287400</v>
+        <v>5443600</v>
       </c>
       <c r="F44" s="3">
-        <v>6383600</v>
+        <v>5678100</v>
       </c>
       <c r="G44" s="3">
-        <v>5371700</v>
+        <v>5765100</v>
       </c>
       <c r="H44" s="3">
-        <v>5379500</v>
+        <v>4851200</v>
       </c>
       <c r="I44" s="3">
-        <v>139000</v>
+        <v>4858300</v>
       </c>
       <c r="J44" s="3">
+        <v>125500</v>
+      </c>
+      <c r="K44" s="3">
         <v>127900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>114400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1383100</v>
+        <v>1019600</v>
       </c>
       <c r="E45" s="3">
-        <v>1315700</v>
+        <v>1249100</v>
       </c>
       <c r="F45" s="3">
-        <v>2181100</v>
+        <v>1188300</v>
       </c>
       <c r="G45" s="3">
-        <v>1109100</v>
+        <v>1969700</v>
       </c>
       <c r="H45" s="3">
-        <v>2030100</v>
+        <v>1001600</v>
       </c>
       <c r="I45" s="3">
-        <v>72300</v>
+        <v>1833400</v>
       </c>
       <c r="J45" s="3">
+        <v>65300</v>
+      </c>
+      <c r="K45" s="3">
         <v>68000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23345200</v>
+        <v>22162700</v>
       </c>
       <c r="E46" s="3">
-        <v>20655100</v>
+        <v>21083100</v>
       </c>
       <c r="F46" s="3">
-        <v>19826600</v>
+        <v>18653700</v>
       </c>
       <c r="G46" s="3">
-        <v>19163500</v>
+        <v>17905400</v>
       </c>
       <c r="H46" s="3">
-        <v>19520000</v>
+        <v>17306600</v>
       </c>
       <c r="I46" s="3">
-        <v>369400</v>
+        <v>17628600</v>
       </c>
       <c r="J46" s="3">
+        <v>333600</v>
+      </c>
+      <c r="K46" s="3">
         <v>383300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>357200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4904700</v>
+        <v>3682400</v>
       </c>
       <c r="E47" s="3">
-        <v>3852800</v>
+        <v>4429500</v>
       </c>
       <c r="F47" s="3">
-        <v>4172000</v>
+        <v>3479500</v>
       </c>
       <c r="G47" s="3">
-        <v>4481400</v>
+        <v>3767700</v>
       </c>
       <c r="H47" s="3">
-        <v>3804600</v>
+        <v>4047100</v>
       </c>
       <c r="I47" s="3">
-        <v>67200</v>
+        <v>3436000</v>
       </c>
       <c r="J47" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K47" s="3">
         <v>65100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>90400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>60462500</v>
+        <v>57410900</v>
       </c>
       <c r="E48" s="3">
-        <v>56451900</v>
+        <v>54603900</v>
       </c>
       <c r="F48" s="3">
-        <v>53549700</v>
+        <v>50981900</v>
       </c>
       <c r="G48" s="3">
-        <v>53862100</v>
+        <v>48360900</v>
       </c>
       <c r="H48" s="3">
-        <v>49795000</v>
+        <v>48643000</v>
       </c>
       <c r="I48" s="3">
-        <v>1239000</v>
+        <v>44970000</v>
       </c>
       <c r="J48" s="3">
+        <v>1118900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1056100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>862300</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>659500</v>
+        <v>614700</v>
       </c>
       <c r="E49" s="3">
-        <v>652200</v>
+        <v>595600</v>
       </c>
       <c r="F49" s="3">
-        <v>681100</v>
+        <v>589000</v>
       </c>
       <c r="G49" s="3">
-        <v>817100</v>
+        <v>615100</v>
       </c>
       <c r="H49" s="3">
-        <v>909200</v>
+        <v>737900</v>
       </c>
       <c r="I49" s="3">
-        <v>20500</v>
+        <v>821100</v>
       </c>
       <c r="J49" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K49" s="3">
         <v>31000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1142500</v>
+        <v>934200</v>
       </c>
       <c r="E52" s="3">
-        <v>910000</v>
+        <v>1031800</v>
       </c>
       <c r="F52" s="3">
-        <v>952400</v>
+        <v>821800</v>
       </c>
       <c r="G52" s="3">
-        <v>951300</v>
+        <v>860100</v>
       </c>
       <c r="H52" s="3">
-        <v>841900</v>
+        <v>859100</v>
       </c>
       <c r="I52" s="3">
-        <v>31900</v>
+        <v>760300</v>
       </c>
       <c r="J52" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K52" s="3">
         <v>27100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54100</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90514300</v>
+        <v>84804900</v>
       </c>
       <c r="E54" s="3">
-        <v>82521900</v>
+        <v>81743800</v>
       </c>
       <c r="F54" s="3">
-        <v>79181700</v>
+        <v>74525800</v>
       </c>
       <c r="G54" s="3">
-        <v>79275400</v>
+        <v>71509200</v>
       </c>
       <c r="H54" s="3">
-        <v>74828100</v>
+        <v>71593900</v>
       </c>
       <c r="I54" s="3">
-        <v>1728000</v>
+        <v>67577500</v>
       </c>
       <c r="J54" s="3">
+        <v>1560600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1562600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1384300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,188 +2138,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7538800</v>
+        <v>7926000</v>
       </c>
       <c r="E57" s="3">
-        <v>8022600</v>
+        <v>6808400</v>
       </c>
       <c r="F57" s="3">
-        <v>7558200</v>
+        <v>7245200</v>
       </c>
       <c r="G57" s="3">
-        <v>5354200</v>
+        <v>6825900</v>
       </c>
       <c r="H57" s="3">
-        <v>5814900</v>
+        <v>4835400</v>
       </c>
       <c r="I57" s="3">
-        <v>115800</v>
+        <v>5251500</v>
       </c>
       <c r="J57" s="3">
+        <v>104600</v>
+      </c>
+      <c r="K57" s="3">
         <v>114700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>91000</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1573100</v>
+        <v>1858100</v>
       </c>
       <c r="E58" s="3">
-        <v>2032400</v>
+        <v>1420700</v>
       </c>
       <c r="F58" s="3">
-        <v>922600</v>
+        <v>1835400</v>
       </c>
       <c r="G58" s="3">
-        <v>955400</v>
+        <v>833200</v>
       </c>
       <c r="H58" s="3">
-        <v>1914900</v>
+        <v>862800</v>
       </c>
       <c r="I58" s="3">
-        <v>21100</v>
+        <v>1729300</v>
       </c>
       <c r="J58" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K58" s="3">
         <v>10400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5329000</v>
+        <v>7437400</v>
       </c>
       <c r="E59" s="3">
-        <v>5085300</v>
+        <v>4812600</v>
       </c>
       <c r="F59" s="3">
-        <v>4635700</v>
+        <v>4592500</v>
       </c>
       <c r="G59" s="3">
-        <v>4667100</v>
+        <v>4186500</v>
       </c>
       <c r="H59" s="3">
-        <v>4740800</v>
+        <v>4214800</v>
       </c>
       <c r="I59" s="3">
-        <v>69900</v>
+        <v>4281500</v>
       </c>
       <c r="J59" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K59" s="3">
         <v>71600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>50400</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14440900</v>
+        <v>17221500</v>
       </c>
       <c r="E60" s="3">
-        <v>15140200</v>
+        <v>13041600</v>
       </c>
       <c r="F60" s="3">
-        <v>13116500</v>
+        <v>13673200</v>
       </c>
       <c r="G60" s="3">
-        <v>10976700</v>
+        <v>11845600</v>
       </c>
       <c r="H60" s="3">
-        <v>12307500</v>
+        <v>9913100</v>
       </c>
       <c r="I60" s="3">
-        <v>206800</v>
+        <v>11114900</v>
       </c>
       <c r="J60" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K60" s="3">
         <v>196600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>168600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6875300</v>
+        <v>6031000</v>
       </c>
       <c r="E61" s="3">
-        <v>7699900</v>
+        <v>6209100</v>
       </c>
       <c r="F61" s="3">
-        <v>10108100</v>
+        <v>6953800</v>
       </c>
       <c r="G61" s="3">
-        <v>12619500</v>
+        <v>9128700</v>
       </c>
       <c r="H61" s="3">
-        <v>10024200</v>
+        <v>11396700</v>
       </c>
       <c r="I61" s="3">
-        <v>149700</v>
+        <v>9052900</v>
       </c>
       <c r="J61" s="3">
+        <v>135200</v>
+      </c>
+      <c r="K61" s="3">
         <v>94200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>110800</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4877100</v>
+        <v>4891100</v>
       </c>
       <c r="E62" s="3">
-        <v>4568400</v>
+        <v>4404500</v>
       </c>
       <c r="F62" s="3">
-        <v>4992200</v>
+        <v>4125700</v>
       </c>
       <c r="G62" s="3">
-        <v>4655800</v>
+        <v>4508500</v>
       </c>
       <c r="H62" s="3">
-        <v>4369000</v>
+        <v>4204700</v>
       </c>
       <c r="I62" s="3">
-        <v>126400</v>
+        <v>3945600</v>
       </c>
       <c r="J62" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K62" s="3">
         <v>100400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>80700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26319100</v>
+        <v>28258800</v>
       </c>
       <c r="E66" s="3">
-        <v>27526100</v>
+        <v>23768900</v>
       </c>
       <c r="F66" s="3">
-        <v>28324000</v>
+        <v>24858900</v>
       </c>
       <c r="G66" s="3">
-        <v>28392600</v>
+        <v>25579500</v>
       </c>
       <c r="H66" s="3">
-        <v>26867900</v>
+        <v>25641500</v>
       </c>
       <c r="I66" s="3">
-        <v>487300</v>
+        <v>24264500</v>
       </c>
       <c r="J66" s="3">
+        <v>440100</v>
+      </c>
+      <c r="K66" s="3">
         <v>406700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>357500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>65689300</v>
+        <v>60366600</v>
       </c>
       <c r="E72" s="3">
-        <v>56895300</v>
+        <v>59324200</v>
       </c>
       <c r="F72" s="3">
-        <v>52609600</v>
+        <v>51382300</v>
       </c>
       <c r="G72" s="3">
-        <v>52636400</v>
+        <v>47511900</v>
       </c>
       <c r="H72" s="3">
-        <v>49722600</v>
+        <v>47536100</v>
       </c>
       <c r="I72" s="3">
-        <v>1290600</v>
+        <v>44904700</v>
       </c>
       <c r="J72" s="3">
+        <v>1165500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1203500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1031300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>64195200</v>
+        <v>56546100</v>
       </c>
       <c r="E76" s="3">
-        <v>54995800</v>
+        <v>57974900</v>
       </c>
       <c r="F76" s="3">
-        <v>50857700</v>
+        <v>49666900</v>
       </c>
       <c r="G76" s="3">
-        <v>50882800</v>
+        <v>45929700</v>
       </c>
       <c r="H76" s="3">
-        <v>47960200</v>
+        <v>45952400</v>
       </c>
       <c r="I76" s="3">
-        <v>1240700</v>
+        <v>43313000</v>
       </c>
       <c r="J76" s="3">
+        <v>1120500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1155900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1026700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9776800</v>
+        <v>9090500</v>
       </c>
       <c r="E81" s="3">
-        <v>6612900</v>
+        <v>8792300</v>
       </c>
       <c r="F81" s="3">
-        <v>3265300</v>
+        <v>5947000</v>
       </c>
       <c r="G81" s="3">
-        <v>4597000</v>
+        <v>2936500</v>
       </c>
       <c r="H81" s="3">
-        <v>6245300</v>
+        <v>4134100</v>
       </c>
       <c r="I81" s="3">
-        <v>123700</v>
+        <v>5616500</v>
       </c>
       <c r="J81" s="3">
+        <v>111200</v>
+      </c>
+      <c r="K81" s="3">
         <v>173800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>157200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5417300</v>
+        <v>5894300</v>
       </c>
       <c r="E83" s="3">
-        <v>5132600</v>
+        <v>4871800</v>
       </c>
       <c r="F83" s="3">
-        <v>4920000</v>
+        <v>4615800</v>
       </c>
       <c r="G83" s="3">
-        <v>5541900</v>
+        <v>4424500</v>
       </c>
       <c r="H83" s="3">
-        <v>4627300</v>
+        <v>4983900</v>
       </c>
       <c r="I83" s="3">
-        <v>90900</v>
+        <v>4161300</v>
       </c>
       <c r="J83" s="3">
+        <v>81700</v>
+      </c>
+      <c r="K83" s="3">
         <v>76300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>67900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15895000</v>
+        <v>16356200</v>
       </c>
       <c r="E89" s="3">
-        <v>11976600</v>
+        <v>14294400</v>
       </c>
       <c r="F89" s="3">
-        <v>11877900</v>
+        <v>10770600</v>
       </c>
       <c r="G89" s="3">
-        <v>13405300</v>
+        <v>10681900</v>
       </c>
       <c r="H89" s="3">
-        <v>10285900</v>
+        <v>12055400</v>
       </c>
       <c r="I89" s="3">
-        <v>259700</v>
+        <v>9250100</v>
       </c>
       <c r="J89" s="3">
+        <v>233600</v>
+      </c>
+      <c r="K89" s="3">
         <v>300000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>235500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-7129600</v>
+        <v>-6389600</v>
       </c>
       <c r="E91" s="3">
-        <v>-8076500</v>
+        <v>-6411700</v>
       </c>
       <c r="F91" s="3">
-        <v>-7849700</v>
+        <v>-7263200</v>
       </c>
       <c r="G91" s="3">
-        <v>-9484100</v>
+        <v>-7059200</v>
       </c>
       <c r="H91" s="3">
-        <v>-9094700</v>
+        <v>-8529100</v>
       </c>
       <c r="I91" s="3">
-        <v>-236200</v>
+        <v>-8178900</v>
       </c>
       <c r="J91" s="3">
+        <v>-212400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-183900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-125200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6638000</v>
+        <v>-7243800</v>
       </c>
       <c r="E94" s="3">
-        <v>-6841600</v>
+        <v>-5969600</v>
       </c>
       <c r="F94" s="3">
-        <v>-7900400</v>
+        <v>-6152700</v>
       </c>
       <c r="G94" s="3">
-        <v>-8301200</v>
+        <v>-7104900</v>
       </c>
       <c r="H94" s="3">
-        <v>-9132500</v>
+        <v>-7465300</v>
       </c>
       <c r="I94" s="3">
-        <v>-294300</v>
+        <v>-8212900</v>
       </c>
       <c r="J94" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-208700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-136800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2500700</v>
+        <v>-2566600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2191800</v>
+        <v>-2248900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2010800</v>
+        <v>-1971100</v>
       </c>
       <c r="G96" s="3">
-        <v>-1766200</v>
+        <v>-1808300</v>
       </c>
       <c r="H96" s="3">
-        <v>-784000</v>
+        <v>-1588400</v>
       </c>
       <c r="I96" s="3">
-        <v>-37600</v>
+        <v>-705000</v>
       </c>
       <c r="J96" s="3">
+        <v>-33800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-44200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-26000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7398400</v>
+        <v>-8269300</v>
       </c>
       <c r="E100" s="3">
-        <v>-3906400</v>
+        <v>-6653400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3049600</v>
+        <v>-3513000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3995900</v>
+        <v>-2742500</v>
       </c>
       <c r="H100" s="3">
-        <v>476000</v>
+        <v>-3593500</v>
       </c>
       <c r="I100" s="3">
-        <v>16200</v>
+        <v>428000</v>
       </c>
       <c r="J100" s="3">
+        <v>14600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-89700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-91400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>703400</v>
+        <v>-511100</v>
       </c>
       <c r="E101" s="3">
-        <v>-138700</v>
+        <v>632600</v>
       </c>
       <c r="F101" s="3">
-        <v>-863100</v>
+        <v>-124800</v>
       </c>
       <c r="G101" s="3">
-        <v>285100</v>
+        <v>-776200</v>
       </c>
       <c r="H101" s="3">
-        <v>360400</v>
+        <v>256400</v>
       </c>
       <c r="I101" s="3">
+        <v>324100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2562100</v>
+        <v>332000</v>
       </c>
       <c r="E102" s="3">
-        <v>1089900</v>
+        <v>2304100</v>
       </c>
       <c r="F102" s="3">
-        <v>64800</v>
+        <v>980100</v>
       </c>
       <c r="G102" s="3">
-        <v>1393300</v>
+        <v>58300</v>
       </c>
       <c r="H102" s="3">
-        <v>1989700</v>
+        <v>1253000</v>
       </c>
       <c r="I102" s="3">
-        <v>-19000</v>
+        <v>1789400</v>
       </c>
       <c r="J102" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="K102" s="3">
         <v>2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>111345700</v>
+        <v>103896500</v>
       </c>
       <c r="E8" s="3">
-        <v>114109600</v>
+        <v>106475500</v>
       </c>
       <c r="F8" s="3">
-        <v>84301200</v>
+        <v>78661300</v>
       </c>
       <c r="G8" s="3">
-        <v>74224000</v>
+        <v>69258300</v>
       </c>
       <c r="H8" s="3">
-        <v>81636500</v>
+        <v>76174900</v>
       </c>
       <c r="I8" s="3">
-        <v>78169000</v>
+        <v>72939300</v>
       </c>
       <c r="J8" s="3">
-        <v>2008600</v>
+        <v>1874200</v>
       </c>
       <c r="K8" s="3">
         <v>2197500</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>61174600</v>
+        <v>57082000</v>
       </c>
       <c r="E9" s="3">
-        <v>64386300</v>
+        <v>60078700</v>
       </c>
       <c r="F9" s="3">
-        <v>44444100</v>
+        <v>41470700</v>
       </c>
       <c r="G9" s="3">
-        <v>37058600</v>
+        <v>34579400</v>
       </c>
       <c r="H9" s="3">
-        <v>41061800</v>
+        <v>38314700</v>
       </c>
       <c r="I9" s="3">
-        <v>39502400</v>
+        <v>36859600</v>
       </c>
       <c r="J9" s="3">
-        <v>936100</v>
+        <v>873500</v>
       </c>
       <c r="K9" s="3">
         <v>1012900</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>50171100</v>
+        <v>46814500</v>
       </c>
       <c r="E10" s="3">
-        <v>49723400</v>
+        <v>46396800</v>
       </c>
       <c r="F10" s="3">
-        <v>39857100</v>
+        <v>37190600</v>
       </c>
       <c r="G10" s="3">
-        <v>37165400</v>
+        <v>34679000</v>
       </c>
       <c r="H10" s="3">
-        <v>40574700</v>
+        <v>37860200</v>
       </c>
       <c r="I10" s="3">
-        <v>38666600</v>
+        <v>36079800</v>
       </c>
       <c r="J10" s="3">
-        <v>1072500</v>
+        <v>1000700</v>
       </c>
       <c r="K10" s="3">
         <v>1184600</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>132700</v>
+        <v>123900</v>
       </c>
       <c r="E12" s="3">
-        <v>50900</v>
+        <v>47500</v>
       </c>
       <c r="F12" s="3">
-        <v>175300</v>
+        <v>163600</v>
       </c>
       <c r="G12" s="3">
-        <v>117800</v>
+        <v>109900</v>
       </c>
       <c r="H12" s="3">
-        <v>414300</v>
+        <v>386600</v>
       </c>
       <c r="I12" s="3">
-        <v>173600</v>
+        <v>162000</v>
       </c>
       <c r="J12" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="K12" s="3">
         <v>5700</v>
@@ -898,22 +898,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>133700</v>
+        <v>124700</v>
       </c>
       <c r="E14" s="3">
-        <v>166500</v>
+        <v>155400</v>
       </c>
       <c r="F14" s="3">
-        <v>41700</v>
+        <v>38900</v>
       </c>
       <c r="G14" s="3">
-        <v>121800</v>
+        <v>113700</v>
       </c>
       <c r="H14" s="3">
-        <v>2637800</v>
+        <v>2461300</v>
       </c>
       <c r="I14" s="3">
-        <v>1067100</v>
+        <v>995700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5894300</v>
+        <v>5500000</v>
       </c>
       <c r="E15" s="3">
-        <v>4871800</v>
+        <v>4545900</v>
       </c>
       <c r="F15" s="3">
-        <v>4615800</v>
+        <v>4307000</v>
       </c>
       <c r="G15" s="3">
-        <v>4424500</v>
+        <v>4128500</v>
       </c>
       <c r="H15" s="3">
-        <v>4983900</v>
+        <v>4650400</v>
       </c>
       <c r="I15" s="3">
-        <v>4161300</v>
+        <v>3882900</v>
       </c>
       <c r="J15" s="3">
-        <v>81700</v>
+        <v>76300</v>
       </c>
       <c r="K15" s="3">
         <v>76300</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>99819800</v>
+        <v>93141700</v>
       </c>
       <c r="E17" s="3">
-        <v>103317800</v>
+        <v>96405700</v>
       </c>
       <c r="F17" s="3">
-        <v>77150400</v>
+        <v>71988900</v>
       </c>
       <c r="G17" s="3">
-        <v>68394000</v>
+        <v>63818400</v>
       </c>
       <c r="H17" s="3">
-        <v>77660900</v>
+        <v>72465300</v>
       </c>
       <c r="I17" s="3">
-        <v>73380900</v>
+        <v>68471700</v>
       </c>
       <c r="J17" s="3">
-        <v>1863100</v>
+        <v>1738500</v>
       </c>
       <c r="K17" s="3">
         <v>1975300</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11525900</v>
+        <v>10754800</v>
       </c>
       <c r="E18" s="3">
-        <v>10791800</v>
+        <v>10069800</v>
       </c>
       <c r="F18" s="3">
-        <v>7150800</v>
+        <v>6672400</v>
       </c>
       <c r="G18" s="3">
-        <v>5830000</v>
+        <v>5440000</v>
       </c>
       <c r="H18" s="3">
-        <v>3975600</v>
+        <v>3709600</v>
       </c>
       <c r="I18" s="3">
-        <v>4788000</v>
+        <v>4467700</v>
       </c>
       <c r="J18" s="3">
-        <v>145500</v>
+        <v>135800</v>
       </c>
       <c r="K18" s="3">
         <v>222200</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>295600</v>
+        <v>275800</v>
       </c>
       <c r="E20" s="3">
-        <v>642200</v>
+        <v>599200</v>
       </c>
       <c r="F20" s="3">
-        <v>620900</v>
+        <v>579300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1388300</v>
+        <v>-1295400</v>
       </c>
       <c r="H20" s="3">
-        <v>2175700</v>
+        <v>2030100</v>
       </c>
       <c r="I20" s="3">
-        <v>2444000</v>
+        <v>2280500</v>
       </c>
       <c r="J20" s="3">
-        <v>9900</v>
+        <v>9300</v>
       </c>
       <c r="K20" s="3">
         <v>3000</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>17670200</v>
+        <v>16555500</v>
       </c>
       <c r="E21" s="3">
-        <v>16268000</v>
+        <v>15235500</v>
       </c>
       <c r="F21" s="3">
-        <v>12351700</v>
+        <v>11578200</v>
       </c>
       <c r="G21" s="3">
-        <v>8832000</v>
+        <v>8291800</v>
       </c>
       <c r="H21" s="3">
-        <v>11096500</v>
+        <v>10411200</v>
       </c>
       <c r="I21" s="3">
-        <v>11361100</v>
+        <v>10648700</v>
       </c>
       <c r="J21" s="3">
-        <v>236500</v>
+        <v>221600</v>
       </c>
       <c r="K21" s="3">
         <v>302100</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>555900</v>
+        <v>518700</v>
       </c>
       <c r="E22" s="3">
-        <v>457100</v>
+        <v>426500</v>
       </c>
       <c r="F22" s="3">
-        <v>328200</v>
+        <v>306300</v>
       </c>
       <c r="G22" s="3">
-        <v>572000</v>
+        <v>533700</v>
       </c>
       <c r="H22" s="3">
-        <v>626000</v>
+        <v>584100</v>
       </c>
       <c r="I22" s="3">
-        <v>347000</v>
+        <v>323800</v>
       </c>
       <c r="J22" s="3">
-        <v>6900</v>
+        <v>6500</v>
       </c>
       <c r="K22" s="3">
         <v>8500</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11265600</v>
+        <v>10511900</v>
       </c>
       <c r="E23" s="3">
-        <v>10976900</v>
+        <v>10242500</v>
       </c>
       <c r="F23" s="3">
-        <v>7443400</v>
+        <v>6945400</v>
       </c>
       <c r="G23" s="3">
-        <v>3869700</v>
+        <v>3610800</v>
       </c>
       <c r="H23" s="3">
-        <v>5525300</v>
+        <v>5155600</v>
       </c>
       <c r="I23" s="3">
-        <v>6884900</v>
+        <v>6424300</v>
       </c>
       <c r="J23" s="3">
-        <v>148500</v>
+        <v>138600</v>
       </c>
       <c r="K23" s="3">
         <v>216700</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2146100</v>
+        <v>2002500</v>
       </c>
       <c r="E24" s="3">
-        <v>2157200</v>
+        <v>2012900</v>
       </c>
       <c r="F24" s="3">
-        <v>1473400</v>
+        <v>1374800</v>
       </c>
       <c r="G24" s="3">
-        <v>921200</v>
+        <v>859600</v>
       </c>
       <c r="H24" s="3">
-        <v>1368300</v>
+        <v>1276800</v>
       </c>
       <c r="I24" s="3">
-        <v>1289100</v>
+        <v>1202800</v>
       </c>
       <c r="J24" s="3">
-        <v>40200</v>
+        <v>37500</v>
       </c>
       <c r="K24" s="3">
         <v>44200</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9119500</v>
+        <v>8509400</v>
       </c>
       <c r="E26" s="3">
-        <v>8819600</v>
+        <v>8229600</v>
       </c>
       <c r="F26" s="3">
-        <v>5970000</v>
+        <v>5570600</v>
       </c>
       <c r="G26" s="3">
-        <v>2948500</v>
+        <v>2751300</v>
       </c>
       <c r="H26" s="3">
-        <v>4157000</v>
+        <v>3878900</v>
       </c>
       <c r="I26" s="3">
-        <v>5595900</v>
+        <v>5221500</v>
       </c>
       <c r="J26" s="3">
-        <v>108300</v>
+        <v>101100</v>
       </c>
       <c r="K26" s="3">
         <v>172500</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>9090500</v>
+        <v>8482400</v>
       </c>
       <c r="E27" s="3">
-        <v>8792300</v>
+        <v>8204100</v>
       </c>
       <c r="F27" s="3">
-        <v>5947000</v>
+        <v>5549200</v>
       </c>
       <c r="G27" s="3">
-        <v>2936500</v>
+        <v>2740000</v>
       </c>
       <c r="H27" s="3">
-        <v>4134100</v>
+        <v>3857500</v>
       </c>
       <c r="I27" s="3">
-        <v>5616500</v>
+        <v>5240700</v>
       </c>
       <c r="J27" s="3">
-        <v>111200</v>
+        <v>103800</v>
       </c>
       <c r="K27" s="3">
         <v>173800</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-295600</v>
+        <v>-275800</v>
       </c>
       <c r="E32" s="3">
-        <v>-642200</v>
+        <v>-599200</v>
       </c>
       <c r="F32" s="3">
-        <v>-620900</v>
+        <v>-579300</v>
       </c>
       <c r="G32" s="3">
-        <v>1388300</v>
+        <v>1295400</v>
       </c>
       <c r="H32" s="3">
-        <v>-2175700</v>
+        <v>-2030100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2444000</v>
+        <v>-2280500</v>
       </c>
       <c r="J32" s="3">
-        <v>-9900</v>
+        <v>-9300</v>
       </c>
       <c r="K32" s="3">
         <v>-3000</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9090500</v>
+        <v>8482400</v>
       </c>
       <c r="E33" s="3">
-        <v>8792300</v>
+        <v>8204100</v>
       </c>
       <c r="F33" s="3">
-        <v>5947000</v>
+        <v>5549200</v>
       </c>
       <c r="G33" s="3">
-        <v>2936500</v>
+        <v>2740000</v>
       </c>
       <c r="H33" s="3">
-        <v>4134100</v>
+        <v>3857500</v>
       </c>
       <c r="I33" s="3">
-        <v>5616500</v>
+        <v>5240700</v>
       </c>
       <c r="J33" s="3">
-        <v>111200</v>
+        <v>103800</v>
       </c>
       <c r="K33" s="3">
         <v>173800</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9090500</v>
+        <v>8482400</v>
       </c>
       <c r="E35" s="3">
-        <v>8792300</v>
+        <v>8204100</v>
       </c>
       <c r="F35" s="3">
-        <v>5947000</v>
+        <v>5549200</v>
       </c>
       <c r="G35" s="3">
-        <v>2936500</v>
+        <v>2740000</v>
       </c>
       <c r="H35" s="3">
-        <v>4134100</v>
+        <v>3857500</v>
       </c>
       <c r="I35" s="3">
-        <v>5616500</v>
+        <v>5240700</v>
       </c>
       <c r="J35" s="3">
-        <v>111200</v>
+        <v>103800</v>
       </c>
       <c r="K35" s="3">
         <v>173800</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7358600</v>
+        <v>6837400</v>
       </c>
       <c r="E41" s="3">
-        <v>7025200</v>
+        <v>6527600</v>
       </c>
       <c r="F41" s="3">
-        <v>4711400</v>
+        <v>4377700</v>
       </c>
       <c r="G41" s="3">
-        <v>3727100</v>
+        <v>3463100</v>
       </c>
       <c r="H41" s="3">
-        <v>3668600</v>
+        <v>3408700</v>
       </c>
       <c r="I41" s="3">
-        <v>2410300</v>
+        <v>2239600</v>
       </c>
       <c r="J41" s="3">
-        <v>24400</v>
+        <v>22700</v>
       </c>
       <c r="K41" s="3">
         <v>46000</v>
@@ -1686,25 +1686,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>708800</v>
+        <v>658600</v>
       </c>
       <c r="E42" s="3">
-        <v>373600</v>
+        <v>347100</v>
       </c>
       <c r="F42" s="3">
-        <v>278900</v>
+        <v>259200</v>
       </c>
       <c r="G42" s="3">
-        <v>241500</v>
+        <v>224400</v>
       </c>
       <c r="H42" s="3">
-        <v>338900</v>
+        <v>314900</v>
       </c>
       <c r="I42" s="3">
-        <v>152600</v>
+        <v>141800</v>
       </c>
       <c r="J42" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="K42" s="3">
         <v>4500</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7173300</v>
+        <v>6665300</v>
       </c>
       <c r="E43" s="3">
-        <v>6991600</v>
+        <v>6496400</v>
       </c>
       <c r="F43" s="3">
-        <v>6797000</v>
+        <v>6315600</v>
       </c>
       <c r="G43" s="3">
-        <v>6202000</v>
+        <v>5762800</v>
       </c>
       <c r="H43" s="3">
-        <v>7446300</v>
+        <v>6918900</v>
       </c>
       <c r="I43" s="3">
-        <v>8501500</v>
+        <v>7899300</v>
       </c>
       <c r="J43" s="3">
-        <v>113300</v>
+        <v>105200</v>
       </c>
       <c r="K43" s="3">
         <v>136900</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5902400</v>
+        <v>5484300</v>
       </c>
       <c r="E44" s="3">
-        <v>5443600</v>
+        <v>5058000</v>
       </c>
       <c r="F44" s="3">
-        <v>5678100</v>
+        <v>5276000</v>
       </c>
       <c r="G44" s="3">
-        <v>5765100</v>
+        <v>5356800</v>
       </c>
       <c r="H44" s="3">
-        <v>4851200</v>
+        <v>4507600</v>
       </c>
       <c r="I44" s="3">
-        <v>4858300</v>
+        <v>4514200</v>
       </c>
       <c r="J44" s="3">
-        <v>125500</v>
+        <v>116600</v>
       </c>
       <c r="K44" s="3">
         <v>127900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1019600</v>
+        <v>947400</v>
       </c>
       <c r="E45" s="3">
-        <v>1249100</v>
+        <v>1160600</v>
       </c>
       <c r="F45" s="3">
-        <v>1188300</v>
+        <v>1104100</v>
       </c>
       <c r="G45" s="3">
-        <v>1969700</v>
+        <v>1830200</v>
       </c>
       <c r="H45" s="3">
-        <v>1001600</v>
+        <v>930700</v>
       </c>
       <c r="I45" s="3">
-        <v>1833400</v>
+        <v>1703600</v>
       </c>
       <c r="J45" s="3">
-        <v>65300</v>
+        <v>60600</v>
       </c>
       <c r="K45" s="3">
         <v>68000</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22162700</v>
+        <v>20593000</v>
       </c>
       <c r="E46" s="3">
-        <v>21083100</v>
+        <v>19589800</v>
       </c>
       <c r="F46" s="3">
-        <v>18653700</v>
+        <v>17332500</v>
       </c>
       <c r="G46" s="3">
-        <v>17905400</v>
+        <v>16637200</v>
       </c>
       <c r="H46" s="3">
-        <v>17306600</v>
+        <v>16080800</v>
       </c>
       <c r="I46" s="3">
-        <v>17628600</v>
+        <v>16380000</v>
       </c>
       <c r="J46" s="3">
-        <v>333600</v>
+        <v>310000</v>
       </c>
       <c r="K46" s="3">
         <v>383300</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3682400</v>
+        <v>3421600</v>
       </c>
       <c r="E47" s="3">
-        <v>4429500</v>
+        <v>4115700</v>
       </c>
       <c r="F47" s="3">
-        <v>3479500</v>
+        <v>3233000</v>
       </c>
       <c r="G47" s="3">
-        <v>3767700</v>
+        <v>3500900</v>
       </c>
       <c r="H47" s="3">
-        <v>4047100</v>
+        <v>3760500</v>
       </c>
       <c r="I47" s="3">
-        <v>3436000</v>
+        <v>3192600</v>
       </c>
       <c r="J47" s="3">
-        <v>60700</v>
+        <v>56400</v>
       </c>
       <c r="K47" s="3">
         <v>65100</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57410900</v>
+        <v>53344600</v>
       </c>
       <c r="E48" s="3">
-        <v>54603900</v>
+        <v>50736400</v>
       </c>
       <c r="F48" s="3">
-        <v>50981900</v>
+        <v>47370900</v>
       </c>
       <c r="G48" s="3">
-        <v>48360900</v>
+        <v>44935600</v>
       </c>
       <c r="H48" s="3">
-        <v>48643000</v>
+        <v>45197800</v>
       </c>
       <c r="I48" s="3">
-        <v>44970000</v>
+        <v>41784900</v>
       </c>
       <c r="J48" s="3">
-        <v>1118900</v>
+        <v>1039700</v>
       </c>
       <c r="K48" s="3">
         <v>1056100</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>614700</v>
+        <v>571200</v>
       </c>
       <c r="E49" s="3">
-        <v>595600</v>
+        <v>553400</v>
       </c>
       <c r="F49" s="3">
-        <v>589000</v>
+        <v>547300</v>
       </c>
       <c r="G49" s="3">
-        <v>615100</v>
+        <v>571500</v>
       </c>
       <c r="H49" s="3">
-        <v>737900</v>
+        <v>685700</v>
       </c>
       <c r="I49" s="3">
-        <v>821100</v>
+        <v>762900</v>
       </c>
       <c r="J49" s="3">
-        <v>18500</v>
+        <v>17200</v>
       </c>
       <c r="K49" s="3">
         <v>31000</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>934200</v>
+        <v>868000</v>
       </c>
       <c r="E52" s="3">
-        <v>1031800</v>
+        <v>958700</v>
       </c>
       <c r="F52" s="3">
-        <v>821800</v>
+        <v>763600</v>
       </c>
       <c r="G52" s="3">
-        <v>860100</v>
+        <v>799200</v>
       </c>
       <c r="H52" s="3">
-        <v>859100</v>
+        <v>798300</v>
       </c>
       <c r="I52" s="3">
-        <v>760300</v>
+        <v>706500</v>
       </c>
       <c r="J52" s="3">
-        <v>28800</v>
+        <v>26800</v>
       </c>
       <c r="K52" s="3">
         <v>27100</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>84804900</v>
+        <v>78798400</v>
       </c>
       <c r="E54" s="3">
-        <v>81743800</v>
+        <v>75954100</v>
       </c>
       <c r="F54" s="3">
-        <v>74525800</v>
+        <v>69247300</v>
       </c>
       <c r="G54" s="3">
-        <v>71509200</v>
+        <v>66444400</v>
       </c>
       <c r="H54" s="3">
-        <v>71593900</v>
+        <v>66523000</v>
       </c>
       <c r="I54" s="3">
-        <v>67577500</v>
+        <v>62791100</v>
       </c>
       <c r="J54" s="3">
-        <v>1560600</v>
+        <v>1450100</v>
       </c>
       <c r="K54" s="3">
         <v>1562600</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7926000</v>
+        <v>7364700</v>
       </c>
       <c r="E57" s="3">
-        <v>6808400</v>
+        <v>6326100</v>
       </c>
       <c r="F57" s="3">
-        <v>7245200</v>
+        <v>6732000</v>
       </c>
       <c r="G57" s="3">
-        <v>6825900</v>
+        <v>6342400</v>
       </c>
       <c r="H57" s="3">
-        <v>4835400</v>
+        <v>4493000</v>
       </c>
       <c r="I57" s="3">
-        <v>5251500</v>
+        <v>4879500</v>
       </c>
       <c r="J57" s="3">
-        <v>104600</v>
+        <v>97200</v>
       </c>
       <c r="K57" s="3">
         <v>114700</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1858100</v>
+        <v>1726500</v>
       </c>
       <c r="E58" s="3">
-        <v>1420700</v>
+        <v>1320000</v>
       </c>
       <c r="F58" s="3">
-        <v>1835400</v>
+        <v>1705400</v>
       </c>
       <c r="G58" s="3">
-        <v>833200</v>
+        <v>774200</v>
       </c>
       <c r="H58" s="3">
-        <v>862800</v>
+        <v>801700</v>
       </c>
       <c r="I58" s="3">
-        <v>1729300</v>
+        <v>1606800</v>
       </c>
       <c r="J58" s="3">
-        <v>19100</v>
+        <v>17700</v>
       </c>
       <c r="K58" s="3">
         <v>10400</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7437400</v>
+        <v>6910600</v>
       </c>
       <c r="E59" s="3">
-        <v>4812600</v>
+        <v>4471800</v>
       </c>
       <c r="F59" s="3">
-        <v>4592500</v>
+        <v>4267200</v>
       </c>
       <c r="G59" s="3">
-        <v>4186500</v>
+        <v>3890000</v>
       </c>
       <c r="H59" s="3">
-        <v>4214800</v>
+        <v>3916300</v>
       </c>
       <c r="I59" s="3">
-        <v>4281500</v>
+        <v>3978200</v>
       </c>
       <c r="J59" s="3">
-        <v>63100</v>
+        <v>58600</v>
       </c>
       <c r="K59" s="3">
         <v>71600</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17221500</v>
+        <v>16001700</v>
       </c>
       <c r="E60" s="3">
-        <v>13041600</v>
+        <v>12117900</v>
       </c>
       <c r="F60" s="3">
-        <v>13673200</v>
+        <v>12704700</v>
       </c>
       <c r="G60" s="3">
-        <v>11845600</v>
+        <v>11006600</v>
       </c>
       <c r="H60" s="3">
-        <v>9913100</v>
+        <v>9211000</v>
       </c>
       <c r="I60" s="3">
-        <v>11114900</v>
+        <v>10327700</v>
       </c>
       <c r="J60" s="3">
-        <v>186800</v>
+        <v>173500</v>
       </c>
       <c r="K60" s="3">
         <v>196600</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6031000</v>
+        <v>5603800</v>
       </c>
       <c r="E61" s="3">
-        <v>6209100</v>
+        <v>5769300</v>
       </c>
       <c r="F61" s="3">
-        <v>6953800</v>
+        <v>6461300</v>
       </c>
       <c r="G61" s="3">
-        <v>9128700</v>
+        <v>8482100</v>
       </c>
       <c r="H61" s="3">
-        <v>11396700</v>
+        <v>10589500</v>
       </c>
       <c r="I61" s="3">
-        <v>9052900</v>
+        <v>8411700</v>
       </c>
       <c r="J61" s="3">
-        <v>135200</v>
+        <v>125600</v>
       </c>
       <c r="K61" s="3">
         <v>94200</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4891100</v>
+        <v>4544600</v>
       </c>
       <c r="E62" s="3">
-        <v>4404500</v>
+        <v>4092600</v>
       </c>
       <c r="F62" s="3">
-        <v>4125700</v>
+        <v>3833500</v>
       </c>
       <c r="G62" s="3">
-        <v>4508500</v>
+        <v>4189100</v>
       </c>
       <c r="H62" s="3">
-        <v>4204700</v>
+        <v>3906900</v>
       </c>
       <c r="I62" s="3">
-        <v>3945600</v>
+        <v>3666200</v>
       </c>
       <c r="J62" s="3">
-        <v>114100</v>
+        <v>106100</v>
       </c>
       <c r="K62" s="3">
         <v>100400</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>28258800</v>
+        <v>26257300</v>
       </c>
       <c r="E66" s="3">
-        <v>23768900</v>
+        <v>22085400</v>
       </c>
       <c r="F66" s="3">
-        <v>24858900</v>
+        <v>23098200</v>
       </c>
       <c r="G66" s="3">
-        <v>25579500</v>
+        <v>23767800</v>
       </c>
       <c r="H66" s="3">
-        <v>25641500</v>
+        <v>23825300</v>
       </c>
       <c r="I66" s="3">
-        <v>24264500</v>
+        <v>22545900</v>
       </c>
       <c r="J66" s="3">
-        <v>440100</v>
+        <v>408900</v>
       </c>
       <c r="K66" s="3">
         <v>406700</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>60366600</v>
+        <v>56090900</v>
       </c>
       <c r="E72" s="3">
-        <v>59324200</v>
+        <v>55122400</v>
       </c>
       <c r="F72" s="3">
-        <v>51382300</v>
+        <v>47743000</v>
       </c>
       <c r="G72" s="3">
-        <v>47511900</v>
+        <v>44146700</v>
       </c>
       <c r="H72" s="3">
-        <v>47536100</v>
+        <v>44169300</v>
       </c>
       <c r="I72" s="3">
-        <v>44904700</v>
+        <v>41724200</v>
       </c>
       <c r="J72" s="3">
-        <v>1165500</v>
+        <v>1083000</v>
       </c>
       <c r="K72" s="3">
         <v>1203500</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56546100</v>
+        <v>52541100</v>
       </c>
       <c r="E76" s="3">
-        <v>57974900</v>
+        <v>53868700</v>
       </c>
       <c r="F76" s="3">
-        <v>49666900</v>
+        <v>46149100</v>
       </c>
       <c r="G76" s="3">
-        <v>45929700</v>
+        <v>42676700</v>
       </c>
       <c r="H76" s="3">
-        <v>45952400</v>
+        <v>42697700</v>
       </c>
       <c r="I76" s="3">
-        <v>43313000</v>
+        <v>40245300</v>
       </c>
       <c r="J76" s="3">
-        <v>1120500</v>
+        <v>1041200</v>
       </c>
       <c r="K76" s="3">
         <v>1155900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9090500</v>
+        <v>8482400</v>
       </c>
       <c r="E81" s="3">
-        <v>8792300</v>
+        <v>8204100</v>
       </c>
       <c r="F81" s="3">
-        <v>5947000</v>
+        <v>5549200</v>
       </c>
       <c r="G81" s="3">
-        <v>2936500</v>
+        <v>2740000</v>
       </c>
       <c r="H81" s="3">
-        <v>4134100</v>
+        <v>3857500</v>
       </c>
       <c r="I81" s="3">
-        <v>5616500</v>
+        <v>5240700</v>
       </c>
       <c r="J81" s="3">
-        <v>111200</v>
+        <v>103800</v>
       </c>
       <c r="K81" s="3">
         <v>173800</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5894300</v>
+        <v>5500000</v>
       </c>
       <c r="E83" s="3">
-        <v>4871800</v>
+        <v>4545900</v>
       </c>
       <c r="F83" s="3">
-        <v>4615800</v>
+        <v>4307000</v>
       </c>
       <c r="G83" s="3">
-        <v>4424500</v>
+        <v>4128500</v>
       </c>
       <c r="H83" s="3">
-        <v>4983900</v>
+        <v>4650400</v>
       </c>
       <c r="I83" s="3">
-        <v>4161300</v>
+        <v>3882900</v>
       </c>
       <c r="J83" s="3">
-        <v>81700</v>
+        <v>76300</v>
       </c>
       <c r="K83" s="3">
         <v>76300</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>16356200</v>
+        <v>15261900</v>
       </c>
       <c r="E89" s="3">
-        <v>14294400</v>
+        <v>13338100</v>
       </c>
       <c r="F89" s="3">
-        <v>10770600</v>
+        <v>10050000</v>
       </c>
       <c r="G89" s="3">
-        <v>10681900</v>
+        <v>9967200</v>
       </c>
       <c r="H89" s="3">
-        <v>12055400</v>
+        <v>11248900</v>
       </c>
       <c r="I89" s="3">
-        <v>9250100</v>
+        <v>8631300</v>
       </c>
       <c r="J89" s="3">
-        <v>233600</v>
+        <v>217900</v>
       </c>
       <c r="K89" s="3">
         <v>300000</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6389600</v>
+        <v>-5962200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6411700</v>
+        <v>-5982700</v>
       </c>
       <c r="F91" s="3">
-        <v>-7263200</v>
+        <v>-6777300</v>
       </c>
       <c r="G91" s="3">
-        <v>-7059200</v>
+        <v>-6587000</v>
       </c>
       <c r="H91" s="3">
-        <v>-8529100</v>
+        <v>-7958500</v>
       </c>
       <c r="I91" s="3">
-        <v>-8178900</v>
+        <v>-7631700</v>
       </c>
       <c r="J91" s="3">
-        <v>-212400</v>
+        <v>-198200</v>
       </c>
       <c r="K91" s="3">
         <v>-183900</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7243800</v>
+        <v>-6759200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5969600</v>
+        <v>-5570200</v>
       </c>
       <c r="F94" s="3">
-        <v>-6152700</v>
+        <v>-5741000</v>
       </c>
       <c r="G94" s="3">
-        <v>-7104900</v>
+        <v>-6629500</v>
       </c>
       <c r="H94" s="3">
-        <v>-7465300</v>
+        <v>-6965800</v>
       </c>
       <c r="I94" s="3">
-        <v>-8212900</v>
+        <v>-7663500</v>
       </c>
       <c r="J94" s="3">
-        <v>-264700</v>
+        <v>-247000</v>
       </c>
       <c r="K94" s="3">
         <v>-208700</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2566600</v>
+        <v>-2394900</v>
       </c>
       <c r="E96" s="3">
-        <v>-2248900</v>
+        <v>-2098400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1971100</v>
+        <v>-1839200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1808300</v>
+        <v>-1687300</v>
       </c>
       <c r="H96" s="3">
-        <v>-1588400</v>
+        <v>-1482100</v>
       </c>
       <c r="I96" s="3">
-        <v>-705000</v>
+        <v>-657900</v>
       </c>
       <c r="J96" s="3">
-        <v>-33800</v>
+        <v>-31600</v>
       </c>
       <c r="K96" s="3">
         <v>-44200</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-8269300</v>
+        <v>-7716100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6653400</v>
+        <v>-6208300</v>
       </c>
       <c r="F100" s="3">
-        <v>-3513000</v>
+        <v>-3278000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2742500</v>
+        <v>-2559000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3593500</v>
+        <v>-3353100</v>
       </c>
       <c r="I100" s="3">
-        <v>428000</v>
+        <v>399400</v>
       </c>
       <c r="J100" s="3">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="K100" s="3">
         <v>-89700</v>
@@ -3464,25 +3464,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-511100</v>
+        <v>-476900</v>
       </c>
       <c r="E101" s="3">
-        <v>632600</v>
+        <v>590300</v>
       </c>
       <c r="F101" s="3">
-        <v>-124800</v>
+        <v>-116400</v>
       </c>
       <c r="G101" s="3">
-        <v>-776200</v>
+        <v>-724300</v>
       </c>
       <c r="H101" s="3">
-        <v>256400</v>
+        <v>239200</v>
       </c>
       <c r="I101" s="3">
-        <v>324100</v>
+        <v>302400</v>
       </c>
       <c r="J101" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K101" s="3">
         <v>900</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>332000</v>
+        <v>309800</v>
       </c>
       <c r="E102" s="3">
-        <v>2304100</v>
+        <v>2149900</v>
       </c>
       <c r="F102" s="3">
-        <v>980100</v>
+        <v>914600</v>
       </c>
       <c r="G102" s="3">
-        <v>58300</v>
+        <v>54400</v>
       </c>
       <c r="H102" s="3">
-        <v>1253000</v>
+        <v>1169200</v>
       </c>
       <c r="I102" s="3">
-        <v>1789400</v>
+        <v>1669600</v>
       </c>
       <c r="J102" s="3">
-        <v>-17100</v>
+        <v>-15900</v>
       </c>
       <c r="K102" s="3">
         <v>2500</v>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>103896500</v>
+        <v>103426000</v>
       </c>
       <c r="E8" s="3">
-        <v>106475500</v>
+        <v>105993400</v>
       </c>
       <c r="F8" s="3">
-        <v>78661300</v>
+        <v>78305100</v>
       </c>
       <c r="G8" s="3">
-        <v>69258300</v>
+        <v>68944700</v>
       </c>
       <c r="H8" s="3">
-        <v>76174900</v>
+        <v>75830000</v>
       </c>
       <c r="I8" s="3">
-        <v>72939300</v>
+        <v>72609100</v>
       </c>
       <c r="J8" s="3">
-        <v>1874200</v>
+        <v>1865800</v>
       </c>
       <c r="K8" s="3">
         <v>2197500</v>
@@ -751,25 +751,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>57082000</v>
+        <v>56823500</v>
       </c>
       <c r="E9" s="3">
-        <v>60078700</v>
+        <v>59806700</v>
       </c>
       <c r="F9" s="3">
-        <v>41470700</v>
+        <v>41282900</v>
       </c>
       <c r="G9" s="3">
-        <v>34579400</v>
+        <v>34422800</v>
       </c>
       <c r="H9" s="3">
-        <v>38314700</v>
+        <v>38141200</v>
       </c>
       <c r="I9" s="3">
-        <v>36859600</v>
+        <v>36692700</v>
       </c>
       <c r="J9" s="3">
-        <v>873500</v>
+        <v>869500</v>
       </c>
       <c r="K9" s="3">
         <v>1012900</v>
@@ -784,25 +784,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46814500</v>
+        <v>46602600</v>
       </c>
       <c r="E10" s="3">
-        <v>46396800</v>
+        <v>46186700</v>
       </c>
       <c r="F10" s="3">
-        <v>37190600</v>
+        <v>37022200</v>
       </c>
       <c r="G10" s="3">
-        <v>34679000</v>
+        <v>34521900</v>
       </c>
       <c r="H10" s="3">
-        <v>37860200</v>
+        <v>37688800</v>
       </c>
       <c r="I10" s="3">
-        <v>36079800</v>
+        <v>35916400</v>
       </c>
       <c r="J10" s="3">
-        <v>1000700</v>
+        <v>996200</v>
       </c>
       <c r="K10" s="3">
         <v>1184600</v>
@@ -832,25 +832,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>123900</v>
+        <v>123300</v>
       </c>
       <c r="E12" s="3">
-        <v>47500</v>
+        <v>47200</v>
       </c>
       <c r="F12" s="3">
-        <v>163600</v>
+        <v>162900</v>
       </c>
       <c r="G12" s="3">
-        <v>109900</v>
+        <v>109400</v>
       </c>
       <c r="H12" s="3">
-        <v>386600</v>
+        <v>384800</v>
       </c>
       <c r="I12" s="3">
-        <v>162000</v>
+        <v>161300</v>
       </c>
       <c r="J12" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="K12" s="3">
         <v>5700</v>
@@ -898,22 +898,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>124700</v>
+        <v>124200</v>
       </c>
       <c r="E14" s="3">
-        <v>155400</v>
+        <v>154700</v>
       </c>
       <c r="F14" s="3">
-        <v>38900</v>
+        <v>38800</v>
       </c>
       <c r="G14" s="3">
-        <v>113700</v>
+        <v>113200</v>
       </c>
       <c r="H14" s="3">
-        <v>2461300</v>
+        <v>2450100</v>
       </c>
       <c r="I14" s="3">
-        <v>995700</v>
+        <v>991200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -931,25 +931,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5500000</v>
+        <v>5475100</v>
       </c>
       <c r="E15" s="3">
-        <v>4545900</v>
+        <v>4525300</v>
       </c>
       <c r="F15" s="3">
-        <v>4307000</v>
+        <v>4287500</v>
       </c>
       <c r="G15" s="3">
-        <v>4128500</v>
+        <v>4109800</v>
       </c>
       <c r="H15" s="3">
-        <v>4650400</v>
+        <v>4629400</v>
       </c>
       <c r="I15" s="3">
-        <v>3882900</v>
+        <v>3865400</v>
       </c>
       <c r="J15" s="3">
-        <v>76300</v>
+        <v>75900</v>
       </c>
       <c r="K15" s="3">
         <v>76300</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>93141700</v>
+        <v>92719900</v>
       </c>
       <c r="E17" s="3">
-        <v>96405700</v>
+        <v>95969100</v>
       </c>
       <c r="F17" s="3">
-        <v>71988900</v>
+        <v>71662900</v>
       </c>
       <c r="G17" s="3">
-        <v>63818400</v>
+        <v>63529400</v>
       </c>
       <c r="H17" s="3">
-        <v>72465300</v>
+        <v>72137200</v>
       </c>
       <c r="I17" s="3">
-        <v>68471700</v>
+        <v>68161600</v>
       </c>
       <c r="J17" s="3">
-        <v>1738500</v>
+        <v>1730600</v>
       </c>
       <c r="K17" s="3">
         <v>1975300</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10754800</v>
+        <v>10706100</v>
       </c>
       <c r="E18" s="3">
-        <v>10069800</v>
+        <v>10024200</v>
       </c>
       <c r="F18" s="3">
-        <v>6672400</v>
+        <v>6642200</v>
       </c>
       <c r="G18" s="3">
-        <v>5440000</v>
+        <v>5415300</v>
       </c>
       <c r="H18" s="3">
-        <v>3709600</v>
+        <v>3692800</v>
       </c>
       <c r="I18" s="3">
-        <v>4467700</v>
+        <v>4447500</v>
       </c>
       <c r="J18" s="3">
-        <v>135800</v>
+        <v>135200</v>
       </c>
       <c r="K18" s="3">
         <v>222200</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>275800</v>
+        <v>274600</v>
       </c>
       <c r="E20" s="3">
-        <v>599200</v>
+        <v>596500</v>
       </c>
       <c r="F20" s="3">
-        <v>579300</v>
+        <v>576700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1295400</v>
+        <v>-1289500</v>
       </c>
       <c r="H20" s="3">
-        <v>2030100</v>
+        <v>2020900</v>
       </c>
       <c r="I20" s="3">
-        <v>2280500</v>
+        <v>2270100</v>
       </c>
       <c r="J20" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="K20" s="3">
         <v>3000</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16555500</v>
+        <v>16472400</v>
       </c>
       <c r="E21" s="3">
-        <v>15235500</v>
+        <v>15159700</v>
       </c>
       <c r="F21" s="3">
-        <v>11578200</v>
+        <v>11519400</v>
       </c>
       <c r="G21" s="3">
-        <v>8291800</v>
+        <v>8248100</v>
       </c>
       <c r="H21" s="3">
-        <v>10411200</v>
+        <v>10357100</v>
       </c>
       <c r="I21" s="3">
-        <v>10648700</v>
+        <v>10594700</v>
       </c>
       <c r="J21" s="3">
-        <v>221600</v>
+        <v>220500</v>
       </c>
       <c r="K21" s="3">
         <v>302100</v>
@@ -1123,25 +1123,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>518700</v>
+        <v>516300</v>
       </c>
       <c r="E22" s="3">
-        <v>426500</v>
+        <v>424600</v>
       </c>
       <c r="F22" s="3">
-        <v>306300</v>
+        <v>304900</v>
       </c>
       <c r="G22" s="3">
-        <v>533700</v>
+        <v>531300</v>
       </c>
       <c r="H22" s="3">
-        <v>584100</v>
+        <v>581400</v>
       </c>
       <c r="I22" s="3">
-        <v>323800</v>
+        <v>322400</v>
       </c>
       <c r="J22" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="K22" s="3">
         <v>8500</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10511900</v>
+        <v>10464300</v>
       </c>
       <c r="E23" s="3">
-        <v>10242500</v>
+        <v>10196100</v>
       </c>
       <c r="F23" s="3">
-        <v>6945400</v>
+        <v>6914000</v>
       </c>
       <c r="G23" s="3">
-        <v>3610800</v>
+        <v>3594500</v>
       </c>
       <c r="H23" s="3">
-        <v>5155600</v>
+        <v>5132300</v>
       </c>
       <c r="I23" s="3">
-        <v>6424300</v>
+        <v>6395200</v>
       </c>
       <c r="J23" s="3">
-        <v>138600</v>
+        <v>137900</v>
       </c>
       <c r="K23" s="3">
         <v>216700</v>
@@ -1189,25 +1189,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2002500</v>
+        <v>1993400</v>
       </c>
       <c r="E24" s="3">
-        <v>2012900</v>
+        <v>2003800</v>
       </c>
       <c r="F24" s="3">
-        <v>1374800</v>
+        <v>1368600</v>
       </c>
       <c r="G24" s="3">
-        <v>859600</v>
+        <v>855700</v>
       </c>
       <c r="H24" s="3">
-        <v>1276800</v>
+        <v>1271000</v>
       </c>
       <c r="I24" s="3">
-        <v>1202800</v>
+        <v>1197400</v>
       </c>
       <c r="J24" s="3">
-        <v>37500</v>
+        <v>37300</v>
       </c>
       <c r="K24" s="3">
         <v>44200</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8509400</v>
+        <v>8470900</v>
       </c>
       <c r="E26" s="3">
-        <v>8229600</v>
+        <v>8192300</v>
       </c>
       <c r="F26" s="3">
-        <v>5570600</v>
+        <v>5545400</v>
       </c>
       <c r="G26" s="3">
-        <v>2751300</v>
+        <v>2738800</v>
       </c>
       <c r="H26" s="3">
-        <v>3878900</v>
+        <v>3861300</v>
       </c>
       <c r="I26" s="3">
-        <v>5221500</v>
+        <v>5197900</v>
       </c>
       <c r="J26" s="3">
-        <v>101100</v>
+        <v>100600</v>
       </c>
       <c r="K26" s="3">
         <v>172500</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8482400</v>
+        <v>8443900</v>
       </c>
       <c r="E27" s="3">
-        <v>8204100</v>
+        <v>8166900</v>
       </c>
       <c r="F27" s="3">
-        <v>5549200</v>
+        <v>5524000</v>
       </c>
       <c r="G27" s="3">
-        <v>2740000</v>
+        <v>2727600</v>
       </c>
       <c r="H27" s="3">
-        <v>3857500</v>
+        <v>3840100</v>
       </c>
       <c r="I27" s="3">
-        <v>5240700</v>
+        <v>5217000</v>
       </c>
       <c r="J27" s="3">
-        <v>103800</v>
+        <v>103300</v>
       </c>
       <c r="K27" s="3">
         <v>173800</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-275800</v>
+        <v>-274600</v>
       </c>
       <c r="E32" s="3">
-        <v>-599200</v>
+        <v>-596500</v>
       </c>
       <c r="F32" s="3">
-        <v>-579300</v>
+        <v>-576700</v>
       </c>
       <c r="G32" s="3">
-        <v>1295400</v>
+        <v>1289500</v>
       </c>
       <c r="H32" s="3">
-        <v>-2030100</v>
+        <v>-2020900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2280500</v>
+        <v>-2270100</v>
       </c>
       <c r="J32" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="K32" s="3">
         <v>-3000</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8482400</v>
+        <v>8443900</v>
       </c>
       <c r="E33" s="3">
-        <v>8204100</v>
+        <v>8166900</v>
       </c>
       <c r="F33" s="3">
-        <v>5549200</v>
+        <v>5524000</v>
       </c>
       <c r="G33" s="3">
-        <v>2740000</v>
+        <v>2727600</v>
       </c>
       <c r="H33" s="3">
-        <v>3857500</v>
+        <v>3840100</v>
       </c>
       <c r="I33" s="3">
-        <v>5240700</v>
+        <v>5217000</v>
       </c>
       <c r="J33" s="3">
-        <v>103800</v>
+        <v>103300</v>
       </c>
       <c r="K33" s="3">
         <v>173800</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8482400</v>
+        <v>8443900</v>
       </c>
       <c r="E35" s="3">
-        <v>8204100</v>
+        <v>8166900</v>
       </c>
       <c r="F35" s="3">
-        <v>5549200</v>
+        <v>5524000</v>
       </c>
       <c r="G35" s="3">
-        <v>2740000</v>
+        <v>2727600</v>
       </c>
       <c r="H35" s="3">
-        <v>3857500</v>
+        <v>3840100</v>
       </c>
       <c r="I35" s="3">
-        <v>5240700</v>
+        <v>5217000</v>
       </c>
       <c r="J35" s="3">
-        <v>103800</v>
+        <v>103300</v>
       </c>
       <c r="K35" s="3">
         <v>173800</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6837400</v>
+        <v>6806500</v>
       </c>
       <c r="E41" s="3">
-        <v>6527600</v>
+        <v>6498100</v>
       </c>
       <c r="F41" s="3">
-        <v>4377700</v>
+        <v>4357800</v>
       </c>
       <c r="G41" s="3">
-        <v>3463100</v>
+        <v>3447400</v>
       </c>
       <c r="H41" s="3">
-        <v>3408700</v>
+        <v>3393300</v>
       </c>
       <c r="I41" s="3">
-        <v>2239600</v>
+        <v>2229400</v>
       </c>
       <c r="J41" s="3">
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="K41" s="3">
         <v>46000</v>
@@ -1686,22 +1686,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>658600</v>
+        <v>655600</v>
       </c>
       <c r="E42" s="3">
-        <v>347100</v>
+        <v>345600</v>
       </c>
       <c r="F42" s="3">
-        <v>259200</v>
+        <v>258000</v>
       </c>
       <c r="G42" s="3">
-        <v>224400</v>
+        <v>223400</v>
       </c>
       <c r="H42" s="3">
-        <v>314900</v>
+        <v>313500</v>
       </c>
       <c r="I42" s="3">
-        <v>141800</v>
+        <v>141100</v>
       </c>
       <c r="J42" s="3">
         <v>4800</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6665300</v>
+        <v>6635100</v>
       </c>
       <c r="E43" s="3">
-        <v>6496400</v>
+        <v>6467000</v>
       </c>
       <c r="F43" s="3">
-        <v>6315600</v>
+        <v>6287000</v>
       </c>
       <c r="G43" s="3">
-        <v>5762800</v>
+        <v>5736700</v>
       </c>
       <c r="H43" s="3">
-        <v>6918900</v>
+        <v>6887600</v>
       </c>
       <c r="I43" s="3">
-        <v>7899300</v>
+        <v>7863600</v>
       </c>
       <c r="J43" s="3">
-        <v>105200</v>
+        <v>104800</v>
       </c>
       <c r="K43" s="3">
         <v>136900</v>
@@ -1752,25 +1752,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5484300</v>
+        <v>5459500</v>
       </c>
       <c r="E44" s="3">
-        <v>5058000</v>
+        <v>5035100</v>
       </c>
       <c r="F44" s="3">
-        <v>5276000</v>
+        <v>5252100</v>
       </c>
       <c r="G44" s="3">
-        <v>5356800</v>
+        <v>5332500</v>
       </c>
       <c r="H44" s="3">
-        <v>4507600</v>
+        <v>4487200</v>
       </c>
       <c r="I44" s="3">
-        <v>4514200</v>
+        <v>4493700</v>
       </c>
       <c r="J44" s="3">
-        <v>116600</v>
+        <v>116100</v>
       </c>
       <c r="K44" s="3">
         <v>127900</v>
@@ -1785,25 +1785,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>947400</v>
+        <v>943100</v>
       </c>
       <c r="E45" s="3">
-        <v>1160600</v>
+        <v>1155400</v>
       </c>
       <c r="F45" s="3">
-        <v>1104100</v>
+        <v>1099100</v>
       </c>
       <c r="G45" s="3">
-        <v>1830200</v>
+        <v>1821900</v>
       </c>
       <c r="H45" s="3">
-        <v>930700</v>
+        <v>926500</v>
       </c>
       <c r="I45" s="3">
-        <v>1703600</v>
+        <v>1695800</v>
       </c>
       <c r="J45" s="3">
-        <v>60600</v>
+        <v>60400</v>
       </c>
       <c r="K45" s="3">
         <v>68000</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20593000</v>
+        <v>20499700</v>
       </c>
       <c r="E46" s="3">
-        <v>19589800</v>
+        <v>19501100</v>
       </c>
       <c r="F46" s="3">
-        <v>17332500</v>
+        <v>17254000</v>
       </c>
       <c r="G46" s="3">
-        <v>16637200</v>
+        <v>16561900</v>
       </c>
       <c r="H46" s="3">
-        <v>16080800</v>
+        <v>16008000</v>
       </c>
       <c r="I46" s="3">
-        <v>16380000</v>
+        <v>16305800</v>
       </c>
       <c r="J46" s="3">
-        <v>310000</v>
+        <v>308600</v>
       </c>
       <c r="K46" s="3">
         <v>383300</v>
@@ -1851,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3421600</v>
+        <v>3406100</v>
       </c>
       <c r="E47" s="3">
-        <v>4115700</v>
+        <v>4097100</v>
       </c>
       <c r="F47" s="3">
-        <v>3233000</v>
+        <v>3218400</v>
       </c>
       <c r="G47" s="3">
-        <v>3500900</v>
+        <v>3485000</v>
       </c>
       <c r="H47" s="3">
-        <v>3760500</v>
+        <v>3743500</v>
       </c>
       <c r="I47" s="3">
-        <v>3192600</v>
+        <v>3178200</v>
       </c>
       <c r="J47" s="3">
-        <v>56400</v>
+        <v>56100</v>
       </c>
       <c r="K47" s="3">
         <v>65100</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53344600</v>
+        <v>53103000</v>
       </c>
       <c r="E48" s="3">
-        <v>50736400</v>
+        <v>50506700</v>
       </c>
       <c r="F48" s="3">
-        <v>47370900</v>
+        <v>47156400</v>
       </c>
       <c r="G48" s="3">
-        <v>44935600</v>
+        <v>44732100</v>
       </c>
       <c r="H48" s="3">
-        <v>45197800</v>
+        <v>44993100</v>
       </c>
       <c r="I48" s="3">
-        <v>41784900</v>
+        <v>41595700</v>
       </c>
       <c r="J48" s="3">
-        <v>1039700</v>
+        <v>1035000</v>
       </c>
       <c r="K48" s="3">
         <v>1056100</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>571200</v>
+        <v>568600</v>
       </c>
       <c r="E49" s="3">
-        <v>553400</v>
+        <v>550900</v>
       </c>
       <c r="F49" s="3">
-        <v>547300</v>
+        <v>544800</v>
       </c>
       <c r="G49" s="3">
-        <v>571500</v>
+        <v>568900</v>
       </c>
       <c r="H49" s="3">
-        <v>685700</v>
+        <v>682600</v>
       </c>
       <c r="I49" s="3">
-        <v>762900</v>
+        <v>759500</v>
       </c>
       <c r="J49" s="3">
-        <v>17200</v>
+        <v>17100</v>
       </c>
       <c r="K49" s="3">
         <v>31000</v>
@@ -2016,25 +2016,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>868000</v>
+        <v>864100</v>
       </c>
       <c r="E52" s="3">
-        <v>958700</v>
+        <v>954300</v>
       </c>
       <c r="F52" s="3">
-        <v>763600</v>
+        <v>760100</v>
       </c>
       <c r="G52" s="3">
-        <v>799200</v>
+        <v>795600</v>
       </c>
       <c r="H52" s="3">
-        <v>798300</v>
+        <v>794700</v>
       </c>
       <c r="I52" s="3">
-        <v>706500</v>
+        <v>703300</v>
       </c>
       <c r="J52" s="3">
-        <v>26800</v>
+        <v>26700</v>
       </c>
       <c r="K52" s="3">
         <v>27100</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78798400</v>
+        <v>78441600</v>
       </c>
       <c r="E54" s="3">
-        <v>75954100</v>
+        <v>75610100</v>
       </c>
       <c r="F54" s="3">
-        <v>69247300</v>
+        <v>68933800</v>
       </c>
       <c r="G54" s="3">
-        <v>66444400</v>
+        <v>66143500</v>
       </c>
       <c r="H54" s="3">
-        <v>66523000</v>
+        <v>66221800</v>
       </c>
       <c r="I54" s="3">
-        <v>62791100</v>
+        <v>62506800</v>
       </c>
       <c r="J54" s="3">
-        <v>1450100</v>
+        <v>1443500</v>
       </c>
       <c r="K54" s="3">
         <v>1562600</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7364700</v>
+        <v>7331300</v>
       </c>
       <c r="E57" s="3">
-        <v>6326100</v>
+        <v>6297500</v>
       </c>
       <c r="F57" s="3">
-        <v>6732000</v>
+        <v>6701500</v>
       </c>
       <c r="G57" s="3">
-        <v>6342400</v>
+        <v>6313700</v>
       </c>
       <c r="H57" s="3">
-        <v>4493000</v>
+        <v>4472600</v>
       </c>
       <c r="I57" s="3">
-        <v>4879500</v>
+        <v>4857400</v>
       </c>
       <c r="J57" s="3">
-        <v>97200</v>
+        <v>96700</v>
       </c>
       <c r="K57" s="3">
         <v>114700</v>
@@ -2178,25 +2178,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1726500</v>
+        <v>1718700</v>
       </c>
       <c r="E58" s="3">
-        <v>1320000</v>
+        <v>1314100</v>
       </c>
       <c r="F58" s="3">
-        <v>1705400</v>
+        <v>1697700</v>
       </c>
       <c r="G58" s="3">
-        <v>774200</v>
+        <v>770700</v>
       </c>
       <c r="H58" s="3">
-        <v>801700</v>
+        <v>798100</v>
       </c>
       <c r="I58" s="3">
-        <v>1606800</v>
+        <v>1599600</v>
       </c>
       <c r="J58" s="3">
-        <v>17700</v>
+        <v>17600</v>
       </c>
       <c r="K58" s="3">
         <v>10400</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6910600</v>
+        <v>6879300</v>
       </c>
       <c r="E59" s="3">
-        <v>4471800</v>
+        <v>4451500</v>
       </c>
       <c r="F59" s="3">
-        <v>4267200</v>
+        <v>4247900</v>
       </c>
       <c r="G59" s="3">
-        <v>3890000</v>
+        <v>3872400</v>
       </c>
       <c r="H59" s="3">
-        <v>3916300</v>
+        <v>3898600</v>
       </c>
       <c r="I59" s="3">
-        <v>3978200</v>
+        <v>3960200</v>
       </c>
       <c r="J59" s="3">
-        <v>58600</v>
+        <v>58400</v>
       </c>
       <c r="K59" s="3">
         <v>71600</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16001700</v>
+        <v>15929300</v>
       </c>
       <c r="E60" s="3">
-        <v>12117900</v>
+        <v>12063000</v>
       </c>
       <c r="F60" s="3">
-        <v>12704700</v>
+        <v>12647200</v>
       </c>
       <c r="G60" s="3">
-        <v>11006600</v>
+        <v>10956700</v>
       </c>
       <c r="H60" s="3">
-        <v>9211000</v>
+        <v>9169300</v>
       </c>
       <c r="I60" s="3">
-        <v>10327700</v>
+        <v>10280900</v>
       </c>
       <c r="J60" s="3">
-        <v>173500</v>
+        <v>172700</v>
       </c>
       <c r="K60" s="3">
         <v>196600</v>
@@ -2277,25 +2277,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5603800</v>
+        <v>5578500</v>
       </c>
       <c r="E61" s="3">
-        <v>5769300</v>
+        <v>5743200</v>
       </c>
       <c r="F61" s="3">
-        <v>6461300</v>
+        <v>6432100</v>
       </c>
       <c r="G61" s="3">
-        <v>8482100</v>
+        <v>8443700</v>
       </c>
       <c r="H61" s="3">
-        <v>10589500</v>
+        <v>10541500</v>
       </c>
       <c r="I61" s="3">
-        <v>8411700</v>
+        <v>8373600</v>
       </c>
       <c r="J61" s="3">
-        <v>125600</v>
+        <v>125100</v>
       </c>
       <c r="K61" s="3">
         <v>94200</v>
@@ -2310,25 +2310,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4544600</v>
+        <v>4524100</v>
       </c>
       <c r="E62" s="3">
-        <v>4092600</v>
+        <v>4074000</v>
       </c>
       <c r="F62" s="3">
-        <v>3833500</v>
+        <v>3816200</v>
       </c>
       <c r="G62" s="3">
-        <v>4189100</v>
+        <v>4170200</v>
       </c>
       <c r="H62" s="3">
-        <v>3906900</v>
+        <v>3889200</v>
       </c>
       <c r="I62" s="3">
-        <v>3666200</v>
+        <v>3649600</v>
       </c>
       <c r="J62" s="3">
-        <v>106100</v>
+        <v>105600</v>
       </c>
       <c r="K62" s="3">
         <v>100400</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26257300</v>
+        <v>26138400</v>
       </c>
       <c r="E66" s="3">
-        <v>22085400</v>
+        <v>21985400</v>
       </c>
       <c r="F66" s="3">
-        <v>23098200</v>
+        <v>22993700</v>
       </c>
       <c r="G66" s="3">
-        <v>23767800</v>
+        <v>23660100</v>
       </c>
       <c r="H66" s="3">
-        <v>23825300</v>
+        <v>23717500</v>
       </c>
       <c r="I66" s="3">
-        <v>22545900</v>
+        <v>22443800</v>
       </c>
       <c r="J66" s="3">
-        <v>408900</v>
+        <v>407100</v>
       </c>
       <c r="K66" s="3">
         <v>406700</v>
@@ -2622,25 +2622,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56090900</v>
+        <v>55837000</v>
       </c>
       <c r="E72" s="3">
-        <v>55122400</v>
+        <v>54872800</v>
       </c>
       <c r="F72" s="3">
-        <v>47743000</v>
+        <v>47526800</v>
       </c>
       <c r="G72" s="3">
-        <v>44146700</v>
+        <v>43946800</v>
       </c>
       <c r="H72" s="3">
-        <v>44169300</v>
+        <v>43969200</v>
       </c>
       <c r="I72" s="3">
-        <v>41724200</v>
+        <v>41535300</v>
       </c>
       <c r="J72" s="3">
-        <v>1083000</v>
+        <v>1078100</v>
       </c>
       <c r="K72" s="3">
         <v>1203500</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52541100</v>
+        <v>52303200</v>
       </c>
       <c r="E76" s="3">
-        <v>53868700</v>
+        <v>53624700</v>
       </c>
       <c r="F76" s="3">
-        <v>46149100</v>
+        <v>45940100</v>
       </c>
       <c r="G76" s="3">
-        <v>42676700</v>
+        <v>42483400</v>
       </c>
       <c r="H76" s="3">
-        <v>42697700</v>
+        <v>42504400</v>
       </c>
       <c r="I76" s="3">
-        <v>40245300</v>
+        <v>40063000</v>
       </c>
       <c r="J76" s="3">
-        <v>1041200</v>
+        <v>1036400</v>
       </c>
       <c r="K76" s="3">
         <v>1155900</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8482400</v>
+        <v>8443900</v>
       </c>
       <c r="E81" s="3">
-        <v>8204100</v>
+        <v>8166900</v>
       </c>
       <c r="F81" s="3">
-        <v>5549200</v>
+        <v>5524000</v>
       </c>
       <c r="G81" s="3">
-        <v>2740000</v>
+        <v>2727600</v>
       </c>
       <c r="H81" s="3">
-        <v>3857500</v>
+        <v>3840100</v>
       </c>
       <c r="I81" s="3">
-        <v>5240700</v>
+        <v>5217000</v>
       </c>
       <c r="J81" s="3">
-        <v>103800</v>
+        <v>103300</v>
       </c>
       <c r="K81" s="3">
         <v>173800</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5500000</v>
+        <v>5475100</v>
       </c>
       <c r="E83" s="3">
-        <v>4545900</v>
+        <v>4525300</v>
       </c>
       <c r="F83" s="3">
-        <v>4307000</v>
+        <v>4287500</v>
       </c>
       <c r="G83" s="3">
-        <v>4128500</v>
+        <v>4109800</v>
       </c>
       <c r="H83" s="3">
-        <v>4650400</v>
+        <v>4629400</v>
       </c>
       <c r="I83" s="3">
-        <v>3882900</v>
+        <v>3865400</v>
       </c>
       <c r="J83" s="3">
-        <v>76300</v>
+        <v>75900</v>
       </c>
       <c r="K83" s="3">
         <v>76300</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15261900</v>
+        <v>15192800</v>
       </c>
       <c r="E89" s="3">
-        <v>13338100</v>
+        <v>13277700</v>
       </c>
       <c r="F89" s="3">
-        <v>10050000</v>
+        <v>10004500</v>
       </c>
       <c r="G89" s="3">
-        <v>9967200</v>
+        <v>9922100</v>
       </c>
       <c r="H89" s="3">
-        <v>11248900</v>
+        <v>11197900</v>
       </c>
       <c r="I89" s="3">
-        <v>8631300</v>
+        <v>8592200</v>
       </c>
       <c r="J89" s="3">
-        <v>217900</v>
+        <v>217000</v>
       </c>
       <c r="K89" s="3">
         <v>300000</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5962200</v>
+        <v>-5935200</v>
       </c>
       <c r="E91" s="3">
-        <v>-5982700</v>
+        <v>-5955600</v>
       </c>
       <c r="F91" s="3">
-        <v>-6777300</v>
+        <v>-6746600</v>
       </c>
       <c r="G91" s="3">
-        <v>-6587000</v>
+        <v>-6557100</v>
       </c>
       <c r="H91" s="3">
-        <v>-7958500</v>
+        <v>-7922400</v>
       </c>
       <c r="I91" s="3">
-        <v>-7631700</v>
+        <v>-7597200</v>
       </c>
       <c r="J91" s="3">
-        <v>-198200</v>
+        <v>-197300</v>
       </c>
       <c r="K91" s="3">
         <v>-183900</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6759200</v>
+        <v>-6728600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5570200</v>
+        <v>-5545000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5741000</v>
+        <v>-5715000</v>
       </c>
       <c r="G94" s="3">
-        <v>-6629500</v>
+        <v>-6599500</v>
       </c>
       <c r="H94" s="3">
-        <v>-6965800</v>
+        <v>-6934300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7663500</v>
+        <v>-7628800</v>
       </c>
       <c r="J94" s="3">
-        <v>-247000</v>
+        <v>-245800</v>
       </c>
       <c r="K94" s="3">
         <v>-208700</v>
@@ -3299,25 +3299,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2394900</v>
+        <v>-2384100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2098400</v>
+        <v>-2088900</v>
       </c>
       <c r="F96" s="3">
-        <v>-1839200</v>
+        <v>-1830900</v>
       </c>
       <c r="G96" s="3">
-        <v>-1687300</v>
+        <v>-1679700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1482100</v>
+        <v>-1475400</v>
       </c>
       <c r="I96" s="3">
-        <v>-657900</v>
+        <v>-654900</v>
       </c>
       <c r="J96" s="3">
-        <v>-31600</v>
+        <v>-31400</v>
       </c>
       <c r="K96" s="3">
         <v>-44200</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7716100</v>
+        <v>-7681100</v>
       </c>
       <c r="E100" s="3">
-        <v>-6208300</v>
+        <v>-6180200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3278000</v>
+        <v>-3263100</v>
       </c>
       <c r="G100" s="3">
-        <v>-2559000</v>
+        <v>-2547400</v>
       </c>
       <c r="H100" s="3">
-        <v>-3353100</v>
+        <v>-3337900</v>
       </c>
       <c r="I100" s="3">
-        <v>399400</v>
+        <v>397600</v>
       </c>
       <c r="J100" s="3">
         <v>13600</v>
@@ -3464,22 +3464,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-476900</v>
+        <v>-474700</v>
       </c>
       <c r="E101" s="3">
-        <v>590300</v>
+        <v>587600</v>
       </c>
       <c r="F101" s="3">
-        <v>-116400</v>
+        <v>-115900</v>
       </c>
       <c r="G101" s="3">
-        <v>-724300</v>
+        <v>-721000</v>
       </c>
       <c r="H101" s="3">
-        <v>239200</v>
+        <v>238100</v>
       </c>
       <c r="I101" s="3">
-        <v>302400</v>
+        <v>301100</v>
       </c>
       <c r="J101" s="3">
         <v>-500</v>
@@ -3497,22 +3497,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>309800</v>
+        <v>308400</v>
       </c>
       <c r="E102" s="3">
-        <v>2149900</v>
+        <v>2140200</v>
       </c>
       <c r="F102" s="3">
-        <v>914600</v>
+        <v>910400</v>
       </c>
       <c r="G102" s="3">
-        <v>54400</v>
+        <v>54100</v>
       </c>
       <c r="H102" s="3">
-        <v>1169200</v>
+        <v>1163900</v>
       </c>
       <c r="I102" s="3">
-        <v>1669600</v>
+        <v>1662100</v>
       </c>
       <c r="J102" s="3">
         <v>-15900</v>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,167 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>103426000</v>
+        <v>74158100</v>
       </c>
       <c r="E8" s="3">
-        <v>105993400</v>
+        <v>103112400</v>
       </c>
       <c r="F8" s="3">
-        <v>78305100</v>
+        <v>105671900</v>
       </c>
       <c r="G8" s="3">
-        <v>68944700</v>
+        <v>78067700</v>
       </c>
       <c r="H8" s="3">
-        <v>75830000</v>
+        <v>68735600</v>
       </c>
       <c r="I8" s="3">
-        <v>72609100</v>
+        <v>75600000</v>
       </c>
       <c r="J8" s="3">
+        <v>72388900</v>
+      </c>
+      <c r="K8" s="3">
         <v>1865800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2197500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2028800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>56823500</v>
+        <v>39462000</v>
       </c>
       <c r="E9" s="3">
-        <v>59806700</v>
+        <v>56651200</v>
       </c>
       <c r="F9" s="3">
-        <v>41282900</v>
+        <v>59625300</v>
       </c>
       <c r="G9" s="3">
-        <v>34422800</v>
+        <v>41157700</v>
       </c>
       <c r="H9" s="3">
-        <v>38141200</v>
+        <v>34318400</v>
       </c>
       <c r="I9" s="3">
-        <v>36692700</v>
+        <v>38025500</v>
       </c>
       <c r="J9" s="3">
+        <v>36581400</v>
+      </c>
+      <c r="K9" s="3">
         <v>869500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1012900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>906200</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>46602600</v>
+        <v>34696100</v>
       </c>
       <c r="E10" s="3">
-        <v>46186700</v>
+        <v>46461200</v>
       </c>
       <c r="F10" s="3">
-        <v>37022200</v>
+        <v>46046600</v>
       </c>
       <c r="G10" s="3">
-        <v>34521900</v>
+        <v>36910000</v>
       </c>
       <c r="H10" s="3">
-        <v>37688800</v>
+        <v>34417200</v>
       </c>
       <c r="I10" s="3">
-        <v>35916400</v>
+        <v>37574500</v>
       </c>
       <c r="J10" s="3">
+        <v>35807500</v>
+      </c>
+      <c r="K10" s="3">
         <v>996200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1184600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1122700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -826,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>123300</v>
+        <v>80400</v>
       </c>
       <c r="E12" s="3">
-        <v>47200</v>
+        <v>122900</v>
       </c>
       <c r="F12" s="3">
-        <v>162900</v>
+        <v>47100</v>
       </c>
       <c r="G12" s="3">
-        <v>109400</v>
+        <v>162400</v>
       </c>
       <c r="H12" s="3">
-        <v>384800</v>
+        <v>109100</v>
       </c>
       <c r="I12" s="3">
-        <v>161300</v>
+        <v>383700</v>
       </c>
       <c r="J12" s="3">
+        <v>160800</v>
+      </c>
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8100</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,32 +908,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>124200</v>
+        <v>1507800</v>
       </c>
       <c r="E14" s="3">
-        <v>154700</v>
+        <v>123800</v>
       </c>
       <c r="F14" s="3">
-        <v>38800</v>
+        <v>154200</v>
       </c>
       <c r="G14" s="3">
-        <v>113200</v>
+        <v>38600</v>
       </c>
       <c r="H14" s="3">
-        <v>2450100</v>
+        <v>112800</v>
       </c>
       <c r="I14" s="3">
-        <v>991200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>2442700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>988200</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -924,42 +944,48 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5475100</v>
+        <v>5331500</v>
       </c>
       <c r="E15" s="3">
-        <v>4525300</v>
+        <v>5458500</v>
       </c>
       <c r="F15" s="3">
-        <v>4287500</v>
+        <v>4511600</v>
       </c>
       <c r="G15" s="3">
-        <v>4109800</v>
+        <v>4274500</v>
       </c>
       <c r="H15" s="3">
-        <v>4629400</v>
+        <v>4097400</v>
       </c>
       <c r="I15" s="3">
-        <v>3865400</v>
+        <v>4615300</v>
       </c>
       <c r="J15" s="3">
+        <v>3853600</v>
+      </c>
+      <c r="K15" s="3">
         <v>75900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>76300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>67900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>92719900</v>
+        <v>71962200</v>
       </c>
       <c r="E17" s="3">
-        <v>95969100</v>
+        <v>92438800</v>
       </c>
       <c r="F17" s="3">
-        <v>71662900</v>
+        <v>95678100</v>
       </c>
       <c r="G17" s="3">
-        <v>63529400</v>
+        <v>71445600</v>
       </c>
       <c r="H17" s="3">
-        <v>72137200</v>
+        <v>63336700</v>
       </c>
       <c r="I17" s="3">
-        <v>68161600</v>
+        <v>71918400</v>
       </c>
       <c r="J17" s="3">
+        <v>67954900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1730600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1975300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1829100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10706100</v>
+        <v>2195900</v>
       </c>
       <c r="E18" s="3">
-        <v>10024200</v>
+        <v>10673600</v>
       </c>
       <c r="F18" s="3">
-        <v>6642200</v>
+        <v>9993800</v>
       </c>
       <c r="G18" s="3">
-        <v>5415300</v>
+        <v>6622100</v>
       </c>
       <c r="H18" s="3">
-        <v>3692800</v>
+        <v>5398900</v>
       </c>
       <c r="I18" s="3">
-        <v>4447500</v>
+        <v>3681600</v>
       </c>
       <c r="J18" s="3">
+        <v>4434000</v>
+      </c>
+      <c r="K18" s="3">
         <v>135200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>222200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>199700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>274600</v>
+        <v>-405900</v>
       </c>
       <c r="E20" s="3">
-        <v>596500</v>
+        <v>273700</v>
       </c>
       <c r="F20" s="3">
-        <v>576700</v>
+        <v>594700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1289500</v>
+        <v>574900</v>
       </c>
       <c r="H20" s="3">
-        <v>2020900</v>
+        <v>-1285600</v>
       </c>
       <c r="I20" s="3">
-        <v>2270100</v>
+        <v>2014800</v>
       </c>
       <c r="J20" s="3">
+        <v>2263300</v>
+      </c>
+      <c r="K20" s="3">
         <v>9200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>16472400</v>
+        <v>7089100</v>
       </c>
       <c r="E21" s="3">
-        <v>15159700</v>
+        <v>16372600</v>
       </c>
       <c r="F21" s="3">
-        <v>11519400</v>
+        <v>15072600</v>
       </c>
       <c r="G21" s="3">
-        <v>8248100</v>
+        <v>11445500</v>
       </c>
       <c r="H21" s="3">
-        <v>10357100</v>
+        <v>8185700</v>
       </c>
       <c r="I21" s="3">
-        <v>10594700</v>
+        <v>10283700</v>
       </c>
       <c r="J21" s="3">
+        <v>10527400</v>
+      </c>
+      <c r="K21" s="3">
         <v>220500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>302100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>277600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>516300</v>
+        <v>490900</v>
       </c>
       <c r="E22" s="3">
-        <v>424600</v>
+        <v>514800</v>
       </c>
       <c r="F22" s="3">
-        <v>304900</v>
+        <v>423300</v>
       </c>
       <c r="G22" s="3">
-        <v>531300</v>
+        <v>304000</v>
       </c>
       <c r="H22" s="3">
-        <v>581400</v>
+        <v>529700</v>
       </c>
       <c r="I22" s="3">
-        <v>322400</v>
+        <v>579700</v>
       </c>
       <c r="J22" s="3">
+        <v>321400</v>
+      </c>
+      <c r="K22" s="3">
         <v>6400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10500</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10464300</v>
+        <v>1299000</v>
       </c>
       <c r="E23" s="3">
-        <v>10196100</v>
+        <v>10432600</v>
       </c>
       <c r="F23" s="3">
-        <v>6914000</v>
+        <v>10165200</v>
       </c>
       <c r="G23" s="3">
-        <v>3594500</v>
+        <v>6893000</v>
       </c>
       <c r="H23" s="3">
-        <v>5132300</v>
+        <v>3583600</v>
       </c>
       <c r="I23" s="3">
-        <v>6395200</v>
+        <v>5116700</v>
       </c>
       <c r="J23" s="3">
+        <v>6375800</v>
+      </c>
+      <c r="K23" s="3">
         <v>137900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>216700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1993400</v>
+        <v>1080300</v>
       </c>
       <c r="E24" s="3">
-        <v>2003800</v>
+        <v>1987400</v>
       </c>
       <c r="F24" s="3">
-        <v>1368600</v>
+        <v>1997700</v>
       </c>
       <c r="G24" s="3">
-        <v>855700</v>
+        <v>1364500</v>
       </c>
       <c r="H24" s="3">
-        <v>1271000</v>
+        <v>853100</v>
       </c>
       <c r="I24" s="3">
-        <v>1197400</v>
+        <v>1267100</v>
       </c>
       <c r="J24" s="3">
+        <v>1193700</v>
+      </c>
+      <c r="K24" s="3">
         <v>37300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8470900</v>
+        <v>218700</v>
       </c>
       <c r="E26" s="3">
-        <v>8192300</v>
+        <v>8445200</v>
       </c>
       <c r="F26" s="3">
-        <v>5545400</v>
+        <v>8167500</v>
       </c>
       <c r="G26" s="3">
-        <v>2738800</v>
+        <v>5528500</v>
       </c>
       <c r="H26" s="3">
-        <v>3861300</v>
+        <v>2730500</v>
       </c>
       <c r="I26" s="3">
-        <v>5197900</v>
+        <v>3849600</v>
       </c>
       <c r="J26" s="3">
+        <v>5182100</v>
+      </c>
+      <c r="K26" s="3">
         <v>100600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>172500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>149200</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8443900</v>
+        <v>199600</v>
       </c>
       <c r="E27" s="3">
-        <v>8166900</v>
+        <v>8418300</v>
       </c>
       <c r="F27" s="3">
-        <v>5524000</v>
+        <v>8142100</v>
       </c>
       <c r="G27" s="3">
-        <v>2727600</v>
+        <v>5507300</v>
       </c>
       <c r="H27" s="3">
-        <v>3840100</v>
+        <v>2719300</v>
       </c>
       <c r="I27" s="3">
-        <v>5217000</v>
+        <v>3828400</v>
       </c>
       <c r="J27" s="3">
+        <v>5201200</v>
+      </c>
+      <c r="K27" s="3">
         <v>103300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>173800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>157200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1441,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-274600</v>
+        <v>405900</v>
       </c>
       <c r="E32" s="3">
-        <v>-596500</v>
+        <v>-273700</v>
       </c>
       <c r="F32" s="3">
-        <v>-576700</v>
+        <v>-594700</v>
       </c>
       <c r="G32" s="3">
-        <v>1289500</v>
+        <v>-574900</v>
       </c>
       <c r="H32" s="3">
-        <v>-2020900</v>
+        <v>1285600</v>
       </c>
       <c r="I32" s="3">
-        <v>-2270100</v>
+        <v>-2014800</v>
       </c>
       <c r="J32" s="3">
+        <v>-2263300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-9200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8443900</v>
+        <v>199600</v>
       </c>
       <c r="E33" s="3">
-        <v>8166900</v>
+        <v>8418300</v>
       </c>
       <c r="F33" s="3">
-        <v>5524000</v>
+        <v>8142100</v>
       </c>
       <c r="G33" s="3">
-        <v>2727600</v>
+        <v>5507300</v>
       </c>
       <c r="H33" s="3">
-        <v>3840100</v>
+        <v>2719300</v>
       </c>
       <c r="I33" s="3">
-        <v>5217000</v>
+        <v>3828400</v>
       </c>
       <c r="J33" s="3">
+        <v>5201200</v>
+      </c>
+      <c r="K33" s="3">
         <v>103300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>173800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>157200</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8443900</v>
+        <v>199600</v>
       </c>
       <c r="E35" s="3">
-        <v>8166900</v>
+        <v>8418300</v>
       </c>
       <c r="F35" s="3">
-        <v>5524000</v>
+        <v>8142100</v>
       </c>
       <c r="G35" s="3">
-        <v>2727600</v>
+        <v>5507300</v>
       </c>
       <c r="H35" s="3">
-        <v>3840100</v>
+        <v>2719300</v>
       </c>
       <c r="I35" s="3">
-        <v>5217000</v>
+        <v>3828400</v>
       </c>
       <c r="J35" s="3">
+        <v>5201200</v>
+      </c>
+      <c r="K35" s="3">
         <v>103300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>173800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>157200</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6806500</v>
+        <v>4521400</v>
       </c>
       <c r="E41" s="3">
-        <v>6498100</v>
+        <v>6785800</v>
       </c>
       <c r="F41" s="3">
-        <v>4357800</v>
+        <v>6478300</v>
       </c>
       <c r="G41" s="3">
-        <v>3447400</v>
+        <v>4344600</v>
       </c>
       <c r="H41" s="3">
-        <v>3393300</v>
+        <v>3437000</v>
       </c>
       <c r="I41" s="3">
-        <v>2229400</v>
+        <v>3383000</v>
       </c>
       <c r="J41" s="3">
+        <v>2222700</v>
+      </c>
+      <c r="K41" s="3">
         <v>22600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41800</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>655600</v>
+        <v>109800</v>
       </c>
       <c r="E42" s="3">
-        <v>345600</v>
+        <v>653600</v>
       </c>
       <c r="F42" s="3">
-        <v>258000</v>
+        <v>344500</v>
       </c>
       <c r="G42" s="3">
-        <v>223400</v>
+        <v>257200</v>
       </c>
       <c r="H42" s="3">
-        <v>313500</v>
+        <v>222700</v>
       </c>
       <c r="I42" s="3">
-        <v>141100</v>
+        <v>312500</v>
       </c>
       <c r="J42" s="3">
+        <v>140700</v>
+      </c>
+      <c r="K42" s="3">
         <v>4800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6635100</v>
+        <v>5563800</v>
       </c>
       <c r="E43" s="3">
-        <v>6467000</v>
+        <v>6615000</v>
       </c>
       <c r="F43" s="3">
-        <v>6287000</v>
+        <v>6447400</v>
       </c>
       <c r="G43" s="3">
-        <v>5736700</v>
+        <v>6267900</v>
       </c>
       <c r="H43" s="3">
-        <v>6887600</v>
+        <v>5719300</v>
       </c>
       <c r="I43" s="3">
-        <v>7863600</v>
+        <v>6866700</v>
       </c>
       <c r="J43" s="3">
+        <v>7839700</v>
+      </c>
+      <c r="K43" s="3">
         <v>104800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>136900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>135400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5459500</v>
+        <v>5608900</v>
       </c>
       <c r="E44" s="3">
-        <v>5035100</v>
+        <v>5442900</v>
       </c>
       <c r="F44" s="3">
-        <v>5252100</v>
+        <v>5019800</v>
       </c>
       <c r="G44" s="3">
-        <v>5332500</v>
+        <v>5236100</v>
       </c>
       <c r="H44" s="3">
-        <v>4487200</v>
+        <v>5316300</v>
       </c>
       <c r="I44" s="3">
-        <v>4493700</v>
+        <v>4473600</v>
       </c>
       <c r="J44" s="3">
+        <v>4480100</v>
+      </c>
+      <c r="K44" s="3">
         <v>116100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>127900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>114400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>943100</v>
+        <v>981500</v>
       </c>
       <c r="E45" s="3">
-        <v>1155400</v>
+        <v>940200</v>
       </c>
       <c r="F45" s="3">
-        <v>1099100</v>
+        <v>1151900</v>
       </c>
       <c r="G45" s="3">
-        <v>1821900</v>
+        <v>1095800</v>
       </c>
       <c r="H45" s="3">
-        <v>926500</v>
+        <v>1816400</v>
       </c>
       <c r="I45" s="3">
-        <v>1695800</v>
+        <v>923600</v>
       </c>
       <c r="J45" s="3">
+        <v>1690700</v>
+      </c>
+      <c r="K45" s="3">
         <v>60400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20499700</v>
+        <v>16785400</v>
       </c>
       <c r="E46" s="3">
-        <v>19501100</v>
+        <v>20437600</v>
       </c>
       <c r="F46" s="3">
-        <v>17254000</v>
+        <v>19442000</v>
       </c>
       <c r="G46" s="3">
-        <v>16561900</v>
+        <v>17201700</v>
       </c>
       <c r="H46" s="3">
-        <v>16008000</v>
+        <v>16511700</v>
       </c>
       <c r="I46" s="3">
-        <v>16305800</v>
+        <v>15959500</v>
       </c>
       <c r="J46" s="3">
+        <v>16256400</v>
+      </c>
+      <c r="K46" s="3">
         <v>308600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>383300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>357200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3406100</v>
+        <v>4606800</v>
       </c>
       <c r="E47" s="3">
-        <v>4097100</v>
+        <v>3395800</v>
       </c>
       <c r="F47" s="3">
-        <v>3218400</v>
+        <v>4084700</v>
       </c>
       <c r="G47" s="3">
-        <v>3485000</v>
+        <v>3208600</v>
       </c>
       <c r="H47" s="3">
-        <v>3743500</v>
+        <v>3474500</v>
       </c>
       <c r="I47" s="3">
-        <v>3178200</v>
+        <v>3732100</v>
       </c>
       <c r="J47" s="3">
+        <v>3168500</v>
+      </c>
+      <c r="K47" s="3">
         <v>56100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>90400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53103000</v>
+        <v>56077800</v>
       </c>
       <c r="E48" s="3">
-        <v>50506700</v>
+        <v>52942000</v>
       </c>
       <c r="F48" s="3">
-        <v>47156400</v>
+        <v>50353500</v>
       </c>
       <c r="G48" s="3">
-        <v>44732100</v>
+        <v>47013400</v>
       </c>
       <c r="H48" s="3">
-        <v>44993100</v>
+        <v>44596500</v>
       </c>
       <c r="I48" s="3">
-        <v>41595700</v>
+        <v>44856700</v>
       </c>
       <c r="J48" s="3">
+        <v>41469600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1035000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1056100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>862300</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>568600</v>
+        <v>659600</v>
       </c>
       <c r="E49" s="3">
-        <v>550900</v>
+        <v>566900</v>
       </c>
       <c r="F49" s="3">
-        <v>544800</v>
+        <v>549200</v>
       </c>
       <c r="G49" s="3">
-        <v>568900</v>
+        <v>543100</v>
       </c>
       <c r="H49" s="3">
-        <v>682600</v>
+        <v>567200</v>
       </c>
       <c r="I49" s="3">
-        <v>759500</v>
+        <v>680500</v>
       </c>
       <c r="J49" s="3">
+        <v>757200</v>
+      </c>
+      <c r="K49" s="3">
         <v>17100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>864100</v>
+        <v>659600</v>
       </c>
       <c r="E52" s="3">
-        <v>954300</v>
+        <v>861500</v>
       </c>
       <c r="F52" s="3">
-        <v>760100</v>
+        <v>951400</v>
       </c>
       <c r="G52" s="3">
-        <v>795600</v>
+        <v>757800</v>
       </c>
       <c r="H52" s="3">
-        <v>794700</v>
+        <v>793100</v>
       </c>
       <c r="I52" s="3">
-        <v>703300</v>
+        <v>792200</v>
       </c>
       <c r="J52" s="3">
+        <v>701200</v>
+      </c>
+      <c r="K52" s="3">
         <v>26700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>27100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54100</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78441600</v>
+        <v>78789300</v>
       </c>
       <c r="E54" s="3">
-        <v>75610100</v>
+        <v>78203700</v>
       </c>
       <c r="F54" s="3">
-        <v>68933800</v>
+        <v>75380800</v>
       </c>
       <c r="G54" s="3">
-        <v>66143500</v>
+        <v>68724700</v>
       </c>
       <c r="H54" s="3">
-        <v>66221800</v>
+        <v>65942900</v>
       </c>
       <c r="I54" s="3">
-        <v>62506800</v>
+        <v>66021000</v>
       </c>
       <c r="J54" s="3">
+        <v>62317200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1443500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1562600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1384300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7331300</v>
+        <v>7016800</v>
       </c>
       <c r="E57" s="3">
-        <v>6297500</v>
+        <v>7309100</v>
       </c>
       <c r="F57" s="3">
-        <v>6701500</v>
+        <v>6278400</v>
       </c>
       <c r="G57" s="3">
-        <v>6313700</v>
+        <v>6681200</v>
       </c>
       <c r="H57" s="3">
-        <v>4472600</v>
+        <v>6294500</v>
       </c>
       <c r="I57" s="3">
-        <v>4857400</v>
+        <v>4459000</v>
       </c>
       <c r="J57" s="3">
+        <v>4842700</v>
+      </c>
+      <c r="K57" s="3">
         <v>96700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>114700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>91000</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1718700</v>
+        <v>1086700</v>
       </c>
       <c r="E58" s="3">
-        <v>1314100</v>
+        <v>1713400</v>
       </c>
       <c r="F58" s="3">
-        <v>1697700</v>
+        <v>1310100</v>
       </c>
       <c r="G58" s="3">
-        <v>770700</v>
+        <v>1692600</v>
       </c>
       <c r="H58" s="3">
-        <v>798100</v>
+        <v>768300</v>
       </c>
       <c r="I58" s="3">
-        <v>1599600</v>
+        <v>795700</v>
       </c>
       <c r="J58" s="3">
+        <v>1594700</v>
+      </c>
+      <c r="K58" s="3">
         <v>17600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6879300</v>
+        <v>3542900</v>
       </c>
       <c r="E59" s="3">
-        <v>4451500</v>
+        <v>6858400</v>
       </c>
       <c r="F59" s="3">
-        <v>4247900</v>
+        <v>4438000</v>
       </c>
       <c r="G59" s="3">
-        <v>3872400</v>
+        <v>4235000</v>
       </c>
       <c r="H59" s="3">
-        <v>3898600</v>
+        <v>3860600</v>
       </c>
       <c r="I59" s="3">
-        <v>3960200</v>
+        <v>3886800</v>
       </c>
       <c r="J59" s="3">
+        <v>3948200</v>
+      </c>
+      <c r="K59" s="3">
         <v>58400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50400</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15929300</v>
+        <v>11646400</v>
       </c>
       <c r="E60" s="3">
-        <v>12063000</v>
+        <v>15881000</v>
       </c>
       <c r="F60" s="3">
-        <v>12647200</v>
+        <v>12026500</v>
       </c>
       <c r="G60" s="3">
-        <v>10956700</v>
+        <v>12608800</v>
       </c>
       <c r="H60" s="3">
-        <v>9169300</v>
+        <v>10923500</v>
       </c>
       <c r="I60" s="3">
-        <v>10280900</v>
+        <v>9141500</v>
       </c>
       <c r="J60" s="3">
+        <v>10249700</v>
+      </c>
+      <c r="K60" s="3">
         <v>172700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>196600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>168600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5578500</v>
+        <v>7588500</v>
       </c>
       <c r="E61" s="3">
-        <v>5743200</v>
+        <v>5561600</v>
       </c>
       <c r="F61" s="3">
-        <v>6432100</v>
+        <v>5725800</v>
       </c>
       <c r="G61" s="3">
-        <v>8443700</v>
+        <v>6412600</v>
       </c>
       <c r="H61" s="3">
-        <v>10541500</v>
+        <v>8418100</v>
       </c>
       <c r="I61" s="3">
-        <v>8373600</v>
+        <v>10509600</v>
       </c>
       <c r="J61" s="3">
+        <v>8348200</v>
+      </c>
+      <c r="K61" s="3">
         <v>125100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>94200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>110800</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4524100</v>
+        <v>5234700</v>
       </c>
       <c r="E62" s="3">
-        <v>4074000</v>
+        <v>4510300</v>
       </c>
       <c r="F62" s="3">
-        <v>3816200</v>
+        <v>4061700</v>
       </c>
       <c r="G62" s="3">
-        <v>4170200</v>
+        <v>3804600</v>
       </c>
       <c r="H62" s="3">
-        <v>3889200</v>
+        <v>4157500</v>
       </c>
       <c r="I62" s="3">
-        <v>3649600</v>
+        <v>3877400</v>
       </c>
       <c r="J62" s="3">
+        <v>3638500</v>
+      </c>
+      <c r="K62" s="3">
         <v>105600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>80700</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>26138400</v>
+        <v>24571600</v>
       </c>
       <c r="E66" s="3">
-        <v>21985400</v>
+        <v>26059200</v>
       </c>
       <c r="F66" s="3">
-        <v>22993700</v>
+        <v>21918700</v>
       </c>
       <c r="G66" s="3">
-        <v>23660100</v>
+        <v>22923900</v>
       </c>
       <c r="H66" s="3">
-        <v>23717500</v>
+        <v>23588400</v>
       </c>
       <c r="I66" s="3">
-        <v>22443800</v>
+        <v>23645500</v>
       </c>
       <c r="J66" s="3">
+        <v>22375700</v>
+      </c>
+      <c r="K66" s="3">
         <v>407100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>406700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>357500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55837000</v>
+        <v>54634300</v>
       </c>
       <c r="E72" s="3">
-        <v>54872800</v>
+        <v>55667600</v>
       </c>
       <c r="F72" s="3">
-        <v>47526800</v>
+        <v>54706400</v>
       </c>
       <c r="G72" s="3">
-        <v>43946800</v>
+        <v>47382700</v>
       </c>
       <c r="H72" s="3">
-        <v>43969200</v>
+        <v>43813600</v>
       </c>
       <c r="I72" s="3">
-        <v>41535300</v>
+        <v>43835900</v>
       </c>
       <c r="J72" s="3">
+        <v>41409300</v>
+      </c>
+      <c r="K72" s="3">
         <v>1078100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1203500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1031300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>52303200</v>
+        <v>54217600</v>
       </c>
       <c r="E76" s="3">
-        <v>53624700</v>
+        <v>52144500</v>
       </c>
       <c r="F76" s="3">
-        <v>45940100</v>
+        <v>53462100</v>
       </c>
       <c r="G76" s="3">
-        <v>42483400</v>
+        <v>45800800</v>
       </c>
       <c r="H76" s="3">
-        <v>42504400</v>
+        <v>42354600</v>
       </c>
       <c r="I76" s="3">
-        <v>40063000</v>
+        <v>42375500</v>
       </c>
       <c r="J76" s="3">
+        <v>39941500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1036400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1155900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1026700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8443900</v>
+        <v>199600</v>
       </c>
       <c r="E81" s="3">
-        <v>8166900</v>
+        <v>8418300</v>
       </c>
       <c r="F81" s="3">
-        <v>5524000</v>
+        <v>8142100</v>
       </c>
       <c r="G81" s="3">
-        <v>2727600</v>
+        <v>5507300</v>
       </c>
       <c r="H81" s="3">
-        <v>3840100</v>
+        <v>2719300</v>
       </c>
       <c r="I81" s="3">
-        <v>5217000</v>
+        <v>3828400</v>
       </c>
       <c r="J81" s="3">
+        <v>5201200</v>
+      </c>
+      <c r="K81" s="3">
         <v>103300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>173800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>157200</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5475100</v>
+        <v>5331500</v>
       </c>
       <c r="E83" s="3">
-        <v>4525300</v>
+        <v>5458500</v>
       </c>
       <c r="F83" s="3">
-        <v>4287500</v>
+        <v>4511600</v>
       </c>
       <c r="G83" s="3">
-        <v>4109800</v>
+        <v>4274500</v>
       </c>
       <c r="H83" s="3">
-        <v>4629400</v>
+        <v>4097400</v>
       </c>
       <c r="I83" s="3">
-        <v>3865400</v>
+        <v>4615300</v>
       </c>
       <c r="J83" s="3">
+        <v>3853600</v>
+      </c>
+      <c r="K83" s="3">
         <v>75900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>76300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>67900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>15192800</v>
+        <v>10211900</v>
       </c>
       <c r="E89" s="3">
-        <v>13277700</v>
+        <v>15146700</v>
       </c>
       <c r="F89" s="3">
-        <v>10004500</v>
+        <v>13237500</v>
       </c>
       <c r="G89" s="3">
-        <v>9922100</v>
+        <v>9974100</v>
       </c>
       <c r="H89" s="3">
-        <v>11197900</v>
+        <v>9892000</v>
       </c>
       <c r="I89" s="3">
-        <v>8592200</v>
+        <v>11164000</v>
       </c>
       <c r="J89" s="3">
+        <v>8566100</v>
+      </c>
+      <c r="K89" s="3">
         <v>217000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>235500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5935200</v>
+        <v>-6515100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5955600</v>
+        <v>-5917200</v>
       </c>
       <c r="F91" s="3">
-        <v>-6746600</v>
+        <v>-5937600</v>
       </c>
       <c r="G91" s="3">
-        <v>-6557100</v>
+        <v>-6726200</v>
       </c>
       <c r="H91" s="3">
-        <v>-7922400</v>
+        <v>-6537300</v>
       </c>
       <c r="I91" s="3">
-        <v>-7597200</v>
+        <v>-7898400</v>
       </c>
       <c r="J91" s="3">
+        <v>-7574200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-197300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-183900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-125200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6728600</v>
+        <v>-6479900</v>
       </c>
       <c r="E94" s="3">
-        <v>-5545000</v>
+        <v>-6708200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5715000</v>
+        <v>-5528200</v>
       </c>
       <c r="G94" s="3">
-        <v>-6599500</v>
+        <v>-5697700</v>
       </c>
       <c r="H94" s="3">
-        <v>-6934300</v>
+        <v>-6579500</v>
       </c>
       <c r="I94" s="3">
-        <v>-7628800</v>
+        <v>-6913200</v>
       </c>
       <c r="J94" s="3">
+        <v>-7605600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-245800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-208700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-136800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2384100</v>
+        <v>-5356100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2088900</v>
+        <v>-2376800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1830900</v>
+        <v>-2082600</v>
       </c>
       <c r="G96" s="3">
-        <v>-1679700</v>
+        <v>-1825400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1475400</v>
+        <v>-1674600</v>
       </c>
       <c r="I96" s="3">
-        <v>-654900</v>
+        <v>-1470900</v>
       </c>
       <c r="J96" s="3">
+        <v>-652900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-31400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-44200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-26000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7681100</v>
+        <v>-6759200</v>
       </c>
       <c r="E100" s="3">
-        <v>-6180200</v>
+        <v>-7657800</v>
       </c>
       <c r="F100" s="3">
-        <v>-3263100</v>
+        <v>-6161400</v>
       </c>
       <c r="G100" s="3">
-        <v>-2547400</v>
+        <v>-3253200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3337900</v>
+        <v>-2539700</v>
       </c>
       <c r="I100" s="3">
-        <v>397600</v>
+        <v>-3327800</v>
       </c>
       <c r="J100" s="3">
+        <v>396400</v>
+      </c>
+      <c r="K100" s="3">
         <v>13600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-89700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-91400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-474700</v>
+        <v>762700</v>
       </c>
       <c r="E101" s="3">
-        <v>587600</v>
+        <v>-473300</v>
       </c>
       <c r="F101" s="3">
-        <v>-115900</v>
+        <v>585800</v>
       </c>
       <c r="G101" s="3">
-        <v>-721000</v>
+        <v>-115500</v>
       </c>
       <c r="H101" s="3">
-        <v>238100</v>
+        <v>-718800</v>
       </c>
       <c r="I101" s="3">
-        <v>301100</v>
+        <v>237400</v>
       </c>
       <c r="J101" s="3">
+        <v>300200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>308400</v>
+        <v>-2264400</v>
       </c>
       <c r="E102" s="3">
-        <v>2140200</v>
+        <v>307500</v>
       </c>
       <c r="F102" s="3">
-        <v>910400</v>
+        <v>2133700</v>
       </c>
       <c r="G102" s="3">
-        <v>54100</v>
+        <v>907700</v>
       </c>
       <c r="H102" s="3">
-        <v>1163900</v>
+        <v>54000</v>
       </c>
       <c r="I102" s="3">
-        <v>1662100</v>
+        <v>1160400</v>
       </c>
       <c r="J102" s="3">
+        <v>1657000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-15900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74158100</v>
+        <v>76752200</v>
       </c>
       <c r="E8" s="3">
-        <v>103112400</v>
+        <v>106719400</v>
       </c>
       <c r="F8" s="3">
-        <v>105671900</v>
+        <v>109368400</v>
       </c>
       <c r="G8" s="3">
-        <v>78067700</v>
+        <v>80798600</v>
       </c>
       <c r="H8" s="3">
-        <v>68735600</v>
+        <v>71140100</v>
       </c>
       <c r="I8" s="3">
-        <v>75600000</v>
+        <v>78244600</v>
       </c>
       <c r="J8" s="3">
-        <v>72388900</v>
+        <v>74921100</v>
       </c>
       <c r="K8" s="3">
         <v>1865800</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>39462000</v>
+        <v>40842500</v>
       </c>
       <c r="E9" s="3">
-        <v>56651200</v>
+        <v>58632900</v>
       </c>
       <c r="F9" s="3">
-        <v>59625300</v>
+        <v>61711100</v>
       </c>
       <c r="G9" s="3">
-        <v>41157700</v>
+        <v>42597400</v>
       </c>
       <c r="H9" s="3">
-        <v>34318400</v>
+        <v>35518900</v>
       </c>
       <c r="I9" s="3">
-        <v>38025500</v>
+        <v>39355700</v>
       </c>
       <c r="J9" s="3">
-        <v>36581400</v>
+        <v>37861100</v>
       </c>
       <c r="K9" s="3">
         <v>869500</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>34696100</v>
+        <v>35909800</v>
       </c>
       <c r="E10" s="3">
-        <v>46461200</v>
+        <v>48086500</v>
       </c>
       <c r="F10" s="3">
-        <v>46046600</v>
+        <v>47657400</v>
       </c>
       <c r="G10" s="3">
-        <v>36910000</v>
+        <v>38201100</v>
       </c>
       <c r="H10" s="3">
-        <v>34417200</v>
+        <v>35621200</v>
       </c>
       <c r="I10" s="3">
-        <v>37574500</v>
+        <v>38888900</v>
       </c>
       <c r="J10" s="3">
-        <v>35807500</v>
+        <v>37060000</v>
       </c>
       <c r="K10" s="3">
         <v>996200</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>80400</v>
+        <v>83200</v>
       </c>
       <c r="E12" s="3">
-        <v>122900</v>
+        <v>127200</v>
       </c>
       <c r="F12" s="3">
-        <v>47100</v>
+        <v>48800</v>
       </c>
       <c r="G12" s="3">
-        <v>162400</v>
+        <v>168100</v>
       </c>
       <c r="H12" s="3">
-        <v>109100</v>
+        <v>112900</v>
       </c>
       <c r="I12" s="3">
-        <v>383700</v>
+        <v>397100</v>
       </c>
       <c r="J12" s="3">
-        <v>160800</v>
+        <v>166400</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -918,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1507800</v>
+        <v>1560600</v>
       </c>
       <c r="E14" s="3">
-        <v>123800</v>
+        <v>128100</v>
       </c>
       <c r="F14" s="3">
-        <v>154200</v>
+        <v>159600</v>
       </c>
       <c r="G14" s="3">
-        <v>38600</v>
+        <v>40000</v>
       </c>
       <c r="H14" s="3">
-        <v>112800</v>
+        <v>116800</v>
       </c>
       <c r="I14" s="3">
-        <v>2442700</v>
+        <v>2528200</v>
       </c>
       <c r="J14" s="3">
-        <v>988200</v>
+        <v>1022800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5331500</v>
+        <v>5518000</v>
       </c>
       <c r="E15" s="3">
-        <v>5458500</v>
+        <v>5649400</v>
       </c>
       <c r="F15" s="3">
-        <v>4511600</v>
+        <v>4669400</v>
       </c>
       <c r="G15" s="3">
-        <v>4274500</v>
+        <v>4424000</v>
       </c>
       <c r="H15" s="3">
-        <v>4097400</v>
+        <v>4240700</v>
       </c>
       <c r="I15" s="3">
-        <v>4615300</v>
+        <v>4776800</v>
       </c>
       <c r="J15" s="3">
-        <v>3853600</v>
+        <v>3988400</v>
       </c>
       <c r="K15" s="3">
         <v>75900</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>71962200</v>
+        <v>74479500</v>
       </c>
       <c r="E17" s="3">
-        <v>92438800</v>
+        <v>95672400</v>
       </c>
       <c r="F17" s="3">
-        <v>95678100</v>
+        <v>99025000</v>
       </c>
       <c r="G17" s="3">
-        <v>71445600</v>
+        <v>73944900</v>
       </c>
       <c r="H17" s="3">
-        <v>63336700</v>
+        <v>65552300</v>
       </c>
       <c r="I17" s="3">
-        <v>71918400</v>
+        <v>74434200</v>
       </c>
       <c r="J17" s="3">
-        <v>67954900</v>
+        <v>70332000</v>
       </c>
       <c r="K17" s="3">
         <v>1730600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2195900</v>
+        <v>2272700</v>
       </c>
       <c r="E18" s="3">
-        <v>10673600</v>
+        <v>11047000</v>
       </c>
       <c r="F18" s="3">
-        <v>9993800</v>
+        <v>10343400</v>
       </c>
       <c r="G18" s="3">
-        <v>6622100</v>
+        <v>6853700</v>
       </c>
       <c r="H18" s="3">
-        <v>5398900</v>
+        <v>5587800</v>
       </c>
       <c r="I18" s="3">
-        <v>3681600</v>
+        <v>3810400</v>
       </c>
       <c r="J18" s="3">
-        <v>4434000</v>
+        <v>4589100</v>
       </c>
       <c r="K18" s="3">
         <v>135200</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-405900</v>
+        <v>-420100</v>
       </c>
       <c r="E20" s="3">
-        <v>273700</v>
+        <v>283300</v>
       </c>
       <c r="F20" s="3">
-        <v>594700</v>
+        <v>615500</v>
       </c>
       <c r="G20" s="3">
-        <v>574900</v>
+        <v>595100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1285600</v>
+        <v>-1330600</v>
       </c>
       <c r="I20" s="3">
-        <v>2014800</v>
+        <v>2085300</v>
       </c>
       <c r="J20" s="3">
-        <v>2263300</v>
+        <v>2342400</v>
       </c>
       <c r="K20" s="3">
         <v>9200</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7089100</v>
+        <v>7374700</v>
       </c>
       <c r="E21" s="3">
-        <v>16372600</v>
+        <v>16983900</v>
       </c>
       <c r="F21" s="3">
-        <v>15072600</v>
+        <v>15631700</v>
       </c>
       <c r="G21" s="3">
-        <v>11445500</v>
+        <v>11876000</v>
       </c>
       <c r="H21" s="3">
-        <v>8185700</v>
+        <v>8501000</v>
       </c>
       <c r="I21" s="3">
-        <v>10283700</v>
+        <v>10676000</v>
       </c>
       <c r="J21" s="3">
-        <v>10527400</v>
+        <v>10922900</v>
       </c>
       <c r="K21" s="3">
         <v>220500</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>490900</v>
+        <v>508100</v>
       </c>
       <c r="E22" s="3">
-        <v>514800</v>
+        <v>532800</v>
       </c>
       <c r="F22" s="3">
-        <v>423300</v>
+        <v>438100</v>
       </c>
       <c r="G22" s="3">
-        <v>304000</v>
+        <v>314600</v>
       </c>
       <c r="H22" s="3">
-        <v>529700</v>
+        <v>548300</v>
       </c>
       <c r="I22" s="3">
-        <v>579700</v>
+        <v>600000</v>
       </c>
       <c r="J22" s="3">
-        <v>321400</v>
+        <v>332600</v>
       </c>
       <c r="K22" s="3">
         <v>6400</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1299000</v>
+        <v>1344500</v>
       </c>
       <c r="E23" s="3">
-        <v>10432600</v>
+        <v>10797500</v>
       </c>
       <c r="F23" s="3">
-        <v>10165200</v>
+        <v>10520800</v>
       </c>
       <c r="G23" s="3">
-        <v>6893000</v>
+        <v>7134100</v>
       </c>
       <c r="H23" s="3">
-        <v>3583600</v>
+        <v>3708900</v>
       </c>
       <c r="I23" s="3">
-        <v>5116700</v>
+        <v>5295700</v>
       </c>
       <c r="J23" s="3">
-        <v>6375800</v>
+        <v>6598900</v>
       </c>
       <c r="K23" s="3">
         <v>137900</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1080300</v>
+        <v>1118100</v>
       </c>
       <c r="E24" s="3">
-        <v>1987400</v>
+        <v>2056900</v>
       </c>
       <c r="F24" s="3">
-        <v>1997700</v>
+        <v>2067600</v>
       </c>
       <c r="G24" s="3">
-        <v>1364500</v>
+        <v>1412200</v>
       </c>
       <c r="H24" s="3">
-        <v>853100</v>
+        <v>882900</v>
       </c>
       <c r="I24" s="3">
-        <v>1267100</v>
+        <v>1311400</v>
       </c>
       <c r="J24" s="3">
-        <v>1193700</v>
+        <v>1235500</v>
       </c>
       <c r="K24" s="3">
         <v>37300</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>218700</v>
+        <v>226400</v>
       </c>
       <c r="E26" s="3">
-        <v>8445200</v>
+        <v>8740600</v>
       </c>
       <c r="F26" s="3">
-        <v>8167500</v>
+        <v>8453200</v>
       </c>
       <c r="G26" s="3">
-        <v>5528500</v>
+        <v>5721900</v>
       </c>
       <c r="H26" s="3">
-        <v>2730500</v>
+        <v>2826000</v>
       </c>
       <c r="I26" s="3">
-        <v>3849600</v>
+        <v>3984300</v>
       </c>
       <c r="J26" s="3">
-        <v>5182100</v>
+        <v>5363400</v>
       </c>
       <c r="K26" s="3">
         <v>100600</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>199600</v>
+        <v>206500</v>
       </c>
       <c r="E27" s="3">
-        <v>8418300</v>
+        <v>8712800</v>
       </c>
       <c r="F27" s="3">
-        <v>8142100</v>
+        <v>8427000</v>
       </c>
       <c r="G27" s="3">
-        <v>5507300</v>
+        <v>5699900</v>
       </c>
       <c r="H27" s="3">
-        <v>2719300</v>
+        <v>2814500</v>
       </c>
       <c r="I27" s="3">
-        <v>3828400</v>
+        <v>3962300</v>
       </c>
       <c r="J27" s="3">
-        <v>5201200</v>
+        <v>5383100</v>
       </c>
       <c r="K27" s="3">
         <v>103300</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>405900</v>
+        <v>420100</v>
       </c>
       <c r="E32" s="3">
-        <v>-273700</v>
+        <v>-283300</v>
       </c>
       <c r="F32" s="3">
-        <v>-594700</v>
+        <v>-615500</v>
       </c>
       <c r="G32" s="3">
-        <v>-574900</v>
+        <v>-595100</v>
       </c>
       <c r="H32" s="3">
-        <v>1285600</v>
+        <v>1330600</v>
       </c>
       <c r="I32" s="3">
-        <v>-2014800</v>
+        <v>-2085300</v>
       </c>
       <c r="J32" s="3">
-        <v>-2263300</v>
+        <v>-2342400</v>
       </c>
       <c r="K32" s="3">
         <v>-9200</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>199600</v>
+        <v>206500</v>
       </c>
       <c r="E33" s="3">
-        <v>8418300</v>
+        <v>8712800</v>
       </c>
       <c r="F33" s="3">
-        <v>8142100</v>
+        <v>8427000</v>
       </c>
       <c r="G33" s="3">
-        <v>5507300</v>
+        <v>5699900</v>
       </c>
       <c r="H33" s="3">
-        <v>2719300</v>
+        <v>2814500</v>
       </c>
       <c r="I33" s="3">
-        <v>3828400</v>
+        <v>3962300</v>
       </c>
       <c r="J33" s="3">
-        <v>5201200</v>
+        <v>5383100</v>
       </c>
       <c r="K33" s="3">
         <v>103300</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>199600</v>
+        <v>206500</v>
       </c>
       <c r="E35" s="3">
-        <v>8418300</v>
+        <v>8712800</v>
       </c>
       <c r="F35" s="3">
-        <v>8142100</v>
+        <v>8427000</v>
       </c>
       <c r="G35" s="3">
-        <v>5507300</v>
+        <v>5699900</v>
       </c>
       <c r="H35" s="3">
-        <v>2719300</v>
+        <v>2814500</v>
       </c>
       <c r="I35" s="3">
-        <v>3828400</v>
+        <v>3962300</v>
       </c>
       <c r="J35" s="3">
-        <v>5201200</v>
+        <v>5383100</v>
       </c>
       <c r="K35" s="3">
         <v>103300</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4521400</v>
+        <v>4679600</v>
       </c>
       <c r="E41" s="3">
-        <v>6785800</v>
+        <v>7023200</v>
       </c>
       <c r="F41" s="3">
-        <v>6478300</v>
+        <v>6705000</v>
       </c>
       <c r="G41" s="3">
-        <v>4344600</v>
+        <v>4496600</v>
       </c>
       <c r="H41" s="3">
-        <v>3437000</v>
+        <v>3557200</v>
       </c>
       <c r="I41" s="3">
-        <v>3383000</v>
+        <v>3501300</v>
       </c>
       <c r="J41" s="3">
-        <v>2222700</v>
+        <v>2300400</v>
       </c>
       <c r="K41" s="3">
         <v>22600</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>109800</v>
+        <v>113600</v>
       </c>
       <c r="E42" s="3">
-        <v>653600</v>
+        <v>676500</v>
       </c>
       <c r="F42" s="3">
-        <v>344500</v>
+        <v>356600</v>
       </c>
       <c r="G42" s="3">
-        <v>257200</v>
+        <v>266200</v>
       </c>
       <c r="H42" s="3">
-        <v>222700</v>
+        <v>230500</v>
       </c>
       <c r="I42" s="3">
-        <v>312500</v>
+        <v>323500</v>
       </c>
       <c r="J42" s="3">
-        <v>140700</v>
+        <v>145600</v>
       </c>
       <c r="K42" s="3">
         <v>4800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5563800</v>
+        <v>5758400</v>
       </c>
       <c r="E43" s="3">
-        <v>6615000</v>
+        <v>6846400</v>
       </c>
       <c r="F43" s="3">
-        <v>6447400</v>
+        <v>6673000</v>
       </c>
       <c r="G43" s="3">
-        <v>6267900</v>
+        <v>6487200</v>
       </c>
       <c r="H43" s="3">
-        <v>5719300</v>
+        <v>5919300</v>
       </c>
       <c r="I43" s="3">
-        <v>6866700</v>
+        <v>7106900</v>
       </c>
       <c r="J43" s="3">
-        <v>7839700</v>
+        <v>8114000</v>
       </c>
       <c r="K43" s="3">
         <v>104800</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5608900</v>
+        <v>5805200</v>
       </c>
       <c r="E44" s="3">
-        <v>5442900</v>
+        <v>5633300</v>
       </c>
       <c r="F44" s="3">
-        <v>5019800</v>
+        <v>5195400</v>
       </c>
       <c r="G44" s="3">
-        <v>5236100</v>
+        <v>5419300</v>
       </c>
       <c r="H44" s="3">
-        <v>5316300</v>
+        <v>5502300</v>
       </c>
       <c r="I44" s="3">
-        <v>4473600</v>
+        <v>4630100</v>
       </c>
       <c r="J44" s="3">
-        <v>4480100</v>
+        <v>4636800</v>
       </c>
       <c r="K44" s="3">
         <v>116100</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>981500</v>
+        <v>1015900</v>
       </c>
       <c r="E45" s="3">
-        <v>940200</v>
+        <v>973100</v>
       </c>
       <c r="F45" s="3">
-        <v>1151900</v>
+        <v>1192200</v>
       </c>
       <c r="G45" s="3">
-        <v>1095800</v>
+        <v>1134100</v>
       </c>
       <c r="H45" s="3">
-        <v>1816400</v>
+        <v>1879900</v>
       </c>
       <c r="I45" s="3">
-        <v>923600</v>
+        <v>956000</v>
       </c>
       <c r="J45" s="3">
-        <v>1690700</v>
+        <v>1749800</v>
       </c>
       <c r="K45" s="3">
         <v>60400</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16785400</v>
+        <v>17372600</v>
       </c>
       <c r="E46" s="3">
-        <v>20437600</v>
+        <v>21152500</v>
       </c>
       <c r="F46" s="3">
-        <v>19442000</v>
+        <v>20122100</v>
       </c>
       <c r="G46" s="3">
-        <v>17201700</v>
+        <v>17803400</v>
       </c>
       <c r="H46" s="3">
-        <v>16511700</v>
+        <v>17089300</v>
       </c>
       <c r="I46" s="3">
-        <v>15959500</v>
+        <v>16517700</v>
       </c>
       <c r="J46" s="3">
-        <v>16256400</v>
+        <v>16825000</v>
       </c>
       <c r="K46" s="3">
         <v>308600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4606800</v>
+        <v>4768000</v>
       </c>
       <c r="E47" s="3">
-        <v>3395800</v>
+        <v>3514600</v>
       </c>
       <c r="F47" s="3">
-        <v>4084700</v>
+        <v>4227600</v>
       </c>
       <c r="G47" s="3">
-        <v>3208600</v>
+        <v>3320900</v>
       </c>
       <c r="H47" s="3">
-        <v>3474500</v>
+        <v>3596000</v>
       </c>
       <c r="I47" s="3">
-        <v>3732100</v>
+        <v>3862700</v>
       </c>
       <c r="J47" s="3">
-        <v>3168500</v>
+        <v>3279400</v>
       </c>
       <c r="K47" s="3">
         <v>56100</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56077800</v>
+        <v>58039500</v>
       </c>
       <c r="E48" s="3">
-        <v>52942000</v>
+        <v>54794000</v>
       </c>
       <c r="F48" s="3">
-        <v>50353500</v>
+        <v>52114900</v>
       </c>
       <c r="G48" s="3">
-        <v>47013400</v>
+        <v>48658000</v>
       </c>
       <c r="H48" s="3">
-        <v>44596500</v>
+        <v>46156500</v>
       </c>
       <c r="I48" s="3">
-        <v>44856700</v>
+        <v>46425800</v>
       </c>
       <c r="J48" s="3">
-        <v>41469600</v>
+        <v>42920200</v>
       </c>
       <c r="K48" s="3">
         <v>1035000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>659600</v>
+        <v>682700</v>
       </c>
       <c r="E49" s="3">
-        <v>566900</v>
+        <v>586700</v>
       </c>
       <c r="F49" s="3">
-        <v>549200</v>
+        <v>568400</v>
       </c>
       <c r="G49" s="3">
-        <v>543100</v>
+        <v>562100</v>
       </c>
       <c r="H49" s="3">
-        <v>567200</v>
+        <v>587100</v>
       </c>
       <c r="I49" s="3">
-        <v>680500</v>
+        <v>704300</v>
       </c>
       <c r="J49" s="3">
-        <v>757200</v>
+        <v>783700</v>
       </c>
       <c r="K49" s="3">
         <v>17100</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>659600</v>
+        <v>682600</v>
       </c>
       <c r="E52" s="3">
-        <v>861500</v>
+        <v>891600</v>
       </c>
       <c r="F52" s="3">
-        <v>951400</v>
+        <v>984700</v>
       </c>
       <c r="G52" s="3">
-        <v>757800</v>
+        <v>784300</v>
       </c>
       <c r="H52" s="3">
-        <v>793100</v>
+        <v>820900</v>
       </c>
       <c r="I52" s="3">
-        <v>792200</v>
+        <v>820000</v>
       </c>
       <c r="J52" s="3">
-        <v>701200</v>
+        <v>725700</v>
       </c>
       <c r="K52" s="3">
         <v>26700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78789300</v>
+        <v>81545400</v>
       </c>
       <c r="E54" s="3">
-        <v>78203700</v>
+        <v>80939400</v>
       </c>
       <c r="F54" s="3">
-        <v>75380800</v>
+        <v>78017700</v>
       </c>
       <c r="G54" s="3">
-        <v>68724700</v>
+        <v>71128800</v>
       </c>
       <c r="H54" s="3">
-        <v>65942900</v>
+        <v>68249700</v>
       </c>
       <c r="I54" s="3">
-        <v>66021000</v>
+        <v>68330500</v>
       </c>
       <c r="J54" s="3">
-        <v>62317200</v>
+        <v>64497200</v>
       </c>
       <c r="K54" s="3">
         <v>1443500</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7016800</v>
+        <v>7262300</v>
       </c>
       <c r="E57" s="3">
-        <v>7309100</v>
+        <v>7564800</v>
       </c>
       <c r="F57" s="3">
-        <v>6278400</v>
+        <v>6498000</v>
       </c>
       <c r="G57" s="3">
-        <v>6681200</v>
+        <v>6914900</v>
       </c>
       <c r="H57" s="3">
-        <v>6294500</v>
+        <v>6514700</v>
       </c>
       <c r="I57" s="3">
-        <v>4459000</v>
+        <v>4615000</v>
       </c>
       <c r="J57" s="3">
-        <v>4842700</v>
+        <v>5012100</v>
       </c>
       <c r="K57" s="3">
         <v>96700</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1086700</v>
+        <v>1124700</v>
       </c>
       <c r="E58" s="3">
-        <v>1713400</v>
+        <v>1773400</v>
       </c>
       <c r="F58" s="3">
-        <v>1310100</v>
+        <v>1355900</v>
       </c>
       <c r="G58" s="3">
-        <v>1692600</v>
+        <v>1751800</v>
       </c>
       <c r="H58" s="3">
-        <v>768300</v>
+        <v>795200</v>
       </c>
       <c r="I58" s="3">
-        <v>795700</v>
+        <v>823500</v>
       </c>
       <c r="J58" s="3">
-        <v>1594700</v>
+        <v>1650500</v>
       </c>
       <c r="K58" s="3">
         <v>17600</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3542900</v>
+        <v>3666900</v>
       </c>
       <c r="E59" s="3">
-        <v>6858400</v>
+        <v>7098300</v>
       </c>
       <c r="F59" s="3">
-        <v>4438000</v>
+        <v>4593300</v>
       </c>
       <c r="G59" s="3">
-        <v>4235000</v>
+        <v>4383200</v>
       </c>
       <c r="H59" s="3">
-        <v>3860600</v>
+        <v>3995700</v>
       </c>
       <c r="I59" s="3">
-        <v>3886800</v>
+        <v>4022700</v>
       </c>
       <c r="J59" s="3">
-        <v>3948200</v>
+        <v>4086300</v>
       </c>
       <c r="K59" s="3">
         <v>58400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11646400</v>
+        <v>12053800</v>
       </c>
       <c r="E60" s="3">
-        <v>15881000</v>
+        <v>16436500</v>
       </c>
       <c r="F60" s="3">
-        <v>12026500</v>
+        <v>12447200</v>
       </c>
       <c r="G60" s="3">
-        <v>12608800</v>
+        <v>13049900</v>
       </c>
       <c r="H60" s="3">
-        <v>10923500</v>
+        <v>11305600</v>
       </c>
       <c r="I60" s="3">
-        <v>9141500</v>
+        <v>9461200</v>
       </c>
       <c r="J60" s="3">
-        <v>10249700</v>
+        <v>10608300</v>
       </c>
       <c r="K60" s="3">
         <v>172700</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7588500</v>
+        <v>7854000</v>
       </c>
       <c r="E61" s="3">
-        <v>5561600</v>
+        <v>5756100</v>
       </c>
       <c r="F61" s="3">
-        <v>5725800</v>
+        <v>5926100</v>
       </c>
       <c r="G61" s="3">
-        <v>6412600</v>
+        <v>6636900</v>
       </c>
       <c r="H61" s="3">
-        <v>8418100</v>
+        <v>8712600</v>
       </c>
       <c r="I61" s="3">
-        <v>10509600</v>
+        <v>10877200</v>
       </c>
       <c r="J61" s="3">
-        <v>8348200</v>
+        <v>8640300</v>
       </c>
       <c r="K61" s="3">
         <v>125100</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5234700</v>
+        <v>5417900</v>
       </c>
       <c r="E62" s="3">
-        <v>4510300</v>
+        <v>4668100</v>
       </c>
       <c r="F62" s="3">
-        <v>4061700</v>
+        <v>4203800</v>
       </c>
       <c r="G62" s="3">
-        <v>3804600</v>
+        <v>3937700</v>
       </c>
       <c r="H62" s="3">
-        <v>4157500</v>
+        <v>4303000</v>
       </c>
       <c r="I62" s="3">
-        <v>3877400</v>
+        <v>4013000</v>
       </c>
       <c r="J62" s="3">
-        <v>3638500</v>
+        <v>3765800</v>
       </c>
       <c r="K62" s="3">
         <v>105600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24571600</v>
+        <v>25431200</v>
       </c>
       <c r="E66" s="3">
-        <v>26059200</v>
+        <v>26970700</v>
       </c>
       <c r="F66" s="3">
-        <v>21918700</v>
+        <v>22685400</v>
       </c>
       <c r="G66" s="3">
-        <v>22923900</v>
+        <v>23725800</v>
       </c>
       <c r="H66" s="3">
-        <v>23588400</v>
+        <v>24413500</v>
       </c>
       <c r="I66" s="3">
-        <v>23645500</v>
+        <v>24472700</v>
       </c>
       <c r="J66" s="3">
-        <v>22375700</v>
+        <v>23158400</v>
       </c>
       <c r="K66" s="3">
         <v>407100</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>54634300</v>
+        <v>56545400</v>
       </c>
       <c r="E72" s="3">
-        <v>55667600</v>
+        <v>57614900</v>
       </c>
       <c r="F72" s="3">
-        <v>54706400</v>
+        <v>56620100</v>
       </c>
       <c r="G72" s="3">
-        <v>47382700</v>
+        <v>49040200</v>
       </c>
       <c r="H72" s="3">
-        <v>43813600</v>
+        <v>45346200</v>
       </c>
       <c r="I72" s="3">
-        <v>43835900</v>
+        <v>45369300</v>
       </c>
       <c r="J72" s="3">
-        <v>41409300</v>
+        <v>42857800</v>
       </c>
       <c r="K72" s="3">
         <v>1078100</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54217600</v>
+        <v>56114200</v>
       </c>
       <c r="E76" s="3">
-        <v>52144500</v>
+        <v>53968600</v>
       </c>
       <c r="F76" s="3">
-        <v>53462100</v>
+        <v>55332300</v>
       </c>
       <c r="G76" s="3">
-        <v>45800800</v>
+        <v>47403000</v>
       </c>
       <c r="H76" s="3">
-        <v>42354600</v>
+        <v>43836200</v>
       </c>
       <c r="I76" s="3">
-        <v>42375500</v>
+        <v>43857800</v>
       </c>
       <c r="J76" s="3">
-        <v>39941500</v>
+        <v>41338700</v>
       </c>
       <c r="K76" s="3">
         <v>1036400</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>199600</v>
+        <v>206500</v>
       </c>
       <c r="E81" s="3">
-        <v>8418300</v>
+        <v>8712800</v>
       </c>
       <c r="F81" s="3">
-        <v>8142100</v>
+        <v>8427000</v>
       </c>
       <c r="G81" s="3">
-        <v>5507300</v>
+        <v>5699900</v>
       </c>
       <c r="H81" s="3">
-        <v>2719300</v>
+        <v>2814500</v>
       </c>
       <c r="I81" s="3">
-        <v>3828400</v>
+        <v>3962300</v>
       </c>
       <c r="J81" s="3">
-        <v>5201200</v>
+        <v>5383100</v>
       </c>
       <c r="K81" s="3">
         <v>103300</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5331500</v>
+        <v>5518000</v>
       </c>
       <c r="E83" s="3">
-        <v>5458500</v>
+        <v>5649400</v>
       </c>
       <c r="F83" s="3">
-        <v>4511600</v>
+        <v>4669400</v>
       </c>
       <c r="G83" s="3">
-        <v>4274500</v>
+        <v>4424000</v>
       </c>
       <c r="H83" s="3">
-        <v>4097400</v>
+        <v>4240700</v>
       </c>
       <c r="I83" s="3">
-        <v>4615300</v>
+        <v>4776800</v>
       </c>
       <c r="J83" s="3">
-        <v>3853600</v>
+        <v>3988400</v>
       </c>
       <c r="K83" s="3">
         <v>75900</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10211900</v>
+        <v>10569200</v>
       </c>
       <c r="E89" s="3">
-        <v>15146700</v>
+        <v>15676600</v>
       </c>
       <c r="F89" s="3">
-        <v>13237500</v>
+        <v>13700500</v>
       </c>
       <c r="G89" s="3">
-        <v>9974100</v>
+        <v>10323000</v>
       </c>
       <c r="H89" s="3">
-        <v>9892000</v>
+        <v>10238000</v>
       </c>
       <c r="I89" s="3">
-        <v>11164000</v>
+        <v>11554500</v>
       </c>
       <c r="J89" s="3">
-        <v>8566100</v>
+        <v>8865800</v>
       </c>
       <c r="K89" s="3">
         <v>217000</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6515100</v>
+        <v>-6743000</v>
       </c>
       <c r="E91" s="3">
-        <v>-5917200</v>
+        <v>-6124200</v>
       </c>
       <c r="F91" s="3">
-        <v>-5937600</v>
+        <v>-6145300</v>
       </c>
       <c r="G91" s="3">
-        <v>-6726200</v>
+        <v>-6961500</v>
       </c>
       <c r="H91" s="3">
-        <v>-6537300</v>
+        <v>-6765900</v>
       </c>
       <c r="I91" s="3">
-        <v>-7898400</v>
+        <v>-8174700</v>
       </c>
       <c r="J91" s="3">
-        <v>-7574200</v>
+        <v>-7839100</v>
       </c>
       <c r="K91" s="3">
         <v>-197300</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6479900</v>
+        <v>-6706600</v>
       </c>
       <c r="E94" s="3">
-        <v>-6708200</v>
+        <v>-6942800</v>
       </c>
       <c r="F94" s="3">
-        <v>-5528200</v>
+        <v>-5721500</v>
       </c>
       <c r="G94" s="3">
-        <v>-5697700</v>
+        <v>-5897000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6579500</v>
+        <v>-6809700</v>
       </c>
       <c r="I94" s="3">
-        <v>-6913200</v>
+        <v>-7155100</v>
       </c>
       <c r="J94" s="3">
-        <v>-7605600</v>
+        <v>-7871700</v>
       </c>
       <c r="K94" s="3">
         <v>-245800</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5356100</v>
+        <v>-5543500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2376800</v>
+        <v>-2460000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2082600</v>
+        <v>-2155400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1825400</v>
+        <v>-1889200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1674600</v>
+        <v>-1733200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1470900</v>
+        <v>-1522400</v>
       </c>
       <c r="J96" s="3">
-        <v>-652900</v>
+        <v>-675800</v>
       </c>
       <c r="K96" s="3">
         <v>-31400</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6759200</v>
+        <v>-6995600</v>
       </c>
       <c r="E100" s="3">
-        <v>-7657800</v>
+        <v>-7925700</v>
       </c>
       <c r="F100" s="3">
-        <v>-6161400</v>
+        <v>-6377000</v>
       </c>
       <c r="G100" s="3">
-        <v>-3253200</v>
+        <v>-3367000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2539700</v>
+        <v>-2628600</v>
       </c>
       <c r="I100" s="3">
-        <v>-3327800</v>
+        <v>-3444200</v>
       </c>
       <c r="J100" s="3">
-        <v>396400</v>
+        <v>410200</v>
       </c>
       <c r="K100" s="3">
         <v>13600</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>762700</v>
+        <v>789400</v>
       </c>
       <c r="E101" s="3">
-        <v>-473300</v>
+        <v>-489900</v>
       </c>
       <c r="F101" s="3">
-        <v>585800</v>
+        <v>606300</v>
       </c>
       <c r="G101" s="3">
-        <v>-115500</v>
+        <v>-119600</v>
       </c>
       <c r="H101" s="3">
-        <v>-718800</v>
+        <v>-744000</v>
       </c>
       <c r="I101" s="3">
-        <v>237400</v>
+        <v>245700</v>
       </c>
       <c r="J101" s="3">
-        <v>300200</v>
+        <v>310700</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2264400</v>
+        <v>-2343600</v>
       </c>
       <c r="E102" s="3">
-        <v>307500</v>
+        <v>318200</v>
       </c>
       <c r="F102" s="3">
-        <v>2133700</v>
+        <v>2208400</v>
       </c>
       <c r="G102" s="3">
-        <v>907700</v>
+        <v>939400</v>
       </c>
       <c r="H102" s="3">
-        <v>54000</v>
+        <v>55900</v>
       </c>
       <c r="I102" s="3">
-        <v>1160400</v>
+        <v>1200900</v>
       </c>
       <c r="J102" s="3">
-        <v>1657000</v>
+        <v>1715000</v>
       </c>
       <c r="K102" s="3">
         <v>-15900</v>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>76752200</v>
+        <v>76244700</v>
       </c>
       <c r="E8" s="3">
-        <v>106719400</v>
+        <v>106013600</v>
       </c>
       <c r="F8" s="3">
-        <v>109368400</v>
+        <v>108645200</v>
       </c>
       <c r="G8" s="3">
-        <v>80798600</v>
+        <v>80264300</v>
       </c>
       <c r="H8" s="3">
-        <v>71140100</v>
+        <v>70669600</v>
       </c>
       <c r="I8" s="3">
-        <v>78244600</v>
+        <v>77727200</v>
       </c>
       <c r="J8" s="3">
-        <v>74921100</v>
+        <v>74425700</v>
       </c>
       <c r="K8" s="3">
         <v>1865800</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40842500</v>
+        <v>40572400</v>
       </c>
       <c r="E9" s="3">
-        <v>58632900</v>
+        <v>58245100</v>
       </c>
       <c r="F9" s="3">
-        <v>61711100</v>
+        <v>61303000</v>
       </c>
       <c r="G9" s="3">
-        <v>42597400</v>
+        <v>42315800</v>
       </c>
       <c r="H9" s="3">
-        <v>35518900</v>
+        <v>35284000</v>
       </c>
       <c r="I9" s="3">
-        <v>39355700</v>
+        <v>39095400</v>
       </c>
       <c r="J9" s="3">
-        <v>37861100</v>
+        <v>37610700</v>
       </c>
       <c r="K9" s="3">
         <v>869500</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35909800</v>
+        <v>35672300</v>
       </c>
       <c r="E10" s="3">
-        <v>48086500</v>
+        <v>47768500</v>
       </c>
       <c r="F10" s="3">
-        <v>47657400</v>
+        <v>47342200</v>
       </c>
       <c r="G10" s="3">
-        <v>38201100</v>
+        <v>37948500</v>
       </c>
       <c r="H10" s="3">
-        <v>35621200</v>
+        <v>35385600</v>
       </c>
       <c r="I10" s="3">
-        <v>38888900</v>
+        <v>38631700</v>
       </c>
       <c r="J10" s="3">
-        <v>37060000</v>
+        <v>36815000</v>
       </c>
       <c r="K10" s="3">
         <v>996200</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>83200</v>
+        <v>82700</v>
       </c>
       <c r="E12" s="3">
-        <v>127200</v>
+        <v>126400</v>
       </c>
       <c r="F12" s="3">
-        <v>48800</v>
+        <v>48400</v>
       </c>
       <c r="G12" s="3">
-        <v>168100</v>
+        <v>166900</v>
       </c>
       <c r="H12" s="3">
-        <v>112900</v>
+        <v>112100</v>
       </c>
       <c r="I12" s="3">
-        <v>397100</v>
+        <v>394500</v>
       </c>
       <c r="J12" s="3">
-        <v>166400</v>
+        <v>165300</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -918,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1560600</v>
+        <v>1550300</v>
       </c>
       <c r="E14" s="3">
-        <v>128100</v>
+        <v>127300</v>
       </c>
       <c r="F14" s="3">
-        <v>159600</v>
+        <v>158500</v>
       </c>
       <c r="G14" s="3">
-        <v>40000</v>
+        <v>39700</v>
       </c>
       <c r="H14" s="3">
-        <v>116800</v>
+        <v>116000</v>
       </c>
       <c r="I14" s="3">
-        <v>2528200</v>
+        <v>2511400</v>
       </c>
       <c r="J14" s="3">
-        <v>1022800</v>
+        <v>1016000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5518000</v>
+        <v>5481500</v>
       </c>
       <c r="E15" s="3">
-        <v>5649400</v>
+        <v>5612100</v>
       </c>
       <c r="F15" s="3">
-        <v>4669400</v>
+        <v>4638500</v>
       </c>
       <c r="G15" s="3">
-        <v>4424000</v>
+        <v>4394700</v>
       </c>
       <c r="H15" s="3">
-        <v>4240700</v>
+        <v>4212700</v>
       </c>
       <c r="I15" s="3">
-        <v>4776800</v>
+        <v>4745200</v>
       </c>
       <c r="J15" s="3">
-        <v>3988400</v>
+        <v>3962100</v>
       </c>
       <c r="K15" s="3">
         <v>75900</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>74479500</v>
+        <v>73987000</v>
       </c>
       <c r="E17" s="3">
-        <v>95672400</v>
+        <v>95039700</v>
       </c>
       <c r="F17" s="3">
-        <v>99025000</v>
+        <v>98370200</v>
       </c>
       <c r="G17" s="3">
-        <v>73944900</v>
+        <v>73455900</v>
       </c>
       <c r="H17" s="3">
-        <v>65552300</v>
+        <v>65118800</v>
       </c>
       <c r="I17" s="3">
-        <v>74434200</v>
+        <v>73941900</v>
       </c>
       <c r="J17" s="3">
-        <v>70332000</v>
+        <v>69866900</v>
       </c>
       <c r="K17" s="3">
         <v>1730600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2272700</v>
+        <v>2257700</v>
       </c>
       <c r="E18" s="3">
-        <v>11047000</v>
+        <v>10974000</v>
       </c>
       <c r="F18" s="3">
-        <v>10343400</v>
+        <v>10275000</v>
       </c>
       <c r="G18" s="3">
-        <v>6853700</v>
+        <v>6808400</v>
       </c>
       <c r="H18" s="3">
-        <v>5587800</v>
+        <v>5550800</v>
       </c>
       <c r="I18" s="3">
-        <v>3810400</v>
+        <v>3785200</v>
       </c>
       <c r="J18" s="3">
-        <v>4589100</v>
+        <v>4558700</v>
       </c>
       <c r="K18" s="3">
         <v>135200</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-420100</v>
+        <v>-417300</v>
       </c>
       <c r="E20" s="3">
-        <v>283300</v>
+        <v>281400</v>
       </c>
       <c r="F20" s="3">
-        <v>615500</v>
+        <v>611400</v>
       </c>
       <c r="G20" s="3">
-        <v>595100</v>
+        <v>591100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1330600</v>
+        <v>-1321800</v>
       </c>
       <c r="I20" s="3">
-        <v>2085300</v>
+        <v>2071500</v>
       </c>
       <c r="J20" s="3">
-        <v>2342400</v>
+        <v>2326900</v>
       </c>
       <c r="K20" s="3">
         <v>9200</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7374700</v>
+        <v>7358400</v>
       </c>
       <c r="E21" s="3">
-        <v>16983900</v>
+        <v>16904800</v>
       </c>
       <c r="F21" s="3">
-        <v>15631700</v>
+        <v>15555800</v>
       </c>
       <c r="G21" s="3">
-        <v>11876000</v>
+        <v>11823500</v>
       </c>
       <c r="H21" s="3">
-        <v>8501000</v>
+        <v>8469700</v>
       </c>
       <c r="I21" s="3">
-        <v>10676000</v>
+        <v>10633500</v>
       </c>
       <c r="J21" s="3">
-        <v>10922900</v>
+        <v>10874100</v>
       </c>
       <c r="K21" s="3">
         <v>220500</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>508100</v>
+        <v>504700</v>
       </c>
       <c r="E22" s="3">
-        <v>532800</v>
+        <v>529200</v>
       </c>
       <c r="F22" s="3">
-        <v>438100</v>
+        <v>435200</v>
       </c>
       <c r="G22" s="3">
-        <v>314600</v>
+        <v>312500</v>
       </c>
       <c r="H22" s="3">
-        <v>548300</v>
+        <v>544600</v>
       </c>
       <c r="I22" s="3">
-        <v>600000</v>
+        <v>596000</v>
       </c>
       <c r="J22" s="3">
-        <v>332600</v>
+        <v>330400</v>
       </c>
       <c r="K22" s="3">
         <v>6400</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1344500</v>
+        <v>1335600</v>
       </c>
       <c r="E23" s="3">
-        <v>10797500</v>
+        <v>10726100</v>
       </c>
       <c r="F23" s="3">
-        <v>10520800</v>
+        <v>10451200</v>
       </c>
       <c r="G23" s="3">
-        <v>7134100</v>
+        <v>7087000</v>
       </c>
       <c r="H23" s="3">
-        <v>3708900</v>
+        <v>3684400</v>
       </c>
       <c r="I23" s="3">
-        <v>5295700</v>
+        <v>5260700</v>
       </c>
       <c r="J23" s="3">
-        <v>6598900</v>
+        <v>6555200</v>
       </c>
       <c r="K23" s="3">
         <v>137900</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1118100</v>
+        <v>1110700</v>
       </c>
       <c r="E24" s="3">
-        <v>2056900</v>
+        <v>2043300</v>
       </c>
       <c r="F24" s="3">
-        <v>2067600</v>
+        <v>2053900</v>
       </c>
       <c r="G24" s="3">
-        <v>1412200</v>
+        <v>1402900</v>
       </c>
       <c r="H24" s="3">
-        <v>882900</v>
+        <v>877100</v>
       </c>
       <c r="I24" s="3">
-        <v>1311400</v>
+        <v>1302800</v>
       </c>
       <c r="J24" s="3">
-        <v>1235500</v>
+        <v>1227300</v>
       </c>
       <c r="K24" s="3">
         <v>37300</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>226400</v>
+        <v>224900</v>
       </c>
       <c r="E26" s="3">
-        <v>8740600</v>
+        <v>8682800</v>
       </c>
       <c r="F26" s="3">
-        <v>8453200</v>
+        <v>8397300</v>
       </c>
       <c r="G26" s="3">
-        <v>5721900</v>
+        <v>5684100</v>
       </c>
       <c r="H26" s="3">
-        <v>2826000</v>
+        <v>2807300</v>
       </c>
       <c r="I26" s="3">
-        <v>3984300</v>
+        <v>3957900</v>
       </c>
       <c r="J26" s="3">
-        <v>5363400</v>
+        <v>5327900</v>
       </c>
       <c r="K26" s="3">
         <v>100600</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>206500</v>
+        <v>205200</v>
       </c>
       <c r="E27" s="3">
-        <v>8712800</v>
+        <v>8655200</v>
       </c>
       <c r="F27" s="3">
-        <v>8427000</v>
+        <v>8371200</v>
       </c>
       <c r="G27" s="3">
-        <v>5699900</v>
+        <v>5662200</v>
       </c>
       <c r="H27" s="3">
-        <v>2814500</v>
+        <v>2795900</v>
       </c>
       <c r="I27" s="3">
-        <v>3962300</v>
+        <v>3936100</v>
       </c>
       <c r="J27" s="3">
-        <v>5383100</v>
+        <v>5347500</v>
       </c>
       <c r="K27" s="3">
         <v>103300</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>420100</v>
+        <v>417300</v>
       </c>
       <c r="E32" s="3">
-        <v>-283300</v>
+        <v>-281400</v>
       </c>
       <c r="F32" s="3">
-        <v>-615500</v>
+        <v>-611400</v>
       </c>
       <c r="G32" s="3">
-        <v>-595100</v>
+        <v>-591100</v>
       </c>
       <c r="H32" s="3">
-        <v>1330600</v>
+        <v>1321800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2085300</v>
+        <v>-2071500</v>
       </c>
       <c r="J32" s="3">
-        <v>-2342400</v>
+        <v>-2326900</v>
       </c>
       <c r="K32" s="3">
         <v>-9200</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>206500</v>
+        <v>205200</v>
       </c>
       <c r="E33" s="3">
-        <v>8712800</v>
+        <v>8655200</v>
       </c>
       <c r="F33" s="3">
-        <v>8427000</v>
+        <v>8371200</v>
       </c>
       <c r="G33" s="3">
-        <v>5699900</v>
+        <v>5662200</v>
       </c>
       <c r="H33" s="3">
-        <v>2814500</v>
+        <v>2795900</v>
       </c>
       <c r="I33" s="3">
-        <v>3962300</v>
+        <v>3936100</v>
       </c>
       <c r="J33" s="3">
-        <v>5383100</v>
+        <v>5347500</v>
       </c>
       <c r="K33" s="3">
         <v>103300</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>206500</v>
+        <v>205200</v>
       </c>
       <c r="E35" s="3">
-        <v>8712800</v>
+        <v>8655200</v>
       </c>
       <c r="F35" s="3">
-        <v>8427000</v>
+        <v>8371200</v>
       </c>
       <c r="G35" s="3">
-        <v>5699900</v>
+        <v>5662200</v>
       </c>
       <c r="H35" s="3">
-        <v>2814500</v>
+        <v>2795900</v>
       </c>
       <c r="I35" s="3">
-        <v>3962300</v>
+        <v>3936100</v>
       </c>
       <c r="J35" s="3">
-        <v>5383100</v>
+        <v>5347500</v>
       </c>
       <c r="K35" s="3">
         <v>103300</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4679600</v>
+        <v>4648600</v>
       </c>
       <c r="E41" s="3">
-        <v>7023200</v>
+        <v>6976800</v>
       </c>
       <c r="F41" s="3">
-        <v>6705000</v>
+        <v>6660600</v>
       </c>
       <c r="G41" s="3">
-        <v>4496600</v>
+        <v>4466900</v>
       </c>
       <c r="H41" s="3">
-        <v>3557200</v>
+        <v>3533700</v>
       </c>
       <c r="I41" s="3">
-        <v>3501300</v>
+        <v>3478200</v>
       </c>
       <c r="J41" s="3">
-        <v>2300400</v>
+        <v>2285200</v>
       </c>
       <c r="K41" s="3">
         <v>22600</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>113600</v>
+        <v>112900</v>
       </c>
       <c r="E42" s="3">
-        <v>676500</v>
+        <v>672000</v>
       </c>
       <c r="F42" s="3">
-        <v>356600</v>
+        <v>354200</v>
       </c>
       <c r="G42" s="3">
-        <v>266200</v>
+        <v>264500</v>
       </c>
       <c r="H42" s="3">
-        <v>230500</v>
+        <v>228900</v>
       </c>
       <c r="I42" s="3">
-        <v>323500</v>
+        <v>321300</v>
       </c>
       <c r="J42" s="3">
-        <v>145600</v>
+        <v>144700</v>
       </c>
       <c r="K42" s="3">
         <v>4800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5758400</v>
+        <v>5720300</v>
       </c>
       <c r="E43" s="3">
-        <v>6846400</v>
+        <v>6801100</v>
       </c>
       <c r="F43" s="3">
-        <v>6673000</v>
+        <v>6628800</v>
       </c>
       <c r="G43" s="3">
-        <v>6487200</v>
+        <v>6444300</v>
       </c>
       <c r="H43" s="3">
-        <v>5919300</v>
+        <v>5880200</v>
       </c>
       <c r="I43" s="3">
-        <v>7106900</v>
+        <v>7059900</v>
       </c>
       <c r="J43" s="3">
-        <v>8114000</v>
+        <v>8060300</v>
       </c>
       <c r="K43" s="3">
         <v>104800</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5805200</v>
+        <v>5766800</v>
       </c>
       <c r="E44" s="3">
-        <v>5633300</v>
+        <v>5596100</v>
       </c>
       <c r="F44" s="3">
-        <v>5195400</v>
+        <v>5161100</v>
       </c>
       <c r="G44" s="3">
-        <v>5419300</v>
+        <v>5383500</v>
       </c>
       <c r="H44" s="3">
-        <v>5502300</v>
+        <v>5465900</v>
       </c>
       <c r="I44" s="3">
-        <v>4630100</v>
+        <v>4599400</v>
       </c>
       <c r="J44" s="3">
-        <v>4636800</v>
+        <v>4606200</v>
       </c>
       <c r="K44" s="3">
         <v>116100</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1015900</v>
+        <v>1009100</v>
       </c>
       <c r="E45" s="3">
-        <v>973100</v>
+        <v>966700</v>
       </c>
       <c r="F45" s="3">
-        <v>1192200</v>
+        <v>1184300</v>
       </c>
       <c r="G45" s="3">
-        <v>1134100</v>
+        <v>1126600</v>
       </c>
       <c r="H45" s="3">
-        <v>1879900</v>
+        <v>1867500</v>
       </c>
       <c r="I45" s="3">
-        <v>956000</v>
+        <v>949600</v>
       </c>
       <c r="J45" s="3">
-        <v>1749800</v>
+        <v>1738300</v>
       </c>
       <c r="K45" s="3">
         <v>60400</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17372600</v>
+        <v>17257700</v>
       </c>
       <c r="E46" s="3">
-        <v>21152500</v>
+        <v>21012600</v>
       </c>
       <c r="F46" s="3">
-        <v>20122100</v>
+        <v>19989000</v>
       </c>
       <c r="G46" s="3">
-        <v>17803400</v>
+        <v>17685700</v>
       </c>
       <c r="H46" s="3">
-        <v>17089300</v>
+        <v>16976300</v>
       </c>
       <c r="I46" s="3">
-        <v>16517700</v>
+        <v>16408500</v>
       </c>
       <c r="J46" s="3">
-        <v>16825000</v>
+        <v>16713800</v>
       </c>
       <c r="K46" s="3">
         <v>308600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4768000</v>
+        <v>4736400</v>
       </c>
       <c r="E47" s="3">
-        <v>3514600</v>
+        <v>3491300</v>
       </c>
       <c r="F47" s="3">
-        <v>4227600</v>
+        <v>4199600</v>
       </c>
       <c r="G47" s="3">
-        <v>3320900</v>
+        <v>3298900</v>
       </c>
       <c r="H47" s="3">
-        <v>3596000</v>
+        <v>3572200</v>
       </c>
       <c r="I47" s="3">
-        <v>3862700</v>
+        <v>3837100</v>
       </c>
       <c r="J47" s="3">
-        <v>3279400</v>
+        <v>3257700</v>
       </c>
       <c r="K47" s="3">
         <v>56100</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>58039500</v>
+        <v>57655700</v>
       </c>
       <c r="E48" s="3">
-        <v>54794000</v>
+        <v>54431600</v>
       </c>
       <c r="F48" s="3">
-        <v>52114900</v>
+        <v>51770300</v>
       </c>
       <c r="G48" s="3">
-        <v>48658000</v>
+        <v>48336200</v>
       </c>
       <c r="H48" s="3">
-        <v>46156500</v>
+        <v>45851300</v>
       </c>
       <c r="I48" s="3">
-        <v>46425800</v>
+        <v>46118800</v>
       </c>
       <c r="J48" s="3">
-        <v>42920200</v>
+        <v>42636400</v>
       </c>
       <c r="K48" s="3">
         <v>1035000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>682700</v>
+        <v>678100</v>
       </c>
       <c r="E49" s="3">
-        <v>586700</v>
+        <v>582800</v>
       </c>
       <c r="F49" s="3">
-        <v>568400</v>
+        <v>564700</v>
       </c>
       <c r="G49" s="3">
-        <v>562100</v>
+        <v>558400</v>
       </c>
       <c r="H49" s="3">
-        <v>587100</v>
+        <v>583200</v>
       </c>
       <c r="I49" s="3">
-        <v>704300</v>
+        <v>699600</v>
       </c>
       <c r="J49" s="3">
-        <v>783700</v>
+        <v>778500</v>
       </c>
       <c r="K49" s="3">
         <v>17100</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>682600</v>
+        <v>678100</v>
       </c>
       <c r="E52" s="3">
-        <v>891600</v>
+        <v>885700</v>
       </c>
       <c r="F52" s="3">
-        <v>984700</v>
+        <v>978200</v>
       </c>
       <c r="G52" s="3">
-        <v>784300</v>
+        <v>779100</v>
       </c>
       <c r="H52" s="3">
-        <v>820900</v>
+        <v>815500</v>
       </c>
       <c r="I52" s="3">
-        <v>820000</v>
+        <v>814500</v>
       </c>
       <c r="J52" s="3">
-        <v>725700</v>
+        <v>720900</v>
       </c>
       <c r="K52" s="3">
         <v>26700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81545400</v>
+        <v>81006100</v>
       </c>
       <c r="E54" s="3">
-        <v>80939400</v>
+        <v>80404100</v>
       </c>
       <c r="F54" s="3">
-        <v>78017700</v>
+        <v>77501800</v>
       </c>
       <c r="G54" s="3">
-        <v>71128800</v>
+        <v>70658400</v>
       </c>
       <c r="H54" s="3">
-        <v>68249700</v>
+        <v>67798400</v>
       </c>
       <c r="I54" s="3">
-        <v>68330500</v>
+        <v>67878600</v>
       </c>
       <c r="J54" s="3">
-        <v>64497200</v>
+        <v>64070600</v>
       </c>
       <c r="K54" s="3">
         <v>1443500</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7262300</v>
+        <v>7214200</v>
       </c>
       <c r="E57" s="3">
-        <v>7564800</v>
+        <v>7514700</v>
       </c>
       <c r="F57" s="3">
-        <v>6498000</v>
+        <v>6455000</v>
       </c>
       <c r="G57" s="3">
-        <v>6914900</v>
+        <v>6869200</v>
       </c>
       <c r="H57" s="3">
-        <v>6514700</v>
+        <v>6471700</v>
       </c>
       <c r="I57" s="3">
-        <v>4615000</v>
+        <v>4584500</v>
       </c>
       <c r="J57" s="3">
-        <v>5012100</v>
+        <v>4978900</v>
       </c>
       <c r="K57" s="3">
         <v>96700</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1124700</v>
+        <v>1117200</v>
       </c>
       <c r="E58" s="3">
-        <v>1773400</v>
+        <v>1761700</v>
       </c>
       <c r="F58" s="3">
-        <v>1355900</v>
+        <v>1346900</v>
       </c>
       <c r="G58" s="3">
-        <v>1751800</v>
+        <v>1740200</v>
       </c>
       <c r="H58" s="3">
-        <v>795200</v>
+        <v>790000</v>
       </c>
       <c r="I58" s="3">
-        <v>823500</v>
+        <v>818000</v>
       </c>
       <c r="J58" s="3">
-        <v>1650500</v>
+        <v>1639600</v>
       </c>
       <c r="K58" s="3">
         <v>17600</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3666900</v>
+        <v>3642600</v>
       </c>
       <c r="E59" s="3">
-        <v>7098300</v>
+        <v>7051400</v>
       </c>
       <c r="F59" s="3">
-        <v>4593300</v>
+        <v>4562900</v>
       </c>
       <c r="G59" s="3">
-        <v>4383200</v>
+        <v>4354200</v>
       </c>
       <c r="H59" s="3">
-        <v>3995700</v>
+        <v>3969300</v>
       </c>
       <c r="I59" s="3">
-        <v>4022700</v>
+        <v>3996100</v>
       </c>
       <c r="J59" s="3">
-        <v>4086300</v>
+        <v>4059300</v>
       </c>
       <c r="K59" s="3">
         <v>58400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12053800</v>
+        <v>11974100</v>
       </c>
       <c r="E60" s="3">
-        <v>16436500</v>
+        <v>16327800</v>
       </c>
       <c r="F60" s="3">
-        <v>12447200</v>
+        <v>12364900</v>
       </c>
       <c r="G60" s="3">
-        <v>13049900</v>
+        <v>12963600</v>
       </c>
       <c r="H60" s="3">
-        <v>11305600</v>
+        <v>11230900</v>
       </c>
       <c r="I60" s="3">
-        <v>9461200</v>
+        <v>9398700</v>
       </c>
       <c r="J60" s="3">
-        <v>10608300</v>
+        <v>10538100</v>
       </c>
       <c r="K60" s="3">
         <v>172700</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7854000</v>
+        <v>7802100</v>
       </c>
       <c r="E61" s="3">
-        <v>5756100</v>
+        <v>5718000</v>
       </c>
       <c r="F61" s="3">
-        <v>5926100</v>
+        <v>5886900</v>
       </c>
       <c r="G61" s="3">
-        <v>6636900</v>
+        <v>6593000</v>
       </c>
       <c r="H61" s="3">
-        <v>8712600</v>
+        <v>8655000</v>
       </c>
       <c r="I61" s="3">
-        <v>10877200</v>
+        <v>10805300</v>
       </c>
       <c r="J61" s="3">
-        <v>8640300</v>
+        <v>8583100</v>
       </c>
       <c r="K61" s="3">
         <v>125100</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5417900</v>
+        <v>5382000</v>
       </c>
       <c r="E62" s="3">
-        <v>4668100</v>
+        <v>4637300</v>
       </c>
       <c r="F62" s="3">
-        <v>4203800</v>
+        <v>4176000</v>
       </c>
       <c r="G62" s="3">
-        <v>3937700</v>
+        <v>3911600</v>
       </c>
       <c r="H62" s="3">
-        <v>4303000</v>
+        <v>4274500</v>
       </c>
       <c r="I62" s="3">
-        <v>4013000</v>
+        <v>3986500</v>
       </c>
       <c r="J62" s="3">
-        <v>3765800</v>
+        <v>3740900</v>
       </c>
       <c r="K62" s="3">
         <v>105600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25431200</v>
+        <v>25263000</v>
       </c>
       <c r="E66" s="3">
-        <v>26970700</v>
+        <v>26792400</v>
       </c>
       <c r="F66" s="3">
-        <v>22685400</v>
+        <v>22535400</v>
       </c>
       <c r="G66" s="3">
-        <v>23725800</v>
+        <v>23568900</v>
       </c>
       <c r="H66" s="3">
-        <v>24413500</v>
+        <v>24252100</v>
       </c>
       <c r="I66" s="3">
-        <v>24472700</v>
+        <v>24310800</v>
       </c>
       <c r="J66" s="3">
-        <v>23158400</v>
+        <v>23005300</v>
       </c>
       <c r="K66" s="3">
         <v>407100</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56545400</v>
+        <v>56171500</v>
       </c>
       <c r="E72" s="3">
-        <v>57614900</v>
+        <v>57233900</v>
       </c>
       <c r="F72" s="3">
-        <v>56620100</v>
+        <v>56245700</v>
       </c>
       <c r="G72" s="3">
-        <v>49040200</v>
+        <v>48715900</v>
       </c>
       <c r="H72" s="3">
-        <v>45346200</v>
+        <v>45046300</v>
       </c>
       <c r="I72" s="3">
-        <v>45369300</v>
+        <v>45069300</v>
       </c>
       <c r="J72" s="3">
-        <v>42857800</v>
+        <v>42574400</v>
       </c>
       <c r="K72" s="3">
         <v>1078100</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56114200</v>
+        <v>55743100</v>
       </c>
       <c r="E76" s="3">
-        <v>53968600</v>
+        <v>53611700</v>
       </c>
       <c r="F76" s="3">
-        <v>55332300</v>
+        <v>54966400</v>
       </c>
       <c r="G76" s="3">
-        <v>47403000</v>
+        <v>47089500</v>
       </c>
       <c r="H76" s="3">
-        <v>43836200</v>
+        <v>43546300</v>
       </c>
       <c r="I76" s="3">
-        <v>43857800</v>
+        <v>43567800</v>
       </c>
       <c r="J76" s="3">
-        <v>41338700</v>
+        <v>41065400</v>
       </c>
       <c r="K76" s="3">
         <v>1036400</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>206500</v>
+        <v>205200</v>
       </c>
       <c r="E81" s="3">
-        <v>8712800</v>
+        <v>8655200</v>
       </c>
       <c r="F81" s="3">
-        <v>8427000</v>
+        <v>8371200</v>
       </c>
       <c r="G81" s="3">
-        <v>5699900</v>
+        <v>5662200</v>
       </c>
       <c r="H81" s="3">
-        <v>2814500</v>
+        <v>2795900</v>
       </c>
       <c r="I81" s="3">
-        <v>3962300</v>
+        <v>3936100</v>
       </c>
       <c r="J81" s="3">
-        <v>5383100</v>
+        <v>5347500</v>
       </c>
       <c r="K81" s="3">
         <v>103300</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5518000</v>
+        <v>5481500</v>
       </c>
       <c r="E83" s="3">
-        <v>5649400</v>
+        <v>5612100</v>
       </c>
       <c r="F83" s="3">
-        <v>4669400</v>
+        <v>4638500</v>
       </c>
       <c r="G83" s="3">
-        <v>4424000</v>
+        <v>4394700</v>
       </c>
       <c r="H83" s="3">
-        <v>4240700</v>
+        <v>4212700</v>
       </c>
       <c r="I83" s="3">
-        <v>4776800</v>
+        <v>4745200</v>
       </c>
       <c r="J83" s="3">
-        <v>3988400</v>
+        <v>3962100</v>
       </c>
       <c r="K83" s="3">
         <v>75900</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10569200</v>
+        <v>10499300</v>
       </c>
       <c r="E89" s="3">
-        <v>15676600</v>
+        <v>15572900</v>
       </c>
       <c r="F89" s="3">
-        <v>13700500</v>
+        <v>13609900</v>
       </c>
       <c r="G89" s="3">
-        <v>10323000</v>
+        <v>10254800</v>
       </c>
       <c r="H89" s="3">
-        <v>10238000</v>
+        <v>10170300</v>
       </c>
       <c r="I89" s="3">
-        <v>11554500</v>
+        <v>11478100</v>
       </c>
       <c r="J89" s="3">
-        <v>8865800</v>
+        <v>8807100</v>
       </c>
       <c r="K89" s="3">
         <v>217000</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6743000</v>
+        <v>-6698400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6124200</v>
+        <v>-6083700</v>
       </c>
       <c r="F91" s="3">
-        <v>-6145300</v>
+        <v>-6104600</v>
       </c>
       <c r="G91" s="3">
-        <v>-6961500</v>
+        <v>-6915400</v>
       </c>
       <c r="H91" s="3">
-        <v>-6765900</v>
+        <v>-6721200</v>
       </c>
       <c r="I91" s="3">
-        <v>-8174700</v>
+        <v>-8120600</v>
       </c>
       <c r="J91" s="3">
-        <v>-7839100</v>
+        <v>-7787300</v>
       </c>
       <c r="K91" s="3">
         <v>-197300</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6706600</v>
+        <v>-6662200</v>
       </c>
       <c r="E94" s="3">
-        <v>-6942800</v>
+        <v>-6896900</v>
       </c>
       <c r="F94" s="3">
-        <v>-5721500</v>
+        <v>-5683700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5897000</v>
+        <v>-5858000</v>
       </c>
       <c r="H94" s="3">
-        <v>-6809700</v>
+        <v>-6764600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7155100</v>
+        <v>-7107800</v>
       </c>
       <c r="J94" s="3">
-        <v>-7871700</v>
+        <v>-7819600</v>
       </c>
       <c r="K94" s="3">
         <v>-245800</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5543500</v>
+        <v>-5506800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2460000</v>
+        <v>-2443700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2155400</v>
+        <v>-2141200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1889200</v>
+        <v>-1876700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1733200</v>
+        <v>-1721700</v>
       </c>
       <c r="I96" s="3">
-        <v>-1522400</v>
+        <v>-1512300</v>
       </c>
       <c r="J96" s="3">
-        <v>-675800</v>
+        <v>-671300</v>
       </c>
       <c r="K96" s="3">
         <v>-31400</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6995600</v>
+        <v>-6949300</v>
       </c>
       <c r="E100" s="3">
-        <v>-7925700</v>
+        <v>-7873300</v>
       </c>
       <c r="F100" s="3">
-        <v>-6377000</v>
+        <v>-6334800</v>
       </c>
       <c r="G100" s="3">
-        <v>-3367000</v>
+        <v>-3344800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2628600</v>
+        <v>-2611200</v>
       </c>
       <c r="I100" s="3">
-        <v>-3444200</v>
+        <v>-3421400</v>
       </c>
       <c r="J100" s="3">
-        <v>410200</v>
+        <v>407500</v>
       </c>
       <c r="K100" s="3">
         <v>13600</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>789400</v>
+        <v>784200</v>
       </c>
       <c r="E101" s="3">
-        <v>-489900</v>
+        <v>-486600</v>
       </c>
       <c r="F101" s="3">
-        <v>606300</v>
+        <v>602300</v>
       </c>
       <c r="G101" s="3">
-        <v>-119600</v>
+        <v>-118800</v>
       </c>
       <c r="H101" s="3">
-        <v>-744000</v>
+        <v>-739000</v>
       </c>
       <c r="I101" s="3">
-        <v>245700</v>
+        <v>244100</v>
       </c>
       <c r="J101" s="3">
-        <v>310700</v>
+        <v>308600</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2343600</v>
+        <v>-2328100</v>
       </c>
       <c r="E102" s="3">
-        <v>318200</v>
+        <v>316100</v>
       </c>
       <c r="F102" s="3">
-        <v>2208400</v>
+        <v>2193800</v>
       </c>
       <c r="G102" s="3">
-        <v>939400</v>
+        <v>933200</v>
       </c>
       <c r="H102" s="3">
-        <v>55900</v>
+        <v>55500</v>
       </c>
       <c r="I102" s="3">
-        <v>1200900</v>
+        <v>1193000</v>
       </c>
       <c r="J102" s="3">
-        <v>1715000</v>
+        <v>1703700</v>
       </c>
       <c r="K102" s="3">
         <v>-15900</v>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>76244700</v>
+        <v>75962700</v>
       </c>
       <c r="E8" s="3">
-        <v>106013600</v>
+        <v>105621600</v>
       </c>
       <c r="F8" s="3">
-        <v>108645200</v>
+        <v>108243400</v>
       </c>
       <c r="G8" s="3">
-        <v>80264300</v>
+        <v>79967400</v>
       </c>
       <c r="H8" s="3">
-        <v>70669600</v>
+        <v>70408300</v>
       </c>
       <c r="I8" s="3">
-        <v>77727200</v>
+        <v>77439700</v>
       </c>
       <c r="J8" s="3">
-        <v>74425700</v>
+        <v>74150400</v>
       </c>
       <c r="K8" s="3">
         <v>1865800</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40572400</v>
+        <v>40422300</v>
       </c>
       <c r="E9" s="3">
-        <v>58245100</v>
+        <v>58029700</v>
       </c>
       <c r="F9" s="3">
-        <v>61303000</v>
+        <v>61076300</v>
       </c>
       <c r="G9" s="3">
-        <v>42315800</v>
+        <v>42159300</v>
       </c>
       <c r="H9" s="3">
-        <v>35284000</v>
+        <v>35153500</v>
       </c>
       <c r="I9" s="3">
-        <v>39095400</v>
+        <v>38950800</v>
       </c>
       <c r="J9" s="3">
-        <v>37610700</v>
+        <v>37471600</v>
       </c>
       <c r="K9" s="3">
         <v>869500</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35672300</v>
+        <v>35540400</v>
       </c>
       <c r="E10" s="3">
-        <v>47768500</v>
+        <v>47591800</v>
       </c>
       <c r="F10" s="3">
-        <v>47342200</v>
+        <v>47167200</v>
       </c>
       <c r="G10" s="3">
-        <v>37948500</v>
+        <v>37808100</v>
       </c>
       <c r="H10" s="3">
-        <v>35385600</v>
+        <v>35254800</v>
       </c>
       <c r="I10" s="3">
-        <v>38631700</v>
+        <v>38488900</v>
       </c>
       <c r="J10" s="3">
-        <v>36815000</v>
+        <v>36678800</v>
       </c>
       <c r="K10" s="3">
         <v>996200</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>82700</v>
+        <v>82400</v>
       </c>
       <c r="E12" s="3">
-        <v>126400</v>
+        <v>125900</v>
       </c>
       <c r="F12" s="3">
-        <v>48400</v>
+        <v>48200</v>
       </c>
       <c r="G12" s="3">
-        <v>166900</v>
+        <v>166300</v>
       </c>
       <c r="H12" s="3">
-        <v>112100</v>
+        <v>111700</v>
       </c>
       <c r="I12" s="3">
-        <v>394500</v>
+        <v>393000</v>
       </c>
       <c r="J12" s="3">
-        <v>165300</v>
+        <v>164700</v>
       </c>
       <c r="K12" s="3">
         <v>7900</v>
@@ -918,25 +918,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1550300</v>
+        <v>1544500</v>
       </c>
       <c r="E14" s="3">
-        <v>127300</v>
+        <v>308200</v>
       </c>
       <c r="F14" s="3">
-        <v>158500</v>
+        <v>158000</v>
       </c>
       <c r="G14" s="3">
-        <v>39700</v>
+        <v>39600</v>
       </c>
       <c r="H14" s="3">
-        <v>116000</v>
+        <v>115600</v>
       </c>
       <c r="I14" s="3">
-        <v>2511400</v>
+        <v>2502200</v>
       </c>
       <c r="J14" s="3">
-        <v>1016000</v>
+        <v>1012300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5481500</v>
+        <v>5461300</v>
       </c>
       <c r="E15" s="3">
-        <v>5612100</v>
+        <v>5591300</v>
       </c>
       <c r="F15" s="3">
-        <v>4638500</v>
+        <v>4621400</v>
       </c>
       <c r="G15" s="3">
-        <v>4394700</v>
+        <v>4378500</v>
       </c>
       <c r="H15" s="3">
-        <v>4212700</v>
+        <v>4197100</v>
       </c>
       <c r="I15" s="3">
-        <v>4745200</v>
+        <v>4727600</v>
       </c>
       <c r="J15" s="3">
-        <v>3962100</v>
+        <v>3947400</v>
       </c>
       <c r="K15" s="3">
         <v>75900</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73987000</v>
+        <v>73713400</v>
       </c>
       <c r="E17" s="3">
-        <v>95039700</v>
+        <v>94869600</v>
       </c>
       <c r="F17" s="3">
-        <v>98370200</v>
+        <v>98006400</v>
       </c>
       <c r="G17" s="3">
-        <v>73455900</v>
+        <v>73184200</v>
       </c>
       <c r="H17" s="3">
-        <v>65118800</v>
+        <v>64878000</v>
       </c>
       <c r="I17" s="3">
-        <v>73941900</v>
+        <v>73668500</v>
       </c>
       <c r="J17" s="3">
-        <v>69866900</v>
+        <v>69608500</v>
       </c>
       <c r="K17" s="3">
         <v>1730600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2257700</v>
+        <v>2249300</v>
       </c>
       <c r="E18" s="3">
-        <v>10974000</v>
+        <v>10752000</v>
       </c>
       <c r="F18" s="3">
-        <v>10275000</v>
+        <v>10237000</v>
       </c>
       <c r="G18" s="3">
-        <v>6808400</v>
+        <v>6783200</v>
       </c>
       <c r="H18" s="3">
-        <v>5550800</v>
+        <v>5530300</v>
       </c>
       <c r="I18" s="3">
-        <v>3785200</v>
+        <v>3771200</v>
       </c>
       <c r="J18" s="3">
-        <v>4558700</v>
+        <v>4541900</v>
       </c>
       <c r="K18" s="3">
         <v>135200</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-417300</v>
+        <v>-415800</v>
       </c>
       <c r="E20" s="3">
-        <v>281400</v>
+        <v>461800</v>
       </c>
       <c r="F20" s="3">
-        <v>611400</v>
+        <v>609100</v>
       </c>
       <c r="G20" s="3">
-        <v>591100</v>
+        <v>588900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1321800</v>
+        <v>-1316900</v>
       </c>
       <c r="I20" s="3">
-        <v>2071500</v>
+        <v>2063800</v>
       </c>
       <c r="J20" s="3">
-        <v>2326900</v>
+        <v>2318300</v>
       </c>
       <c r="K20" s="3">
         <v>9200</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7358400</v>
+        <v>7217800</v>
       </c>
       <c r="E21" s="3">
-        <v>16904800</v>
+        <v>16726200</v>
       </c>
       <c r="F21" s="3">
-        <v>15555800</v>
+        <v>15402300</v>
       </c>
       <c r="G21" s="3">
-        <v>11823500</v>
+        <v>11688800</v>
       </c>
       <c r="H21" s="3">
-        <v>8469700</v>
+        <v>8351300</v>
       </c>
       <c r="I21" s="3">
-        <v>10633500</v>
+        <v>10496000</v>
       </c>
       <c r="J21" s="3">
-        <v>10874100</v>
+        <v>10751900</v>
       </c>
       <c r="K21" s="3">
         <v>220500</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>504700</v>
+        <v>502900</v>
       </c>
       <c r="E22" s="3">
-        <v>529200</v>
+        <v>527300</v>
       </c>
       <c r="F22" s="3">
-        <v>435200</v>
+        <v>433600</v>
       </c>
       <c r="G22" s="3">
-        <v>312500</v>
+        <v>311400</v>
       </c>
       <c r="H22" s="3">
-        <v>544600</v>
+        <v>542600</v>
       </c>
       <c r="I22" s="3">
-        <v>596000</v>
+        <v>593800</v>
       </c>
       <c r="J22" s="3">
-        <v>330400</v>
+        <v>329200</v>
       </c>
       <c r="K22" s="3">
         <v>6400</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1335600</v>
+        <v>1330700</v>
       </c>
       <c r="E23" s="3">
-        <v>10726100</v>
+        <v>10686500</v>
       </c>
       <c r="F23" s="3">
-        <v>10451200</v>
+        <v>10412600</v>
       </c>
       <c r="G23" s="3">
-        <v>7087000</v>
+        <v>7060800</v>
       </c>
       <c r="H23" s="3">
-        <v>3684400</v>
+        <v>3670800</v>
       </c>
       <c r="I23" s="3">
-        <v>5260700</v>
+        <v>5241200</v>
       </c>
       <c r="J23" s="3">
-        <v>6555200</v>
+        <v>6531000</v>
       </c>
       <c r="K23" s="3">
         <v>137900</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1110700</v>
+        <v>1106600</v>
       </c>
       <c r="E24" s="3">
-        <v>2043300</v>
+        <v>2035800</v>
       </c>
       <c r="F24" s="3">
-        <v>2053900</v>
+        <v>2046300</v>
       </c>
       <c r="G24" s="3">
-        <v>1402900</v>
+        <v>1397700</v>
       </c>
       <c r="H24" s="3">
-        <v>877100</v>
+        <v>873800</v>
       </c>
       <c r="I24" s="3">
-        <v>1302800</v>
+        <v>1298000</v>
       </c>
       <c r="J24" s="3">
-        <v>1227300</v>
+        <v>1222800</v>
       </c>
       <c r="K24" s="3">
         <v>37300</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>224900</v>
+        <v>224000</v>
       </c>
       <c r="E26" s="3">
-        <v>8682800</v>
+        <v>8650700</v>
       </c>
       <c r="F26" s="3">
-        <v>8397300</v>
+        <v>8366200</v>
       </c>
       <c r="G26" s="3">
-        <v>5684100</v>
+        <v>5663100</v>
       </c>
       <c r="H26" s="3">
-        <v>2807300</v>
+        <v>2796900</v>
       </c>
       <c r="I26" s="3">
-        <v>3957900</v>
+        <v>3943300</v>
       </c>
       <c r="J26" s="3">
-        <v>5327900</v>
+        <v>5308200</v>
       </c>
       <c r="K26" s="3">
         <v>100600</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>205200</v>
+        <v>204400</v>
       </c>
       <c r="E27" s="3">
-        <v>8655200</v>
+        <v>8623200</v>
       </c>
       <c r="F27" s="3">
-        <v>8371200</v>
+        <v>8340300</v>
       </c>
       <c r="G27" s="3">
-        <v>5662200</v>
+        <v>5641300</v>
       </c>
       <c r="H27" s="3">
-        <v>2795900</v>
+        <v>2785500</v>
       </c>
       <c r="I27" s="3">
-        <v>3936100</v>
+        <v>3921600</v>
       </c>
       <c r="J27" s="3">
-        <v>5347500</v>
+        <v>5327700</v>
       </c>
       <c r="K27" s="3">
         <v>103300</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>417300</v>
+        <v>415800</v>
       </c>
       <c r="E32" s="3">
-        <v>-281400</v>
+        <v>-461800</v>
       </c>
       <c r="F32" s="3">
-        <v>-611400</v>
+        <v>-609100</v>
       </c>
       <c r="G32" s="3">
-        <v>-591100</v>
+        <v>-588900</v>
       </c>
       <c r="H32" s="3">
-        <v>1321800</v>
+        <v>1316900</v>
       </c>
       <c r="I32" s="3">
-        <v>-2071500</v>
+        <v>-2063800</v>
       </c>
       <c r="J32" s="3">
-        <v>-2326900</v>
+        <v>-2318300</v>
       </c>
       <c r="K32" s="3">
         <v>-9200</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>205200</v>
+        <v>204400</v>
       </c>
       <c r="E33" s="3">
-        <v>8655200</v>
+        <v>8623200</v>
       </c>
       <c r="F33" s="3">
-        <v>8371200</v>
+        <v>8340300</v>
       </c>
       <c r="G33" s="3">
-        <v>5662200</v>
+        <v>5641300</v>
       </c>
       <c r="H33" s="3">
-        <v>2795900</v>
+        <v>2785500</v>
       </c>
       <c r="I33" s="3">
-        <v>3936100</v>
+        <v>3921600</v>
       </c>
       <c r="J33" s="3">
-        <v>5347500</v>
+        <v>5327700</v>
       </c>
       <c r="K33" s="3">
         <v>103300</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>205200</v>
+        <v>204400</v>
       </c>
       <c r="E35" s="3">
-        <v>8655200</v>
+        <v>8623200</v>
       </c>
       <c r="F35" s="3">
-        <v>8371200</v>
+        <v>8340300</v>
       </c>
       <c r="G35" s="3">
-        <v>5662200</v>
+        <v>5641300</v>
       </c>
       <c r="H35" s="3">
-        <v>2795900</v>
+        <v>2785500</v>
       </c>
       <c r="I35" s="3">
-        <v>3936100</v>
+        <v>3921600</v>
       </c>
       <c r="J35" s="3">
-        <v>5347500</v>
+        <v>5327700</v>
       </c>
       <c r="K35" s="3">
         <v>103300</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4648600</v>
+        <v>4631400</v>
       </c>
       <c r="E41" s="3">
-        <v>6976800</v>
+        <v>6951000</v>
       </c>
       <c r="F41" s="3">
-        <v>6660600</v>
+        <v>6636000</v>
       </c>
       <c r="G41" s="3">
-        <v>4466900</v>
+        <v>4450400</v>
       </c>
       <c r="H41" s="3">
-        <v>3533700</v>
+        <v>3520600</v>
       </c>
       <c r="I41" s="3">
-        <v>3478200</v>
+        <v>3465300</v>
       </c>
       <c r="J41" s="3">
-        <v>2285200</v>
+        <v>2276700</v>
       </c>
       <c r="K41" s="3">
         <v>22600</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>112900</v>
+        <v>112500</v>
       </c>
       <c r="E42" s="3">
-        <v>672000</v>
+        <v>669500</v>
       </c>
       <c r="F42" s="3">
-        <v>354200</v>
+        <v>352900</v>
       </c>
       <c r="G42" s="3">
-        <v>264500</v>
+        <v>263500</v>
       </c>
       <c r="H42" s="3">
-        <v>228900</v>
+        <v>228100</v>
       </c>
       <c r="I42" s="3">
-        <v>321300</v>
+        <v>320200</v>
       </c>
       <c r="J42" s="3">
-        <v>144700</v>
+        <v>144100</v>
       </c>
       <c r="K42" s="3">
         <v>4800</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5720300</v>
+        <v>5699200</v>
       </c>
       <c r="E43" s="3">
-        <v>6801100</v>
+        <v>6775900</v>
       </c>
       <c r="F43" s="3">
-        <v>6628800</v>
+        <v>6604300</v>
       </c>
       <c r="G43" s="3">
-        <v>6444300</v>
+        <v>6420500</v>
       </c>
       <c r="H43" s="3">
-        <v>5880200</v>
+        <v>5858500</v>
       </c>
       <c r="I43" s="3">
-        <v>7059900</v>
+        <v>7033800</v>
       </c>
       <c r="J43" s="3">
-        <v>8060300</v>
+        <v>8030500</v>
       </c>
       <c r="K43" s="3">
         <v>104800</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5766800</v>
+        <v>5745400</v>
       </c>
       <c r="E44" s="3">
-        <v>5596100</v>
+        <v>5575400</v>
       </c>
       <c r="F44" s="3">
-        <v>5161100</v>
+        <v>5142000</v>
       </c>
       <c r="G44" s="3">
-        <v>5383500</v>
+        <v>5363600</v>
       </c>
       <c r="H44" s="3">
-        <v>5465900</v>
+        <v>5445700</v>
       </c>
       <c r="I44" s="3">
-        <v>4599400</v>
+        <v>4582400</v>
       </c>
       <c r="J44" s="3">
-        <v>4606200</v>
+        <v>4589100</v>
       </c>
       <c r="K44" s="3">
         <v>116100</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1009100</v>
+        <v>1005400</v>
       </c>
       <c r="E45" s="3">
-        <v>966700</v>
+        <v>963100</v>
       </c>
       <c r="F45" s="3">
-        <v>1184300</v>
+        <v>1179900</v>
       </c>
       <c r="G45" s="3">
-        <v>1126600</v>
+        <v>1122400</v>
       </c>
       <c r="H45" s="3">
-        <v>1867500</v>
+        <v>1860600</v>
       </c>
       <c r="I45" s="3">
-        <v>949600</v>
+        <v>946100</v>
       </c>
       <c r="J45" s="3">
-        <v>1738300</v>
+        <v>1731800</v>
       </c>
       <c r="K45" s="3">
         <v>60400</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17257700</v>
+        <v>17193900</v>
       </c>
       <c r="E46" s="3">
-        <v>21012600</v>
+        <v>20934900</v>
       </c>
       <c r="F46" s="3">
-        <v>19989000</v>
+        <v>19915100</v>
       </c>
       <c r="G46" s="3">
-        <v>17685700</v>
+        <v>17620300</v>
       </c>
       <c r="H46" s="3">
-        <v>16976300</v>
+        <v>16913500</v>
       </c>
       <c r="I46" s="3">
-        <v>16408500</v>
+        <v>16347800</v>
       </c>
       <c r="J46" s="3">
-        <v>16713800</v>
+        <v>16652000</v>
       </c>
       <c r="K46" s="3">
         <v>308600</v>
@@ -1956,25 +1956,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4736400</v>
+        <v>4718900</v>
       </c>
       <c r="E47" s="3">
-        <v>3491300</v>
+        <v>3478400</v>
       </c>
       <c r="F47" s="3">
-        <v>4199600</v>
+        <v>4184100</v>
       </c>
       <c r="G47" s="3">
-        <v>3298900</v>
+        <v>3286700</v>
       </c>
       <c r="H47" s="3">
-        <v>3572200</v>
+        <v>3559000</v>
       </c>
       <c r="I47" s="3">
-        <v>3837100</v>
+        <v>3822900</v>
       </c>
       <c r="J47" s="3">
-        <v>3257700</v>
+        <v>3245600</v>
       </c>
       <c r="K47" s="3">
         <v>56100</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57655700</v>
+        <v>57442500</v>
       </c>
       <c r="E48" s="3">
-        <v>54431600</v>
+        <v>54230300</v>
       </c>
       <c r="F48" s="3">
-        <v>51770300</v>
+        <v>51578800</v>
       </c>
       <c r="G48" s="3">
-        <v>48336200</v>
+        <v>48157500</v>
       </c>
       <c r="H48" s="3">
-        <v>45851300</v>
+        <v>45681700</v>
       </c>
       <c r="I48" s="3">
-        <v>46118800</v>
+        <v>45948200</v>
       </c>
       <c r="J48" s="3">
-        <v>42636400</v>
+        <v>42478700</v>
       </c>
       <c r="K48" s="3">
         <v>1035000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>678100</v>
+        <v>675600</v>
       </c>
       <c r="E49" s="3">
-        <v>582800</v>
+        <v>580700</v>
       </c>
       <c r="F49" s="3">
-        <v>564700</v>
+        <v>562600</v>
       </c>
       <c r="G49" s="3">
-        <v>558400</v>
+        <v>556400</v>
       </c>
       <c r="H49" s="3">
-        <v>583200</v>
+        <v>581000</v>
       </c>
       <c r="I49" s="3">
-        <v>699600</v>
+        <v>697100</v>
       </c>
       <c r="J49" s="3">
-        <v>778500</v>
+        <v>775600</v>
       </c>
       <c r="K49" s="3">
         <v>17100</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>678100</v>
+        <v>675600</v>
       </c>
       <c r="E52" s="3">
-        <v>885700</v>
+        <v>882500</v>
       </c>
       <c r="F52" s="3">
-        <v>978200</v>
+        <v>974600</v>
       </c>
       <c r="G52" s="3">
-        <v>779100</v>
+        <v>776300</v>
       </c>
       <c r="H52" s="3">
-        <v>815500</v>
+        <v>812400</v>
       </c>
       <c r="I52" s="3">
-        <v>814500</v>
+        <v>811500</v>
       </c>
       <c r="J52" s="3">
-        <v>720900</v>
+        <v>718200</v>
       </c>
       <c r="K52" s="3">
         <v>26700</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81006100</v>
+        <v>80706600</v>
       </c>
       <c r="E54" s="3">
-        <v>80404100</v>
+        <v>80106800</v>
       </c>
       <c r="F54" s="3">
-        <v>77501800</v>
+        <v>77215200</v>
       </c>
       <c r="G54" s="3">
-        <v>70658400</v>
+        <v>70397100</v>
       </c>
       <c r="H54" s="3">
-        <v>67798400</v>
+        <v>67547600</v>
       </c>
       <c r="I54" s="3">
-        <v>67878600</v>
+        <v>67627600</v>
       </c>
       <c r="J54" s="3">
-        <v>64070600</v>
+        <v>63833700</v>
       </c>
       <c r="K54" s="3">
         <v>1443500</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7214200</v>
+        <v>7187600</v>
       </c>
       <c r="E57" s="3">
-        <v>7514700</v>
+        <v>7486900</v>
       </c>
       <c r="F57" s="3">
-        <v>6455000</v>
+        <v>6431200</v>
       </c>
       <c r="G57" s="3">
-        <v>6869200</v>
+        <v>6843800</v>
       </c>
       <c r="H57" s="3">
-        <v>6471700</v>
+        <v>6447700</v>
       </c>
       <c r="I57" s="3">
-        <v>4584500</v>
+        <v>4567600</v>
       </c>
       <c r="J57" s="3">
-        <v>4978900</v>
+        <v>4960500</v>
       </c>
       <c r="K57" s="3">
         <v>96700</v>
@@ -2312,25 +2312,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1117200</v>
+        <v>1113100</v>
       </c>
       <c r="E58" s="3">
-        <v>1761700</v>
+        <v>1755100</v>
       </c>
       <c r="F58" s="3">
-        <v>1346900</v>
+        <v>1341900</v>
       </c>
       <c r="G58" s="3">
-        <v>1740200</v>
+        <v>1733800</v>
       </c>
       <c r="H58" s="3">
-        <v>790000</v>
+        <v>787000</v>
       </c>
       <c r="I58" s="3">
-        <v>818000</v>
+        <v>815000</v>
       </c>
       <c r="J58" s="3">
-        <v>1639600</v>
+        <v>1633500</v>
       </c>
       <c r="K58" s="3">
         <v>17600</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3642600</v>
+        <v>3629200</v>
       </c>
       <c r="E59" s="3">
-        <v>7051400</v>
+        <v>7025300</v>
       </c>
       <c r="F59" s="3">
-        <v>4562900</v>
+        <v>4546000</v>
       </c>
       <c r="G59" s="3">
-        <v>4354200</v>
+        <v>4338100</v>
       </c>
       <c r="H59" s="3">
-        <v>3969300</v>
+        <v>3954600</v>
       </c>
       <c r="I59" s="3">
-        <v>3996100</v>
+        <v>3981300</v>
       </c>
       <c r="J59" s="3">
-        <v>4059300</v>
+        <v>4044300</v>
       </c>
       <c r="K59" s="3">
         <v>58400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11974100</v>
+        <v>11929800</v>
       </c>
       <c r="E60" s="3">
-        <v>16327800</v>
+        <v>16267400</v>
       </c>
       <c r="F60" s="3">
-        <v>12364900</v>
+        <v>12319100</v>
       </c>
       <c r="G60" s="3">
-        <v>12963600</v>
+        <v>12915700</v>
       </c>
       <c r="H60" s="3">
-        <v>11230900</v>
+        <v>11189300</v>
       </c>
       <c r="I60" s="3">
-        <v>9398700</v>
+        <v>9363900</v>
       </c>
       <c r="J60" s="3">
-        <v>10538100</v>
+        <v>10499100</v>
       </c>
       <c r="K60" s="3">
         <v>172700</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7802100</v>
+        <v>7773200</v>
       </c>
       <c r="E61" s="3">
-        <v>5718000</v>
+        <v>5696900</v>
       </c>
       <c r="F61" s="3">
-        <v>5886900</v>
+        <v>5865100</v>
       </c>
       <c r="G61" s="3">
-        <v>6593000</v>
+        <v>6568600</v>
       </c>
       <c r="H61" s="3">
-        <v>8655000</v>
+        <v>8623000</v>
       </c>
       <c r="I61" s="3">
-        <v>10805300</v>
+        <v>10765300</v>
       </c>
       <c r="J61" s="3">
-        <v>8583100</v>
+        <v>8551400</v>
       </c>
       <c r="K61" s="3">
         <v>125100</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5382000</v>
+        <v>5362100</v>
       </c>
       <c r="E62" s="3">
-        <v>4637300</v>
+        <v>4620100</v>
       </c>
       <c r="F62" s="3">
-        <v>4176000</v>
+        <v>4160500</v>
       </c>
       <c r="G62" s="3">
-        <v>3911600</v>
+        <v>3897200</v>
       </c>
       <c r="H62" s="3">
-        <v>4274500</v>
+        <v>4258700</v>
       </c>
       <c r="I62" s="3">
-        <v>3986500</v>
+        <v>3971700</v>
       </c>
       <c r="J62" s="3">
-        <v>3740900</v>
+        <v>3727000</v>
       </c>
       <c r="K62" s="3">
         <v>105600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25263000</v>
+        <v>25169600</v>
       </c>
       <c r="E66" s="3">
-        <v>26792400</v>
+        <v>26693300</v>
       </c>
       <c r="F66" s="3">
-        <v>22535400</v>
+        <v>22452100</v>
       </c>
       <c r="G66" s="3">
-        <v>23568900</v>
+        <v>23481800</v>
       </c>
       <c r="H66" s="3">
-        <v>24252100</v>
+        <v>24162400</v>
       </c>
       <c r="I66" s="3">
-        <v>24310800</v>
+        <v>24220900</v>
       </c>
       <c r="J66" s="3">
-        <v>23005300</v>
+        <v>22920200</v>
       </c>
       <c r="K66" s="3">
         <v>407100</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>56171500</v>
+        <v>55963800</v>
       </c>
       <c r="E72" s="3">
-        <v>57233900</v>
+        <v>57022300</v>
       </c>
       <c r="F72" s="3">
-        <v>56245700</v>
+        <v>56037700</v>
       </c>
       <c r="G72" s="3">
-        <v>48715900</v>
+        <v>48535800</v>
       </c>
       <c r="H72" s="3">
-        <v>45046300</v>
+        <v>44879800</v>
       </c>
       <c r="I72" s="3">
-        <v>45069300</v>
+        <v>44902600</v>
       </c>
       <c r="J72" s="3">
-        <v>42574400</v>
+        <v>42417000</v>
       </c>
       <c r="K72" s="3">
         <v>1078100</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55743100</v>
+        <v>55537000</v>
       </c>
       <c r="E76" s="3">
-        <v>53611700</v>
+        <v>53413500</v>
       </c>
       <c r="F76" s="3">
-        <v>54966400</v>
+        <v>54763100</v>
       </c>
       <c r="G76" s="3">
-        <v>47089500</v>
+        <v>46915300</v>
       </c>
       <c r="H76" s="3">
-        <v>43546300</v>
+        <v>43385300</v>
       </c>
       <c r="I76" s="3">
-        <v>43567800</v>
+        <v>43406600</v>
       </c>
       <c r="J76" s="3">
-        <v>41065400</v>
+        <v>40913500</v>
       </c>
       <c r="K76" s="3">
         <v>1036400</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>205200</v>
+        <v>204400</v>
       </c>
       <c r="E81" s="3">
-        <v>8655200</v>
+        <v>8623200</v>
       </c>
       <c r="F81" s="3">
-        <v>8371200</v>
+        <v>8340300</v>
       </c>
       <c r="G81" s="3">
-        <v>5662200</v>
+        <v>5641300</v>
       </c>
       <c r="H81" s="3">
-        <v>2795900</v>
+        <v>2785500</v>
       </c>
       <c r="I81" s="3">
-        <v>3936100</v>
+        <v>3921600</v>
       </c>
       <c r="J81" s="3">
-        <v>5347500</v>
+        <v>5327700</v>
       </c>
       <c r="K81" s="3">
         <v>103300</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5481500</v>
+        <v>5461300</v>
       </c>
       <c r="E83" s="3">
-        <v>5612100</v>
+        <v>5591300</v>
       </c>
       <c r="F83" s="3">
-        <v>4638500</v>
+        <v>4621400</v>
       </c>
       <c r="G83" s="3">
-        <v>4394700</v>
+        <v>4378500</v>
       </c>
       <c r="H83" s="3">
-        <v>4212700</v>
+        <v>4197100</v>
       </c>
       <c r="I83" s="3">
-        <v>4745200</v>
+        <v>4727600</v>
       </c>
       <c r="J83" s="3">
-        <v>3962100</v>
+        <v>3947400</v>
       </c>
       <c r="K83" s="3">
         <v>75900</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10499300</v>
+        <v>10460500</v>
       </c>
       <c r="E89" s="3">
-        <v>15572900</v>
+        <v>15515300</v>
       </c>
       <c r="F89" s="3">
-        <v>13609900</v>
+        <v>13559600</v>
       </c>
       <c r="G89" s="3">
-        <v>10254800</v>
+        <v>10216900</v>
       </c>
       <c r="H89" s="3">
-        <v>10170300</v>
+        <v>10132700</v>
       </c>
       <c r="I89" s="3">
-        <v>11478100</v>
+        <v>11435700</v>
       </c>
       <c r="J89" s="3">
-        <v>8807100</v>
+        <v>8774600</v>
       </c>
       <c r="K89" s="3">
         <v>217000</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6698400</v>
+        <v>-6673600</v>
       </c>
       <c r="E91" s="3">
-        <v>-6083700</v>
+        <v>-6061200</v>
       </c>
       <c r="F91" s="3">
-        <v>-6104600</v>
+        <v>-6082100</v>
       </c>
       <c r="G91" s="3">
-        <v>-6915400</v>
+        <v>-6889900</v>
       </c>
       <c r="H91" s="3">
-        <v>-6721200</v>
+        <v>-6696300</v>
       </c>
       <c r="I91" s="3">
-        <v>-8120600</v>
+        <v>-8090600</v>
       </c>
       <c r="J91" s="3">
-        <v>-7787300</v>
+        <v>-7758500</v>
       </c>
       <c r="K91" s="3">
         <v>-197300</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6662200</v>
+        <v>-6637600</v>
       </c>
       <c r="E94" s="3">
-        <v>-6896900</v>
+        <v>-6871400</v>
       </c>
       <c r="F94" s="3">
-        <v>-5683700</v>
+        <v>-5662700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5858000</v>
+        <v>-5836400</v>
       </c>
       <c r="H94" s="3">
-        <v>-6764600</v>
+        <v>-6739600</v>
       </c>
       <c r="I94" s="3">
-        <v>-7107800</v>
+        <v>-7081500</v>
       </c>
       <c r="J94" s="3">
-        <v>-7819600</v>
+        <v>-7790700</v>
       </c>
       <c r="K94" s="3">
         <v>-245800</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5506800</v>
+        <v>-5486500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2443700</v>
+        <v>-2434700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2141200</v>
+        <v>-2133200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1876700</v>
+        <v>-1869800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1721700</v>
+        <v>-1715300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1512300</v>
+        <v>-1506700</v>
       </c>
       <c r="J96" s="3">
-        <v>-671300</v>
+        <v>-668800</v>
       </c>
       <c r="K96" s="3">
         <v>-31400</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6949300</v>
+        <v>-6923600</v>
       </c>
       <c r="E100" s="3">
-        <v>-7873300</v>
+        <v>-7844200</v>
       </c>
       <c r="F100" s="3">
-        <v>-6334800</v>
+        <v>-6311400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3344800</v>
+        <v>-3332400</v>
       </c>
       <c r="H100" s="3">
-        <v>-2611200</v>
+        <v>-2601500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3421400</v>
+        <v>-3408800</v>
       </c>
       <c r="J100" s="3">
-        <v>407500</v>
+        <v>406000</v>
       </c>
       <c r="K100" s="3">
         <v>13600</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>784200</v>
+        <v>781300</v>
       </c>
       <c r="E101" s="3">
-        <v>-486600</v>
+        <v>-484800</v>
       </c>
       <c r="F101" s="3">
-        <v>602300</v>
+        <v>600100</v>
       </c>
       <c r="G101" s="3">
-        <v>-118800</v>
+        <v>-118300</v>
       </c>
       <c r="H101" s="3">
-        <v>-739000</v>
+        <v>-736300</v>
       </c>
       <c r="I101" s="3">
-        <v>244100</v>
+        <v>243200</v>
       </c>
       <c r="J101" s="3">
-        <v>308600</v>
+        <v>307500</v>
       </c>
       <c r="K101" s="3">
         <v>-500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2328100</v>
+        <v>-2319500</v>
       </c>
       <c r="E102" s="3">
-        <v>316100</v>
+        <v>315000</v>
       </c>
       <c r="F102" s="3">
-        <v>2193800</v>
+        <v>2185600</v>
       </c>
       <c r="G102" s="3">
-        <v>933200</v>
+        <v>929700</v>
       </c>
       <c r="H102" s="3">
-        <v>55500</v>
+        <v>55300</v>
       </c>
       <c r="I102" s="3">
-        <v>1193000</v>
+        <v>1188600</v>
       </c>
       <c r="J102" s="3">
-        <v>1703700</v>
+        <v>1697400</v>
       </c>
       <c r="K102" s="3">
         <v>-15900</v>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,177 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75962700</v>
+        <v>74632000</v>
       </c>
       <c r="E8" s="3">
-        <v>105621600</v>
+        <v>44607700</v>
       </c>
       <c r="F8" s="3">
-        <v>108243400</v>
+        <v>62024300</v>
       </c>
       <c r="G8" s="3">
-        <v>79967400</v>
+        <v>63563900</v>
       </c>
       <c r="H8" s="3">
-        <v>70408300</v>
+        <v>46959300</v>
       </c>
       <c r="I8" s="3">
-        <v>77439700</v>
+        <v>41345900</v>
       </c>
       <c r="J8" s="3">
+        <v>45475000</v>
+      </c>
+      <c r="K8" s="3">
         <v>74150400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1865800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2197500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2028800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>40422300</v>
+        <v>43385000</v>
       </c>
       <c r="E9" s="3">
-        <v>58029700</v>
+        <v>23737200</v>
       </c>
       <c r="F9" s="3">
-        <v>61076300</v>
+        <v>34076900</v>
       </c>
       <c r="G9" s="3">
-        <v>42159300</v>
+        <v>35865900</v>
       </c>
       <c r="H9" s="3">
-        <v>35153500</v>
+        <v>24757200</v>
       </c>
       <c r="I9" s="3">
-        <v>38950800</v>
+        <v>20643200</v>
       </c>
       <c r="J9" s="3">
+        <v>22873100</v>
+      </c>
+      <c r="K9" s="3">
         <v>37471600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>869500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1012900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>906200</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>35540400</v>
+        <v>31247000</v>
       </c>
       <c r="E10" s="3">
-        <v>47591800</v>
+        <v>20870400</v>
       </c>
       <c r="F10" s="3">
-        <v>47167200</v>
+        <v>27947400</v>
       </c>
       <c r="G10" s="3">
-        <v>37808100</v>
+        <v>27698000</v>
       </c>
       <c r="H10" s="3">
-        <v>35254800</v>
+        <v>22202100</v>
       </c>
       <c r="I10" s="3">
-        <v>38488900</v>
+        <v>20702700</v>
       </c>
       <c r="J10" s="3">
+        <v>22601800</v>
+      </c>
+      <c r="K10" s="3">
         <v>36678800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>996200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1184600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1122700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>82400</v>
+        <v>56000</v>
       </c>
       <c r="E12" s="3">
-        <v>125900</v>
+        <v>48400</v>
       </c>
       <c r="F12" s="3">
-        <v>48200</v>
+        <v>73900</v>
       </c>
       <c r="G12" s="3">
-        <v>166300</v>
+        <v>28300</v>
       </c>
       <c r="H12" s="3">
-        <v>111700</v>
+        <v>97700</v>
       </c>
       <c r="I12" s="3">
-        <v>393000</v>
+        <v>65600</v>
       </c>
       <c r="J12" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K12" s="3">
         <v>164700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>8100</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,35 +925,38 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1544500</v>
+        <v>289900</v>
       </c>
       <c r="E14" s="3">
-        <v>308200</v>
+        <v>907000</v>
       </c>
       <c r="F14" s="3">
-        <v>158000</v>
+        <v>181000</v>
       </c>
       <c r="G14" s="3">
-        <v>39600</v>
+        <v>92800</v>
       </c>
       <c r="H14" s="3">
-        <v>115600</v>
+        <v>23200</v>
       </c>
       <c r="I14" s="3">
-        <v>2502200</v>
+        <v>67900</v>
       </c>
       <c r="J14" s="3">
+        <v>1469300</v>
+      </c>
+      <c r="K14" s="3">
         <v>1012300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -947,45 +964,51 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5461300</v>
+        <v>3365400</v>
       </c>
       <c r="E15" s="3">
-        <v>5591300</v>
+        <v>3207000</v>
       </c>
       <c r="F15" s="3">
-        <v>4621400</v>
+        <v>3283400</v>
       </c>
       <c r="G15" s="3">
-        <v>4378500</v>
+        <v>2713800</v>
       </c>
       <c r="H15" s="3">
-        <v>4197100</v>
+        <v>2571200</v>
       </c>
       <c r="I15" s="3">
-        <v>4727600</v>
+        <v>2464700</v>
       </c>
       <c r="J15" s="3">
+        <v>2776200</v>
+      </c>
+      <c r="K15" s="3">
         <v>3947400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>75900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>76300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>67900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>73713400</v>
+        <v>67178400</v>
       </c>
       <c r="E17" s="3">
-        <v>94869600</v>
+        <v>43286800</v>
       </c>
       <c r="F17" s="3">
-        <v>98006400</v>
+        <v>55710400</v>
       </c>
       <c r="G17" s="3">
-        <v>73184200</v>
+        <v>57552400</v>
       </c>
       <c r="H17" s="3">
-        <v>64878000</v>
+        <v>42976000</v>
       </c>
       <c r="I17" s="3">
-        <v>73668500</v>
+        <v>38098400</v>
       </c>
       <c r="J17" s="3">
+        <v>43260400</v>
+      </c>
+      <c r="K17" s="3">
         <v>69608500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1730600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1975300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1829100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2249300</v>
+        <v>7453600</v>
       </c>
       <c r="E18" s="3">
-        <v>10752000</v>
+        <v>1320900</v>
       </c>
       <c r="F18" s="3">
-        <v>10237000</v>
+        <v>6313900</v>
       </c>
       <c r="G18" s="3">
-        <v>6783200</v>
+        <v>6011500</v>
       </c>
       <c r="H18" s="3">
-        <v>5530300</v>
+        <v>3983300</v>
       </c>
       <c r="I18" s="3">
-        <v>3771200</v>
+        <v>3247600</v>
       </c>
       <c r="J18" s="3">
+        <v>2214600</v>
+      </c>
+      <c r="K18" s="3">
         <v>4541900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>135200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>222200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>199700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-415800</v>
+        <v>445100</v>
       </c>
       <c r="E20" s="3">
-        <v>461800</v>
+        <v>-244200</v>
       </c>
       <c r="F20" s="3">
-        <v>609100</v>
+        <v>271200</v>
       </c>
       <c r="G20" s="3">
-        <v>588900</v>
+        <v>357700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1316900</v>
+        <v>345800</v>
       </c>
       <c r="I20" s="3">
-        <v>2063800</v>
+        <v>-773300</v>
       </c>
       <c r="J20" s="3">
+        <v>1211900</v>
+      </c>
+      <c r="K20" s="3">
         <v>2318300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>7217800</v>
+        <v>11170500</v>
       </c>
       <c r="E21" s="3">
-        <v>16726200</v>
+        <v>4194500</v>
       </c>
       <c r="F21" s="3">
-        <v>15402300</v>
+        <v>9777100</v>
       </c>
       <c r="G21" s="3">
-        <v>11688800</v>
+        <v>9007500</v>
       </c>
       <c r="H21" s="3">
-        <v>8351300</v>
+        <v>6828800</v>
       </c>
       <c r="I21" s="3">
-        <v>10496000</v>
+        <v>4870300</v>
       </c>
       <c r="J21" s="3">
+        <v>6125500</v>
+      </c>
+      <c r="K21" s="3">
         <v>10751900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>220500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>302100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>277600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>502900</v>
+        <v>250000</v>
       </c>
       <c r="E22" s="3">
-        <v>527300</v>
+        <v>295300</v>
       </c>
       <c r="F22" s="3">
-        <v>433600</v>
+        <v>309600</v>
       </c>
       <c r="G22" s="3">
-        <v>311400</v>
+        <v>254600</v>
       </c>
       <c r="H22" s="3">
-        <v>542600</v>
+        <v>182800</v>
       </c>
       <c r="I22" s="3">
-        <v>593800</v>
+        <v>318600</v>
       </c>
       <c r="J22" s="3">
+        <v>348700</v>
+      </c>
+      <c r="K22" s="3">
         <v>329200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10500</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1330700</v>
+        <v>7648700</v>
       </c>
       <c r="E23" s="3">
-        <v>10686500</v>
+        <v>781400</v>
       </c>
       <c r="F23" s="3">
-        <v>10412600</v>
+        <v>6275400</v>
       </c>
       <c r="G23" s="3">
-        <v>7060800</v>
+        <v>6114600</v>
       </c>
       <c r="H23" s="3">
-        <v>3670800</v>
+        <v>4146300</v>
       </c>
       <c r="I23" s="3">
-        <v>5241200</v>
+        <v>2155600</v>
       </c>
       <c r="J23" s="3">
+        <v>3077800</v>
+      </c>
+      <c r="K23" s="3">
         <v>6531000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>137900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>216700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>199100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1106600</v>
+        <v>1514400</v>
       </c>
       <c r="E24" s="3">
-        <v>2035800</v>
+        <v>649800</v>
       </c>
       <c r="F24" s="3">
-        <v>2046300</v>
+        <v>1195500</v>
       </c>
       <c r="G24" s="3">
-        <v>1397700</v>
+        <v>1201700</v>
       </c>
       <c r="H24" s="3">
-        <v>873800</v>
+        <v>820800</v>
       </c>
       <c r="I24" s="3">
-        <v>1298000</v>
+        <v>513100</v>
       </c>
       <c r="J24" s="3">
+        <v>762200</v>
+      </c>
+      <c r="K24" s="3">
         <v>1222800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>224000</v>
+        <v>6134300</v>
       </c>
       <c r="E26" s="3">
-        <v>8650700</v>
+        <v>131600</v>
       </c>
       <c r="F26" s="3">
-        <v>8366200</v>
+        <v>5080000</v>
       </c>
       <c r="G26" s="3">
-        <v>5663100</v>
+        <v>4912900</v>
       </c>
       <c r="H26" s="3">
-        <v>2796900</v>
+        <v>3325500</v>
       </c>
       <c r="I26" s="3">
-        <v>3943300</v>
+        <v>1642400</v>
       </c>
       <c r="J26" s="3">
+        <v>2315600</v>
+      </c>
+      <c r="K26" s="3">
         <v>5308200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>172500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>149200</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>204400</v>
+        <v>6117900</v>
       </c>
       <c r="E27" s="3">
-        <v>8623200</v>
+        <v>120000</v>
       </c>
       <c r="F27" s="3">
-        <v>8340300</v>
+        <v>5063800</v>
       </c>
       <c r="G27" s="3">
-        <v>5641300</v>
+        <v>4897700</v>
       </c>
       <c r="H27" s="3">
-        <v>2785500</v>
+        <v>3312700</v>
       </c>
       <c r="I27" s="3">
-        <v>3921600</v>
+        <v>1635700</v>
       </c>
       <c r="J27" s="3">
+        <v>2302900</v>
+      </c>
+      <c r="K27" s="3">
         <v>5327700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>173800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>157200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1444,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>415800</v>
+        <v>-445100</v>
       </c>
       <c r="E32" s="3">
-        <v>-461800</v>
+        <v>244200</v>
       </c>
       <c r="F32" s="3">
-        <v>-609100</v>
+        <v>-271200</v>
       </c>
       <c r="G32" s="3">
-        <v>-588900</v>
+        <v>-357700</v>
       </c>
       <c r="H32" s="3">
-        <v>1316900</v>
+        <v>-345800</v>
       </c>
       <c r="I32" s="3">
-        <v>-2063800</v>
+        <v>773300</v>
       </c>
       <c r="J32" s="3">
+        <v>-1211900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2318300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>204400</v>
+        <v>6117900</v>
       </c>
       <c r="E33" s="3">
-        <v>8623200</v>
+        <v>120000</v>
       </c>
       <c r="F33" s="3">
-        <v>8340300</v>
+        <v>5063800</v>
       </c>
       <c r="G33" s="3">
-        <v>5641300</v>
+        <v>4897700</v>
       </c>
       <c r="H33" s="3">
-        <v>2785500</v>
+        <v>3312700</v>
       </c>
       <c r="I33" s="3">
-        <v>3921600</v>
+        <v>1635700</v>
       </c>
       <c r="J33" s="3">
+        <v>2302900</v>
+      </c>
+      <c r="K33" s="3">
         <v>5327700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>173800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>157200</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>204400</v>
+        <v>6117900</v>
       </c>
       <c r="E35" s="3">
-        <v>8623200</v>
+        <v>120000</v>
       </c>
       <c r="F35" s="3">
-        <v>8340300</v>
+        <v>5063800</v>
       </c>
       <c r="G35" s="3">
-        <v>5641300</v>
+        <v>4897700</v>
       </c>
       <c r="H35" s="3">
-        <v>2785500</v>
+        <v>3312700</v>
       </c>
       <c r="I35" s="3">
-        <v>3921600</v>
+        <v>1635700</v>
       </c>
       <c r="J35" s="3">
+        <v>2302900</v>
+      </c>
+      <c r="K35" s="3">
         <v>5327700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>173800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>157200</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4631400</v>
+        <v>5358900</v>
       </c>
       <c r="E41" s="3">
-        <v>6951000</v>
+        <v>2719700</v>
       </c>
       <c r="F41" s="3">
-        <v>6636000</v>
+        <v>4081800</v>
       </c>
       <c r="G41" s="3">
-        <v>4450400</v>
+        <v>3896900</v>
       </c>
       <c r="H41" s="3">
-        <v>3520600</v>
+        <v>2613400</v>
       </c>
       <c r="I41" s="3">
-        <v>3465300</v>
+        <v>2067400</v>
       </c>
       <c r="J41" s="3">
+        <v>2035000</v>
+      </c>
+      <c r="K41" s="3">
         <v>2276700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>46000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41800</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>112500</v>
+        <v>97200</v>
       </c>
       <c r="E42" s="3">
-        <v>669500</v>
+        <v>66000</v>
       </c>
       <c r="F42" s="3">
-        <v>352900</v>
+        <v>393200</v>
       </c>
       <c r="G42" s="3">
-        <v>263500</v>
+        <v>207200</v>
       </c>
       <c r="H42" s="3">
-        <v>228100</v>
+        <v>154700</v>
       </c>
       <c r="I42" s="3">
-        <v>320200</v>
+        <v>133900</v>
       </c>
       <c r="J42" s="3">
+        <v>188000</v>
+      </c>
+      <c r="K42" s="3">
         <v>144100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5699200</v>
+        <v>6683000</v>
       </c>
       <c r="E43" s="3">
-        <v>6775900</v>
+        <v>3346700</v>
       </c>
       <c r="F43" s="3">
-        <v>6604300</v>
+        <v>3979000</v>
       </c>
       <c r="G43" s="3">
-        <v>6420500</v>
+        <v>3878300</v>
       </c>
       <c r="H43" s="3">
-        <v>5858500</v>
+        <v>3770300</v>
       </c>
       <c r="I43" s="3">
-        <v>7033800</v>
+        <v>3440300</v>
       </c>
       <c r="J43" s="3">
+        <v>4130500</v>
+      </c>
+      <c r="K43" s="3">
         <v>8030500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>104800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>136900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>135400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5745400</v>
+        <v>3701600</v>
       </c>
       <c r="E44" s="3">
-        <v>5575400</v>
+        <v>3373900</v>
       </c>
       <c r="F44" s="3">
-        <v>5142000</v>
+        <v>3274000</v>
       </c>
       <c r="G44" s="3">
-        <v>5363600</v>
+        <v>3019500</v>
       </c>
       <c r="H44" s="3">
-        <v>5445700</v>
+        <v>3149700</v>
       </c>
       <c r="I44" s="3">
-        <v>4582400</v>
+        <v>3197900</v>
       </c>
       <c r="J44" s="3">
+        <v>2691000</v>
+      </c>
+      <c r="K44" s="3">
         <v>4589100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>116100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>127900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>114400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1005400</v>
+        <v>1159200</v>
       </c>
       <c r="E45" s="3">
-        <v>963100</v>
+        <v>590400</v>
       </c>
       <c r="F45" s="3">
-        <v>1179900</v>
+        <v>565600</v>
       </c>
       <c r="G45" s="3">
-        <v>1122400</v>
+        <v>692900</v>
       </c>
       <c r="H45" s="3">
-        <v>1860600</v>
+        <v>659100</v>
       </c>
       <c r="I45" s="3">
-        <v>946100</v>
+        <v>1092600</v>
       </c>
       <c r="J45" s="3">
+        <v>555600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1731800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17193900</v>
+        <v>16999800</v>
       </c>
       <c r="E46" s="3">
-        <v>20934900</v>
+        <v>10096800</v>
       </c>
       <c r="F46" s="3">
-        <v>19915100</v>
+        <v>12293600</v>
       </c>
       <c r="G46" s="3">
-        <v>17620300</v>
+        <v>11694800</v>
       </c>
       <c r="H46" s="3">
-        <v>16913500</v>
+        <v>10347200</v>
       </c>
       <c r="I46" s="3">
-        <v>16347800</v>
+        <v>9932100</v>
       </c>
       <c r="J46" s="3">
+        <v>9599900</v>
+      </c>
+      <c r="K46" s="3">
         <v>16652000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>308600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>383300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>357200</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4718900</v>
+        <v>2715300</v>
       </c>
       <c r="E47" s="3">
-        <v>3478400</v>
+        <v>2771100</v>
       </c>
       <c r="F47" s="3">
-        <v>4184100</v>
+        <v>2042600</v>
       </c>
       <c r="G47" s="3">
-        <v>3286700</v>
+        <v>2457000</v>
       </c>
       <c r="H47" s="3">
-        <v>3559000</v>
+        <v>1930100</v>
       </c>
       <c r="I47" s="3">
-        <v>3822900</v>
+        <v>2090000</v>
       </c>
       <c r="J47" s="3">
+        <v>2244900</v>
+      </c>
+      <c r="K47" s="3">
         <v>3245600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>56100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>90400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>57442500</v>
+        <v>33721400</v>
       </c>
       <c r="E48" s="3">
-        <v>54230300</v>
+        <v>33732000</v>
       </c>
       <c r="F48" s="3">
-        <v>51578800</v>
+        <v>31845700</v>
       </c>
       <c r="G48" s="3">
-        <v>48157500</v>
+        <v>30288700</v>
       </c>
       <c r="H48" s="3">
-        <v>45681700</v>
+        <v>28279600</v>
       </c>
       <c r="I48" s="3">
-        <v>45948200</v>
+        <v>26825700</v>
       </c>
       <c r="J48" s="3">
+        <v>26982200</v>
+      </c>
+      <c r="K48" s="3">
         <v>42478700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1035000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1056100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>862300</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>675600</v>
+        <v>350700</v>
       </c>
       <c r="E49" s="3">
-        <v>580700</v>
+        <v>396800</v>
       </c>
       <c r="F49" s="3">
-        <v>562600</v>
+        <v>341000</v>
       </c>
       <c r="G49" s="3">
-        <v>556400</v>
+        <v>330400</v>
       </c>
       <c r="H49" s="3">
-        <v>581000</v>
+        <v>326700</v>
       </c>
       <c r="I49" s="3">
-        <v>697100</v>
+        <v>341200</v>
       </c>
       <c r="J49" s="3">
+        <v>409300</v>
+      </c>
+      <c r="K49" s="3">
         <v>775600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>675600</v>
+        <v>513000</v>
       </c>
       <c r="E52" s="3">
-        <v>882500</v>
+        <v>396700</v>
       </c>
       <c r="F52" s="3">
-        <v>974600</v>
+        <v>518200</v>
       </c>
       <c r="G52" s="3">
-        <v>776300</v>
+        <v>572300</v>
       </c>
       <c r="H52" s="3">
-        <v>812400</v>
+        <v>455800</v>
       </c>
       <c r="I52" s="3">
-        <v>811500</v>
+        <v>477100</v>
       </c>
       <c r="J52" s="3">
+        <v>476600</v>
+      </c>
+      <c r="K52" s="3">
         <v>718200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>27100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54100</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>80706600</v>
+        <v>54300200</v>
       </c>
       <c r="E54" s="3">
-        <v>80106800</v>
+        <v>47393400</v>
       </c>
       <c r="F54" s="3">
-        <v>77215200</v>
+        <v>47041200</v>
       </c>
       <c r="G54" s="3">
-        <v>70397100</v>
+        <v>45343100</v>
       </c>
       <c r="H54" s="3">
-        <v>67547600</v>
+        <v>41339400</v>
       </c>
       <c r="I54" s="3">
-        <v>67627600</v>
+        <v>39666100</v>
       </c>
       <c r="J54" s="3">
+        <v>39713000</v>
+      </c>
+      <c r="K54" s="3">
         <v>63833700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1443500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1562600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1384300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7187600</v>
+        <v>5551700</v>
       </c>
       <c r="E57" s="3">
-        <v>7486900</v>
+        <v>4220800</v>
       </c>
       <c r="F57" s="3">
-        <v>6431200</v>
+        <v>4396600</v>
       </c>
       <c r="G57" s="3">
-        <v>6843800</v>
+        <v>3776600</v>
       </c>
       <c r="H57" s="3">
-        <v>6447700</v>
+        <v>4018900</v>
       </c>
       <c r="I57" s="3">
-        <v>4567600</v>
+        <v>3786300</v>
       </c>
       <c r="J57" s="3">
+        <v>2682200</v>
+      </c>
+      <c r="K57" s="3">
         <v>4960500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>96700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>114700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>91000</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1113100</v>
+        <v>634800</v>
       </c>
       <c r="E58" s="3">
-        <v>1755100</v>
+        <v>653700</v>
       </c>
       <c r="F58" s="3">
-        <v>1341900</v>
+        <v>1030700</v>
       </c>
       <c r="G58" s="3">
-        <v>1733800</v>
+        <v>788000</v>
       </c>
       <c r="H58" s="3">
-        <v>787000</v>
+        <v>1018100</v>
       </c>
       <c r="I58" s="3">
-        <v>815000</v>
+        <v>462200</v>
       </c>
       <c r="J58" s="3">
+        <v>478600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1633500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>17600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>10400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>27200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3629200</v>
+        <v>3658900</v>
       </c>
       <c r="E59" s="3">
-        <v>7025300</v>
+        <v>2131200</v>
       </c>
       <c r="F59" s="3">
-        <v>4546000</v>
+        <v>4125500</v>
       </c>
       <c r="G59" s="3">
-        <v>4338100</v>
+        <v>2669600</v>
       </c>
       <c r="H59" s="3">
-        <v>3954600</v>
+        <v>2547500</v>
       </c>
       <c r="I59" s="3">
-        <v>3981300</v>
+        <v>2322200</v>
       </c>
       <c r="J59" s="3">
+        <v>2338000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4044300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50400</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11929800</v>
+        <v>9845400</v>
       </c>
       <c r="E60" s="3">
-        <v>16267400</v>
+        <v>7005600</v>
       </c>
       <c r="F60" s="3">
-        <v>12319100</v>
+        <v>9552700</v>
       </c>
       <c r="G60" s="3">
-        <v>12915700</v>
+        <v>7234200</v>
       </c>
       <c r="H60" s="3">
-        <v>11189300</v>
+        <v>7584500</v>
       </c>
       <c r="I60" s="3">
-        <v>9363900</v>
+        <v>6570700</v>
       </c>
       <c r="J60" s="3">
+        <v>5498800</v>
+      </c>
+      <c r="K60" s="3">
         <v>10499100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>172700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>196600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>168600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7773200</v>
+        <v>5360600</v>
       </c>
       <c r="E61" s="3">
-        <v>5696900</v>
+        <v>4564700</v>
       </c>
       <c r="F61" s="3">
-        <v>5865100</v>
+        <v>3345400</v>
       </c>
       <c r="G61" s="3">
-        <v>6568600</v>
+        <v>3444200</v>
       </c>
       <c r="H61" s="3">
-        <v>8623000</v>
+        <v>3857300</v>
       </c>
       <c r="I61" s="3">
-        <v>10765300</v>
+        <v>5063700</v>
       </c>
       <c r="J61" s="3">
+        <v>6321700</v>
+      </c>
+      <c r="K61" s="3">
         <v>8551400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>125100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>94200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>110800</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5362100</v>
+        <v>3315800</v>
       </c>
       <c r="E62" s="3">
-        <v>4620100</v>
+        <v>3148800</v>
       </c>
       <c r="F62" s="3">
-        <v>4160500</v>
+        <v>2713100</v>
       </c>
       <c r="G62" s="3">
-        <v>3897200</v>
+        <v>2443200</v>
       </c>
       <c r="H62" s="3">
-        <v>4258700</v>
+        <v>2288500</v>
       </c>
       <c r="I62" s="3">
-        <v>3971700</v>
+        <v>2500800</v>
       </c>
       <c r="J62" s="3">
+        <v>2332300</v>
+      </c>
+      <c r="K62" s="3">
         <v>3727000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>105600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80700</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>25169600</v>
+        <v>18586200</v>
       </c>
       <c r="E66" s="3">
-        <v>26693300</v>
+        <v>14780300</v>
       </c>
       <c r="F66" s="3">
-        <v>22452100</v>
+        <v>15675100</v>
       </c>
       <c r="G66" s="3">
-        <v>23481800</v>
+        <v>13184600</v>
       </c>
       <c r="H66" s="3">
-        <v>24162400</v>
+        <v>13789200</v>
       </c>
       <c r="I66" s="3">
-        <v>24220900</v>
+        <v>14188900</v>
       </c>
       <c r="J66" s="3">
+        <v>14223300</v>
+      </c>
+      <c r="K66" s="3">
         <v>22920200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>407100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>406700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>357500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>55963800</v>
+        <v>36074200</v>
       </c>
       <c r="E72" s="3">
-        <v>57022300</v>
+        <v>32863700</v>
       </c>
       <c r="F72" s="3">
-        <v>56037700</v>
+        <v>33485200</v>
       </c>
       <c r="G72" s="3">
-        <v>48535800</v>
+        <v>32907000</v>
       </c>
       <c r="H72" s="3">
-        <v>44879800</v>
+        <v>28501700</v>
       </c>
       <c r="I72" s="3">
-        <v>44902600</v>
+        <v>26354800</v>
       </c>
       <c r="J72" s="3">
+        <v>26368200</v>
+      </c>
+      <c r="K72" s="3">
         <v>42417000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1078100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1203500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1031300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55537000</v>
+        <v>35713900</v>
       </c>
       <c r="E76" s="3">
-        <v>53413500</v>
+        <v>32613000</v>
       </c>
       <c r="F76" s="3">
-        <v>54763100</v>
+        <v>31366000</v>
       </c>
       <c r="G76" s="3">
-        <v>46915300</v>
+        <v>32158600</v>
       </c>
       <c r="H76" s="3">
-        <v>43385300</v>
+        <v>27550100</v>
       </c>
       <c r="I76" s="3">
-        <v>43406600</v>
+        <v>25477200</v>
       </c>
       <c r="J76" s="3">
+        <v>25489700</v>
+      </c>
+      <c r="K76" s="3">
         <v>40913500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1036400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1155900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1026700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>204400</v>
+        <v>6117900</v>
       </c>
       <c r="E81" s="3">
-        <v>8623200</v>
+        <v>120000</v>
       </c>
       <c r="F81" s="3">
-        <v>8340300</v>
+        <v>5063800</v>
       </c>
       <c r="G81" s="3">
-        <v>5641300</v>
+        <v>4897700</v>
       </c>
       <c r="H81" s="3">
-        <v>2785500</v>
+        <v>3312700</v>
       </c>
       <c r="I81" s="3">
-        <v>3921600</v>
+        <v>1635700</v>
       </c>
       <c r="J81" s="3">
+        <v>2302900</v>
+      </c>
+      <c r="K81" s="3">
         <v>5327700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>173800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>157200</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5461300</v>
+        <v>3365400</v>
       </c>
       <c r="E83" s="3">
-        <v>5591300</v>
+        <v>3207000</v>
       </c>
       <c r="F83" s="3">
-        <v>4621400</v>
+        <v>3283400</v>
       </c>
       <c r="G83" s="3">
-        <v>4378500</v>
+        <v>2713800</v>
       </c>
       <c r="H83" s="3">
-        <v>4197100</v>
+        <v>2571200</v>
       </c>
       <c r="I83" s="3">
-        <v>4727600</v>
+        <v>2464700</v>
       </c>
       <c r="J83" s="3">
+        <v>2776200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3947400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>76300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>67900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10460500</v>
+        <v>8911500</v>
       </c>
       <c r="E89" s="3">
-        <v>15515300</v>
+        <v>6142700</v>
       </c>
       <c r="F89" s="3">
-        <v>13559600</v>
+        <v>9111100</v>
       </c>
       <c r="G89" s="3">
-        <v>10216900</v>
+        <v>7962600</v>
       </c>
       <c r="H89" s="3">
-        <v>10132700</v>
+        <v>5999700</v>
       </c>
       <c r="I89" s="3">
-        <v>11435700</v>
+        <v>5950300</v>
       </c>
       <c r="J89" s="3">
+        <v>6715400</v>
+      </c>
+      <c r="K89" s="3">
         <v>8774600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>217000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>235500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6673600</v>
+        <v>-3425400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6061200</v>
+        <v>-3919000</v>
       </c>
       <c r="F91" s="3">
-        <v>-6082100</v>
+        <v>-3559300</v>
       </c>
       <c r="G91" s="3">
-        <v>-6889900</v>
+        <v>-3571600</v>
       </c>
       <c r="H91" s="3">
-        <v>-6696300</v>
+        <v>-4045900</v>
       </c>
       <c r="I91" s="3">
-        <v>-8090600</v>
+        <v>-3932300</v>
       </c>
       <c r="J91" s="3">
+        <v>-4751100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7758500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-197300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-125200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6637600</v>
+        <v>-3465000</v>
       </c>
       <c r="E94" s="3">
-        <v>-6871400</v>
+        <v>-3897800</v>
       </c>
       <c r="F94" s="3">
-        <v>-5662700</v>
+        <v>-4035100</v>
       </c>
       <c r="G94" s="3">
-        <v>-5836400</v>
+        <v>-3325300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6739600</v>
+        <v>-3427300</v>
       </c>
       <c r="I94" s="3">
-        <v>-7081500</v>
+        <v>-3957700</v>
       </c>
       <c r="J94" s="3">
+        <v>-4158500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7790700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-245800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-208700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-136800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5486500</v>
+        <v>-2829200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2434700</v>
+        <v>-3221800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2133200</v>
+        <v>-1429700</v>
       </c>
       <c r="G96" s="3">
-        <v>-1869800</v>
+        <v>-1252700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1715300</v>
+        <v>-1098000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1506700</v>
+        <v>-1007300</v>
       </c>
       <c r="J96" s="3">
+        <v>-884800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-668800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-44200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-26000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6923600</v>
+        <v>-2803100</v>
       </c>
       <c r="E100" s="3">
-        <v>-7844200</v>
+        <v>-4065800</v>
       </c>
       <c r="F100" s="3">
-        <v>-6311400</v>
+        <v>-4606300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3332400</v>
+        <v>-3706200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2601500</v>
+        <v>-1956900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3408800</v>
+        <v>-1527700</v>
       </c>
       <c r="J100" s="3">
+        <v>-2001700</v>
+      </c>
+      <c r="K100" s="3">
         <v>406000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-89700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-91400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>781300</v>
+        <v>-4200</v>
       </c>
       <c r="E101" s="3">
-        <v>-484800</v>
+        <v>458800</v>
       </c>
       <c r="F101" s="3">
-        <v>600100</v>
+        <v>-284700</v>
       </c>
       <c r="G101" s="3">
-        <v>-118300</v>
+        <v>352400</v>
       </c>
       <c r="H101" s="3">
-        <v>-736300</v>
+        <v>-69500</v>
       </c>
       <c r="I101" s="3">
-        <v>243200</v>
+        <v>-432400</v>
       </c>
       <c r="J101" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K101" s="3">
         <v>307500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2319500</v>
+        <v>2639200</v>
       </c>
       <c r="E102" s="3">
-        <v>315000</v>
+        <v>-1362100</v>
       </c>
       <c r="F102" s="3">
-        <v>2185600</v>
+        <v>185000</v>
       </c>
       <c r="G102" s="3">
-        <v>929700</v>
+        <v>1283500</v>
       </c>
       <c r="H102" s="3">
-        <v>55300</v>
+        <v>546000</v>
       </c>
       <c r="I102" s="3">
-        <v>1188600</v>
+        <v>32500</v>
       </c>
       <c r="J102" s="3">
+        <v>698000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1697400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/LUKOY_YR_FIN.xlsx
@@ -665,7 +665,10 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -723,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>74632000</v>
+        <v>151528400</v>
       </c>
       <c r="E8" s="3">
-        <v>44607700</v>
+        <v>90568800</v>
       </c>
       <c r="F8" s="3">
-        <v>62024300</v>
+        <v>125930400</v>
       </c>
       <c r="G8" s="3">
-        <v>63563900</v>
+        <v>129056400</v>
       </c>
       <c r="H8" s="3">
-        <v>46959300</v>
+        <v>95343500</v>
       </c>
       <c r="I8" s="3">
-        <v>41345900</v>
+        <v>83946300</v>
       </c>
       <c r="J8" s="3">
-        <v>45475000</v>
+        <v>92329700</v>
       </c>
       <c r="K8" s="3">
         <v>74150400</v>
@@ -762,25 +765,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>43385000</v>
+        <v>88086300</v>
       </c>
       <c r="E9" s="3">
-        <v>23737200</v>
+        <v>48194700</v>
       </c>
       <c r="F9" s="3">
-        <v>34076900</v>
+        <v>69187700</v>
       </c>
       <c r="G9" s="3">
-        <v>35865900</v>
+        <v>72820000</v>
       </c>
       <c r="H9" s="3">
-        <v>24757200</v>
+        <v>50265600</v>
       </c>
       <c r="I9" s="3">
-        <v>20643200</v>
+        <v>41912800</v>
       </c>
       <c r="J9" s="3">
-        <v>22873100</v>
+        <v>46440300</v>
       </c>
       <c r="K9" s="3">
         <v>37471600</v>
@@ -801,25 +804,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31247000</v>
+        <v>63442100</v>
       </c>
       <c r="E10" s="3">
-        <v>20870400</v>
+        <v>42374100</v>
       </c>
       <c r="F10" s="3">
-        <v>27947400</v>
+        <v>56742800</v>
       </c>
       <c r="G10" s="3">
-        <v>27698000</v>
+        <v>56236400</v>
       </c>
       <c r="H10" s="3">
-        <v>22202100</v>
+        <v>45077900</v>
       </c>
       <c r="I10" s="3">
-        <v>20702700</v>
+        <v>42033500</v>
       </c>
       <c r="J10" s="3">
-        <v>22601800</v>
+        <v>45889500</v>
       </c>
       <c r="K10" s="3">
         <v>36678800</v>
@@ -857,25 +860,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>56000</v>
+        <v>113600</v>
       </c>
       <c r="E12" s="3">
-        <v>48400</v>
+        <v>98200</v>
       </c>
       <c r="F12" s="3">
-        <v>73900</v>
+        <v>150100</v>
       </c>
       <c r="G12" s="3">
-        <v>28300</v>
+        <v>57500</v>
       </c>
       <c r="H12" s="3">
-        <v>97700</v>
+        <v>198300</v>
       </c>
       <c r="I12" s="3">
-        <v>65600</v>
+        <v>133200</v>
       </c>
       <c r="J12" s="3">
-        <v>230800</v>
+        <v>468600</v>
       </c>
       <c r="K12" s="3">
         <v>164700</v>
@@ -935,25 +938,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>289900</v>
+        <v>588600</v>
       </c>
       <c r="E14" s="3">
-        <v>907000</v>
+        <v>1841500</v>
       </c>
       <c r="F14" s="3">
-        <v>181000</v>
+        <v>367500</v>
       </c>
       <c r="G14" s="3">
-        <v>92800</v>
+        <v>188300</v>
       </c>
       <c r="H14" s="3">
-        <v>23200</v>
+        <v>47200</v>
       </c>
       <c r="I14" s="3">
-        <v>67900</v>
+        <v>137800</v>
       </c>
       <c r="J14" s="3">
-        <v>1469300</v>
+        <v>2983300</v>
       </c>
       <c r="K14" s="3">
         <v>1012300</v>
@@ -974,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3365400</v>
+        <v>6833000</v>
       </c>
       <c r="E15" s="3">
-        <v>3207000</v>
+        <v>6511400</v>
       </c>
       <c r="F15" s="3">
-        <v>3283400</v>
+        <v>6666400</v>
       </c>
       <c r="G15" s="3">
-        <v>2713800</v>
+        <v>5509900</v>
       </c>
       <c r="H15" s="3">
-        <v>2571200</v>
+        <v>5220400</v>
       </c>
       <c r="I15" s="3">
-        <v>2464700</v>
+        <v>5004100</v>
       </c>
       <c r="J15" s="3">
-        <v>2776200</v>
+        <v>5636700</v>
       </c>
       <c r="K15" s="3">
         <v>3947400</v>
@@ -1027,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>67178400</v>
+        <v>136395100</v>
       </c>
       <c r="E17" s="3">
-        <v>43286800</v>
+        <v>87886900</v>
       </c>
       <c r="F17" s="3">
-        <v>55710400</v>
+        <v>113111100</v>
       </c>
       <c r="G17" s="3">
-        <v>57552400</v>
+        <v>116851000</v>
       </c>
       <c r="H17" s="3">
-        <v>42976000</v>
+        <v>87256000</v>
       </c>
       <c r="I17" s="3">
-        <v>38098400</v>
+        <v>77352700</v>
       </c>
       <c r="J17" s="3">
-        <v>43260400</v>
+        <v>87833400</v>
       </c>
       <c r="K17" s="3">
         <v>69608500</v>
@@ -1066,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7453600</v>
+        <v>15133300</v>
       </c>
       <c r="E18" s="3">
-        <v>1320900</v>
+        <v>2681800</v>
       </c>
       <c r="F18" s="3">
-        <v>6313900</v>
+        <v>12819300</v>
       </c>
       <c r="G18" s="3">
-        <v>6011500</v>
+        <v>12205400</v>
       </c>
       <c r="H18" s="3">
-        <v>3983300</v>
+        <v>8087500</v>
       </c>
       <c r="I18" s="3">
-        <v>3247600</v>
+        <v>6593600</v>
       </c>
       <c r="J18" s="3">
-        <v>2214600</v>
+        <v>4496300</v>
       </c>
       <c r="K18" s="3">
         <v>4541900</v>
@@ -1122,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>445100</v>
+        <v>903800</v>
       </c>
       <c r="E20" s="3">
-        <v>-244200</v>
+        <v>-495800</v>
       </c>
       <c r="F20" s="3">
-        <v>271200</v>
+        <v>550600</v>
       </c>
       <c r="G20" s="3">
-        <v>357700</v>
+        <v>726300</v>
       </c>
       <c r="H20" s="3">
-        <v>345800</v>
+        <v>702200</v>
       </c>
       <c r="I20" s="3">
-        <v>-773300</v>
+        <v>-1570100</v>
       </c>
       <c r="J20" s="3">
-        <v>1211900</v>
+        <v>2460600</v>
       </c>
       <c r="K20" s="3">
         <v>2318300</v>
@@ -1161,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11170500</v>
+        <v>22657300</v>
       </c>
       <c r="E21" s="3">
-        <v>4194500</v>
+        <v>8494700</v>
       </c>
       <c r="F21" s="3">
-        <v>9777100</v>
+        <v>19828800</v>
       </c>
       <c r="G21" s="3">
-        <v>9007500</v>
+        <v>18270100</v>
       </c>
       <c r="H21" s="3">
-        <v>6828800</v>
+        <v>13847500</v>
       </c>
       <c r="I21" s="3">
-        <v>4870300</v>
+        <v>9871800</v>
       </c>
       <c r="J21" s="3">
-        <v>6125500</v>
+        <v>12418200</v>
       </c>
       <c r="K21" s="3">
         <v>10751900</v>
@@ -1200,25 +1203,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>250000</v>
+        <v>507600</v>
       </c>
       <c r="E22" s="3">
-        <v>295300</v>
+        <v>599600</v>
       </c>
       <c r="F22" s="3">
-        <v>309600</v>
+        <v>628700</v>
       </c>
       <c r="G22" s="3">
-        <v>254600</v>
+        <v>517000</v>
       </c>
       <c r="H22" s="3">
-        <v>182800</v>
+        <v>371200</v>
       </c>
       <c r="I22" s="3">
-        <v>318600</v>
+        <v>646900</v>
       </c>
       <c r="J22" s="3">
-        <v>348700</v>
+        <v>708000</v>
       </c>
       <c r="K22" s="3">
         <v>329200</v>
@@ -1239,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7648700</v>
+        <v>15529400</v>
       </c>
       <c r="E23" s="3">
-        <v>781400</v>
+        <v>1586500</v>
       </c>
       <c r="F23" s="3">
-        <v>6275400</v>
+        <v>12741300</v>
       </c>
       <c r="G23" s="3">
-        <v>6114600</v>
+        <v>12414700</v>
       </c>
       <c r="H23" s="3">
-        <v>4146300</v>
+        <v>8418400</v>
       </c>
       <c r="I23" s="3">
-        <v>2155600</v>
+        <v>4376600</v>
       </c>
       <c r="J23" s="3">
-        <v>3077800</v>
+        <v>6249000</v>
       </c>
       <c r="K23" s="3">
         <v>6531000</v>
@@ -1278,25 +1281,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1514400</v>
+        <v>3074700</v>
       </c>
       <c r="E24" s="3">
-        <v>649800</v>
+        <v>1319400</v>
       </c>
       <c r="F24" s="3">
-        <v>1195500</v>
+        <v>2427200</v>
       </c>
       <c r="G24" s="3">
-        <v>1201700</v>
+        <v>2439800</v>
       </c>
       <c r="H24" s="3">
-        <v>820800</v>
+        <v>1666400</v>
       </c>
       <c r="I24" s="3">
-        <v>513100</v>
+        <v>1041900</v>
       </c>
       <c r="J24" s="3">
-        <v>762200</v>
+        <v>1547500</v>
       </c>
       <c r="K24" s="3">
         <v>1222800</v>
@@ -1356,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6134300</v>
+        <v>12454700</v>
       </c>
       <c r="E26" s="3">
-        <v>131600</v>
+        <v>267100</v>
       </c>
       <c r="F26" s="3">
-        <v>5080000</v>
+        <v>10314100</v>
       </c>
       <c r="G26" s="3">
-        <v>4912900</v>
+        <v>9974900</v>
       </c>
       <c r="H26" s="3">
-        <v>3325500</v>
+        <v>6752000</v>
       </c>
       <c r="I26" s="3">
-        <v>1642400</v>
+        <v>3334700</v>
       </c>
       <c r="J26" s="3">
-        <v>2315600</v>
+        <v>4701500</v>
       </c>
       <c r="K26" s="3">
         <v>5308200</v>
@@ -1395,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6117900</v>
+        <v>12421500</v>
       </c>
       <c r="E27" s="3">
-        <v>120000</v>
+        <v>243700</v>
       </c>
       <c r="F27" s="3">
-        <v>5063800</v>
+        <v>10281300</v>
       </c>
       <c r="G27" s="3">
-        <v>4897700</v>
+        <v>9943900</v>
       </c>
       <c r="H27" s="3">
-        <v>3312700</v>
+        <v>6726000</v>
       </c>
       <c r="I27" s="3">
-        <v>1635700</v>
+        <v>3321100</v>
       </c>
       <c r="J27" s="3">
-        <v>2302900</v>
+        <v>4675600</v>
       </c>
       <c r="K27" s="3">
         <v>5327700</v>
@@ -1590,25 +1593,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-445100</v>
+        <v>-903800</v>
       </c>
       <c r="E32" s="3">
-        <v>244200</v>
+        <v>495800</v>
       </c>
       <c r="F32" s="3">
-        <v>-271200</v>
+        <v>-550600</v>
       </c>
       <c r="G32" s="3">
-        <v>-357700</v>
+        <v>-726300</v>
       </c>
       <c r="H32" s="3">
-        <v>-345800</v>
+        <v>-702200</v>
       </c>
       <c r="I32" s="3">
-        <v>773300</v>
+        <v>1570100</v>
       </c>
       <c r="J32" s="3">
-        <v>-1211900</v>
+        <v>-2460600</v>
       </c>
       <c r="K32" s="3">
         <v>-2318300</v>
@@ -1629,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6117900</v>
+        <v>12421500</v>
       </c>
       <c r="E33" s="3">
-        <v>120000</v>
+        <v>243700</v>
       </c>
       <c r="F33" s="3">
-        <v>5063800</v>
+        <v>10281300</v>
       </c>
       <c r="G33" s="3">
-        <v>4897700</v>
+        <v>9943900</v>
       </c>
       <c r="H33" s="3">
-        <v>3312700</v>
+        <v>6726000</v>
       </c>
       <c r="I33" s="3">
-        <v>1635700</v>
+        <v>3321100</v>
       </c>
       <c r="J33" s="3">
-        <v>2302900</v>
+        <v>4675600</v>
       </c>
       <c r="K33" s="3">
         <v>5327700</v>
@@ -1707,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6117900</v>
+        <v>12421500</v>
       </c>
       <c r="E35" s="3">
-        <v>120000</v>
+        <v>243700</v>
       </c>
       <c r="F35" s="3">
-        <v>5063800</v>
+        <v>10281300</v>
       </c>
       <c r="G35" s="3">
-        <v>4897700</v>
+        <v>9943900</v>
       </c>
       <c r="H35" s="3">
-        <v>3312700</v>
+        <v>6726000</v>
       </c>
       <c r="I35" s="3">
-        <v>1635700</v>
+        <v>3321100</v>
       </c>
       <c r="J35" s="3">
-        <v>2302900</v>
+        <v>4675600</v>
       </c>
       <c r="K35" s="3">
         <v>5327700</v>
@@ -1824,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5358900</v>
+        <v>10880400</v>
       </c>
       <c r="E41" s="3">
-        <v>2719700</v>
+        <v>5521900</v>
       </c>
       <c r="F41" s="3">
-        <v>4081800</v>
+        <v>8287500</v>
       </c>
       <c r="G41" s="3">
-        <v>3896900</v>
+        <v>7912000</v>
       </c>
       <c r="H41" s="3">
-        <v>2613400</v>
+        <v>5306100</v>
       </c>
       <c r="I41" s="3">
-        <v>2067400</v>
+        <v>4197600</v>
       </c>
       <c r="J41" s="3">
-        <v>2035000</v>
+        <v>4131600</v>
       </c>
       <c r="K41" s="3">
         <v>2276700</v>
@@ -1863,25 +1866,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>97200</v>
+        <v>197400</v>
       </c>
       <c r="E42" s="3">
-        <v>66000</v>
+        <v>134100</v>
       </c>
       <c r="F42" s="3">
-        <v>393200</v>
+        <v>798300</v>
       </c>
       <c r="G42" s="3">
-        <v>207200</v>
+        <v>420800</v>
       </c>
       <c r="H42" s="3">
-        <v>154700</v>
+        <v>314100</v>
       </c>
       <c r="I42" s="3">
-        <v>133900</v>
+        <v>272000</v>
       </c>
       <c r="J42" s="3">
-        <v>188000</v>
+        <v>381700</v>
       </c>
       <c r="K42" s="3">
         <v>144100</v>
@@ -1902,25 +1905,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6683000</v>
+        <v>13568700</v>
       </c>
       <c r="E43" s="3">
-        <v>3346700</v>
+        <v>6795000</v>
       </c>
       <c r="F43" s="3">
-        <v>3979000</v>
+        <v>8078800</v>
       </c>
       <c r="G43" s="3">
-        <v>3878300</v>
+        <v>7874200</v>
       </c>
       <c r="H43" s="3">
-        <v>3770300</v>
+        <v>7655000</v>
       </c>
       <c r="I43" s="3">
-        <v>3440300</v>
+        <v>6984900</v>
       </c>
       <c r="J43" s="3">
-        <v>4130500</v>
+        <v>8386200</v>
       </c>
       <c r="K43" s="3">
         <v>8030500</v>
@@ -1941,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3701600</v>
+        <v>7515400</v>
       </c>
       <c r="E44" s="3">
-        <v>3373900</v>
+        <v>6850200</v>
       </c>
       <c r="F44" s="3">
-        <v>3274000</v>
+        <v>6647400</v>
       </c>
       <c r="G44" s="3">
-        <v>3019500</v>
+        <v>6130700</v>
       </c>
       <c r="H44" s="3">
-        <v>3149700</v>
+        <v>6394900</v>
       </c>
       <c r="I44" s="3">
-        <v>3197900</v>
+        <v>6492800</v>
       </c>
       <c r="J44" s="3">
-        <v>2691000</v>
+        <v>5463500</v>
       </c>
       <c r="K44" s="3">
         <v>4589100</v>
@@ -1980,25 +1983,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1159200</v>
+        <v>2353600</v>
       </c>
       <c r="E45" s="3">
-        <v>590400</v>
+        <v>1198700</v>
       </c>
       <c r="F45" s="3">
-        <v>565600</v>
+        <v>1148300</v>
       </c>
       <c r="G45" s="3">
-        <v>692900</v>
+        <v>1406800</v>
       </c>
       <c r="H45" s="3">
-        <v>659100</v>
+        <v>1338200</v>
       </c>
       <c r="I45" s="3">
-        <v>1092600</v>
+        <v>2218400</v>
       </c>
       <c r="J45" s="3">
-        <v>555600</v>
+        <v>1128000</v>
       </c>
       <c r="K45" s="3">
         <v>1731800</v>
@@ -2019,25 +2022,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16999800</v>
+        <v>34515500</v>
       </c>
       <c r="E46" s="3">
-        <v>10096800</v>
+        <v>20499900</v>
       </c>
       <c r="F46" s="3">
-        <v>12293600</v>
+        <v>24960200</v>
       </c>
       <c r="G46" s="3">
-        <v>11694800</v>
+        <v>23744400</v>
       </c>
       <c r="H46" s="3">
-        <v>10347200</v>
+        <v>21008300</v>
       </c>
       <c r="I46" s="3">
-        <v>9932100</v>
+        <v>20165600</v>
       </c>
       <c r="J46" s="3">
-        <v>9599900</v>
+        <v>19491200</v>
       </c>
       <c r="K46" s="3">
         <v>16652000</v>
@@ -2058,25 +2061,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2715300</v>
+        <v>5512900</v>
       </c>
       <c r="E47" s="3">
-        <v>2771100</v>
+        <v>5626300</v>
       </c>
       <c r="F47" s="3">
-        <v>2042600</v>
+        <v>4147300</v>
       </c>
       <c r="G47" s="3">
-        <v>2457000</v>
+        <v>4988600</v>
       </c>
       <c r="H47" s="3">
-        <v>1930100</v>
+        <v>3918700</v>
       </c>
       <c r="I47" s="3">
-        <v>2090000</v>
+        <v>4243300</v>
       </c>
       <c r="J47" s="3">
-        <v>2244900</v>
+        <v>4558000</v>
       </c>
       <c r="K47" s="3">
         <v>3245600</v>
@@ -2097,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>33721400</v>
+        <v>68465900</v>
       </c>
       <c r="E48" s="3">
-        <v>33732000</v>
+        <v>68487500</v>
       </c>
       <c r="F48" s="3">
-        <v>31845700</v>
+        <v>64657700</v>
       </c>
       <c r="G48" s="3">
-        <v>30288700</v>
+        <v>61496400</v>
       </c>
       <c r="H48" s="3">
-        <v>28279600</v>
+        <v>57417100</v>
       </c>
       <c r="I48" s="3">
-        <v>26825700</v>
+        <v>54465300</v>
       </c>
       <c r="J48" s="3">
-        <v>26982200</v>
+        <v>54783100</v>
       </c>
       <c r="K48" s="3">
         <v>42478700</v>
@@ -2136,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>350700</v>
+        <v>712100</v>
       </c>
       <c r="E49" s="3">
-        <v>396800</v>
+        <v>805600</v>
       </c>
       <c r="F49" s="3">
-        <v>341000</v>
+        <v>692300</v>
       </c>
       <c r="G49" s="3">
-        <v>330400</v>
+        <v>670700</v>
       </c>
       <c r="H49" s="3">
-        <v>326700</v>
+        <v>663300</v>
       </c>
       <c r="I49" s="3">
-        <v>341200</v>
+        <v>692700</v>
       </c>
       <c r="J49" s="3">
-        <v>409300</v>
+        <v>831100</v>
       </c>
       <c r="K49" s="3">
         <v>775600</v>
@@ -2253,25 +2256,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>513000</v>
+        <v>1041500</v>
       </c>
       <c r="E52" s="3">
-        <v>396700</v>
+        <v>805500</v>
       </c>
       <c r="F52" s="3">
-        <v>518200</v>
+        <v>1052100</v>
       </c>
       <c r="G52" s="3">
-        <v>572300</v>
+        <v>1162000</v>
       </c>
       <c r="H52" s="3">
-        <v>455800</v>
+        <v>925500</v>
       </c>
       <c r="I52" s="3">
-        <v>477100</v>
+        <v>968700</v>
       </c>
       <c r="J52" s="3">
-        <v>476600</v>
+        <v>967600</v>
       </c>
       <c r="K52" s="3">
         <v>718200</v>
@@ -2331,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54300200</v>
+        <v>110248000</v>
       </c>
       <c r="E54" s="3">
-        <v>47393400</v>
+        <v>96224800</v>
       </c>
       <c r="F54" s="3">
-        <v>47041200</v>
+        <v>95509600</v>
       </c>
       <c r="G54" s="3">
-        <v>45343100</v>
+        <v>92062100</v>
       </c>
       <c r="H54" s="3">
-        <v>41339400</v>
+        <v>83933000</v>
       </c>
       <c r="I54" s="3">
-        <v>39666100</v>
+        <v>80535600</v>
       </c>
       <c r="J54" s="3">
-        <v>39713000</v>
+        <v>80630900</v>
       </c>
       <c r="K54" s="3">
         <v>63833700</v>
@@ -2404,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5551700</v>
+        <v>11271900</v>
       </c>
       <c r="E57" s="3">
-        <v>4220800</v>
+        <v>8569600</v>
       </c>
       <c r="F57" s="3">
-        <v>4396600</v>
+        <v>8926500</v>
       </c>
       <c r="G57" s="3">
-        <v>3776600</v>
+        <v>7667800</v>
       </c>
       <c r="H57" s="3">
-        <v>4018900</v>
+        <v>8159700</v>
       </c>
       <c r="I57" s="3">
-        <v>3786300</v>
+        <v>7687500</v>
       </c>
       <c r="J57" s="3">
-        <v>2682200</v>
+        <v>5445800</v>
       </c>
       <c r="K57" s="3">
         <v>4960500</v>
@@ -2443,25 +2446,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>634800</v>
+        <v>1288800</v>
       </c>
       <c r="E58" s="3">
-        <v>653700</v>
+        <v>1327100</v>
       </c>
       <c r="F58" s="3">
-        <v>1030700</v>
+        <v>2092600</v>
       </c>
       <c r="G58" s="3">
-        <v>788000</v>
+        <v>1600000</v>
       </c>
       <c r="H58" s="3">
-        <v>1018100</v>
+        <v>2067100</v>
       </c>
       <c r="I58" s="3">
-        <v>462200</v>
+        <v>938400</v>
       </c>
       <c r="J58" s="3">
-        <v>478600</v>
+        <v>971700</v>
       </c>
       <c r="K58" s="3">
         <v>1633500</v>
@@ -2482,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3658900</v>
+        <v>7428800</v>
       </c>
       <c r="E59" s="3">
-        <v>2131200</v>
+        <v>4327000</v>
       </c>
       <c r="F59" s="3">
-        <v>4125500</v>
+        <v>8376200</v>
       </c>
       <c r="G59" s="3">
-        <v>2669600</v>
+        <v>5420100</v>
       </c>
       <c r="H59" s="3">
-        <v>2547500</v>
+        <v>5172200</v>
       </c>
       <c r="I59" s="3">
-        <v>2322200</v>
+        <v>4715000</v>
       </c>
       <c r="J59" s="3">
-        <v>2338000</v>
+        <v>4746900</v>
       </c>
       <c r="K59" s="3">
         <v>4044300</v>
@@ -2521,25 +2524,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9845400</v>
+        <v>19989600</v>
       </c>
       <c r="E60" s="3">
-        <v>7005600</v>
+        <v>14223700</v>
       </c>
       <c r="F60" s="3">
-        <v>9552700</v>
+        <v>19395300</v>
       </c>
       <c r="G60" s="3">
-        <v>7234200</v>
+        <v>14687800</v>
       </c>
       <c r="H60" s="3">
-        <v>7584500</v>
+        <v>15399100</v>
       </c>
       <c r="I60" s="3">
-        <v>6570700</v>
+        <v>13340800</v>
       </c>
       <c r="J60" s="3">
-        <v>5498800</v>
+        <v>11164400</v>
       </c>
       <c r="K60" s="3">
         <v>10499100</v>
@@ -2560,25 +2563,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5360600</v>
+        <v>10883800</v>
       </c>
       <c r="E61" s="3">
-        <v>4564700</v>
+        <v>9267800</v>
       </c>
       <c r="F61" s="3">
-        <v>3345400</v>
+        <v>6792300</v>
       </c>
       <c r="G61" s="3">
-        <v>3444200</v>
+        <v>6992900</v>
       </c>
       <c r="H61" s="3">
-        <v>3857300</v>
+        <v>7831600</v>
       </c>
       <c r="I61" s="3">
-        <v>5063700</v>
+        <v>10281000</v>
       </c>
       <c r="J61" s="3">
-        <v>6321700</v>
+        <v>12835300</v>
       </c>
       <c r="K61" s="3">
         <v>8551400</v>
@@ -2599,25 +2602,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3315800</v>
+        <v>6732100</v>
       </c>
       <c r="E62" s="3">
-        <v>3148800</v>
+        <v>6393100</v>
       </c>
       <c r="F62" s="3">
-        <v>2713100</v>
+        <v>5508500</v>
       </c>
       <c r="G62" s="3">
-        <v>2443200</v>
+        <v>4960500</v>
       </c>
       <c r="H62" s="3">
-        <v>2288500</v>
+        <v>4646500</v>
       </c>
       <c r="I62" s="3">
-        <v>2500800</v>
+        <v>5077600</v>
       </c>
       <c r="J62" s="3">
-        <v>2332300</v>
+        <v>4735400</v>
       </c>
       <c r="K62" s="3">
         <v>3727000</v>
@@ -2755,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18586200</v>
+        <v>37736400</v>
       </c>
       <c r="E66" s="3">
-        <v>14780300</v>
+        <v>30009200</v>
       </c>
       <c r="F66" s="3">
-        <v>15675100</v>
+        <v>31825900</v>
       </c>
       <c r="G66" s="3">
-        <v>13184600</v>
+        <v>26769200</v>
       </c>
       <c r="H66" s="3">
-        <v>13789200</v>
+        <v>27996800</v>
       </c>
       <c r="I66" s="3">
-        <v>14188900</v>
+        <v>28808300</v>
       </c>
       <c r="J66" s="3">
-        <v>14223300</v>
+        <v>28878100</v>
       </c>
       <c r="K66" s="3">
         <v>22920200</v>
@@ -2967,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36074200</v>
+        <v>73242900</v>
       </c>
       <c r="E72" s="3">
-        <v>32863700</v>
+        <v>66724400</v>
       </c>
       <c r="F72" s="3">
-        <v>33485200</v>
+        <v>67986500</v>
       </c>
       <c r="G72" s="3">
-        <v>32907000</v>
+        <v>66812500</v>
       </c>
       <c r="H72" s="3">
-        <v>28501700</v>
+        <v>57868200</v>
       </c>
       <c r="I72" s="3">
-        <v>26354800</v>
+        <v>53509200</v>
       </c>
       <c r="J72" s="3">
-        <v>26368200</v>
+        <v>53536500</v>
       </c>
       <c r="K72" s="3">
         <v>42417000</v>
@@ -3123,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>35713900</v>
+        <v>72511400</v>
       </c>
       <c r="E76" s="3">
-        <v>32613000</v>
+        <v>66215600</v>
       </c>
       <c r="F76" s="3">
-        <v>31366000</v>
+        <v>63683700</v>
       </c>
       <c r="G76" s="3">
-        <v>32158600</v>
+        <v>65292900</v>
       </c>
       <c r="H76" s="3">
-        <v>27550100</v>
+        <v>55936200</v>
       </c>
       <c r="I76" s="3">
-        <v>25477200</v>
+        <v>51727300</v>
       </c>
       <c r="J76" s="3">
-        <v>25489700</v>
+        <v>51752800</v>
       </c>
       <c r="K76" s="3">
         <v>40913500</v>
@@ -3245,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6117900</v>
+        <v>12421500</v>
       </c>
       <c r="E81" s="3">
-        <v>120000</v>
+        <v>243700</v>
       </c>
       <c r="F81" s="3">
-        <v>5063800</v>
+        <v>10281300</v>
       </c>
       <c r="G81" s="3">
-        <v>4897700</v>
+        <v>9943900</v>
       </c>
       <c r="H81" s="3">
-        <v>3312700</v>
+        <v>6726000</v>
       </c>
       <c r="I81" s="3">
-        <v>1635700</v>
+        <v>3321100</v>
       </c>
       <c r="J81" s="3">
-        <v>2302900</v>
+        <v>4675600</v>
       </c>
       <c r="K81" s="3">
         <v>5327700</v>
@@ -3301,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3365400</v>
+        <v>6833000</v>
       </c>
       <c r="E83" s="3">
-        <v>3207000</v>
+        <v>6511400</v>
       </c>
       <c r="F83" s="3">
-        <v>3283400</v>
+        <v>6666400</v>
       </c>
       <c r="G83" s="3">
-        <v>2713800</v>
+        <v>5509900</v>
       </c>
       <c r="H83" s="3">
-        <v>2571200</v>
+        <v>5220400</v>
       </c>
       <c r="I83" s="3">
-        <v>2464700</v>
+        <v>5004100</v>
       </c>
       <c r="J83" s="3">
-        <v>2776200</v>
+        <v>5636700</v>
       </c>
       <c r="K83" s="3">
         <v>3947400</v>
@@ -3535,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8911500</v>
+        <v>18093400</v>
       </c>
       <c r="E89" s="3">
-        <v>6142700</v>
+        <v>12471800</v>
       </c>
       <c r="F89" s="3">
-        <v>9111100</v>
+        <v>18498600</v>
       </c>
       <c r="G89" s="3">
-        <v>7962600</v>
+        <v>16166800</v>
       </c>
       <c r="H89" s="3">
-        <v>5999700</v>
+        <v>12181300</v>
       </c>
       <c r="I89" s="3">
-        <v>5950300</v>
+        <v>12081000</v>
       </c>
       <c r="J89" s="3">
-        <v>6715400</v>
+        <v>13634500</v>
       </c>
       <c r="K89" s="3">
         <v>8774600</v>
@@ -3591,25 +3594,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3425400</v>
+        <v>-6954700</v>
       </c>
       <c r="E91" s="3">
-        <v>-3919000</v>
+        <v>-7956800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3559300</v>
+        <v>-7226600</v>
       </c>
       <c r="G91" s="3">
-        <v>-3571600</v>
+        <v>-7251500</v>
       </c>
       <c r="H91" s="3">
-        <v>-4045900</v>
+        <v>-8214600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3932300</v>
+        <v>-7983900</v>
       </c>
       <c r="J91" s="3">
-        <v>-4751100</v>
+        <v>-9646300</v>
       </c>
       <c r="K91" s="3">
         <v>-7758500</v>
@@ -3708,25 +3711,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3465000</v>
+        <v>-7035200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3897800</v>
+        <v>-7913900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4035100</v>
+        <v>-8192600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3325300</v>
+        <v>-6751500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3427300</v>
+        <v>-6958600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3957700</v>
+        <v>-8035500</v>
       </c>
       <c r="J94" s="3">
-        <v>-4158500</v>
+        <v>-8443100</v>
       </c>
       <c r="K94" s="3">
         <v>-7790700</v>
@@ -3764,25 +3767,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2829200</v>
+        <v>-5744200</v>
       </c>
       <c r="E96" s="3">
-        <v>-3221800</v>
+        <v>-6541400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1429700</v>
+        <v>-2902800</v>
       </c>
       <c r="G96" s="3">
-        <v>-1252700</v>
+        <v>-2543400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1098000</v>
+        <v>-2229300</v>
       </c>
       <c r="I96" s="3">
-        <v>-1007300</v>
+        <v>-2045200</v>
       </c>
       <c r="J96" s="3">
-        <v>-884800</v>
+        <v>-1796400</v>
       </c>
       <c r="K96" s="3">
         <v>-668800</v>
@@ -3920,25 +3923,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2803100</v>
+        <v>-5691300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4065800</v>
+        <v>-8254900</v>
       </c>
       <c r="F100" s="3">
-        <v>-4606300</v>
+        <v>-9352400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3706200</v>
+        <v>-7524900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1956900</v>
+        <v>-3973200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1527700</v>
+        <v>-3101700</v>
       </c>
       <c r="J100" s="3">
-        <v>-2001700</v>
+        <v>-4064200</v>
       </c>
       <c r="K100" s="3">
         <v>406000</v>
@@ -3959,25 +3962,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4200</v>
+        <v>-8500</v>
       </c>
       <c r="E101" s="3">
-        <v>458800</v>
+        <v>931500</v>
       </c>
       <c r="F101" s="3">
-        <v>-284700</v>
+        <v>-578000</v>
       </c>
       <c r="G101" s="3">
-        <v>352400</v>
+        <v>715500</v>
       </c>
       <c r="H101" s="3">
-        <v>-69500</v>
+        <v>-141100</v>
       </c>
       <c r="I101" s="3">
-        <v>-432400</v>
+        <v>-877900</v>
       </c>
       <c r="J101" s="3">
-        <v>142800</v>
+        <v>289900</v>
       </c>
       <c r="K101" s="3">
         <v>307500</v>
@@ -3998,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2639200</v>
+        <v>5358400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1362100</v>
+        <v>-2765500</v>
       </c>
       <c r="F102" s="3">
-        <v>185000</v>
+        <v>375500</v>
       </c>
       <c r="G102" s="3">
-        <v>1283500</v>
+        <v>2605900</v>
       </c>
       <c r="H102" s="3">
-        <v>546000</v>
+        <v>1108500</v>
       </c>
       <c r="I102" s="3">
-        <v>32500</v>
+        <v>65900</v>
       </c>
       <c r="J102" s="3">
-        <v>698000</v>
+        <v>1417100</v>
       </c>
       <c r="K102" s="3">
         <v>1697400</v>
